--- a/out_test/tables/aggregated_30.xlsx
+++ b/out_test/tables/aggregated_30.xlsx
@@ -777,76 +777,76 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2">
-        <v>47.3</v>
+        <v>48.1</v>
       </c>
       <c r="I2">
-        <v>17.84404662625605</v>
+        <v>22.3268896176785</v>
       </c>
       <c r="J2">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="L2">
         <v>0.8</v>
       </c>
       <c r="M2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N2">
-        <v>0.4933333333333333</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="O2">
-        <v>0.7633333333333334</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="P2">
-        <v>0.640581346149906</v>
+        <v>0.6383947427798635</v>
       </c>
       <c r="Q2">
-        <v>0.02494438257849294</v>
+        <v>0.01666666666666666</v>
       </c>
       <c r="R2">
-        <v>0.02333333333333337</v>
+        <v>0.02666666666666671</v>
       </c>
       <c r="S2">
-        <v>0.004944310511912471</v>
+        <v>0.008744066132873943</v>
       </c>
       <c r="T2">
         <v>0.2</v>
       </c>
       <c r="U2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="V2">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="W2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="X2">
-        <v>0.2366666666666667</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="Y2">
-        <v>0.5066666666666666</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="Z2">
-        <v>0.3594186538500941</v>
+        <v>0.3616052572201364</v>
       </c>
       <c r="AA2">
-        <v>0.02333333333333333</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="AB2">
-        <v>0.02494438257849294</v>
+        <v>0.01666666666666666</v>
       </c>
       <c r="AC2">
-        <v>0.004944310511912416</v>
+        <v>0.008744066132873905</v>
       </c>
     </row>
     <row r="3" spans="1:62">
@@ -860,181 +860,181 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>34.375</v>
+        <v>24.75</v>
       </c>
       <c r="I3">
-        <v>29.6687440752048</v>
+        <v>8.613216588476108</v>
       </c>
       <c r="J3">
-        <v>0.3333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N3">
-        <v>0.475</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="O3">
-        <v>0.7375</v>
+        <v>0.75</v>
       </c>
       <c r="P3">
-        <v>0.6247947181993263</v>
+        <v>0.6325671185539604</v>
       </c>
       <c r="Q3">
-        <v>0.06180165405913052</v>
+        <v>0.03726779962499649</v>
       </c>
       <c r="R3">
-        <v>0.03510895738823486</v>
+        <v>0.01666666666666672</v>
       </c>
       <c r="S3">
-        <v>0.01154702497281603</v>
+        <v>0.01487283663062444</v>
       </c>
       <c r="T3">
-        <v>0.2</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="V3">
-        <v>0.6666666666666666</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.2625</v>
+        <v>0.25</v>
       </c>
       <c r="Y3">
-        <v>0.525</v>
+        <v>0.5166666666666666</v>
       </c>
       <c r="Z3">
-        <v>0.3752052818006736</v>
+        <v>0.3674328814460394</v>
       </c>
       <c r="AA3">
-        <v>0.03510895738823482</v>
+        <v>0.01666666666666666</v>
       </c>
       <c r="AB3">
-        <v>0.06180165405913051</v>
+        <v>0.03726779962499649</v>
       </c>
       <c r="AC3">
-        <v>0.01154702497281599</v>
+        <v>0.01487283663062436</v>
       </c>
       <c r="AD3">
-        <v>-0.4242640687119285</v>
+        <v>-0.3713906763541082</v>
       </c>
       <c r="AE3">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AF3">
-        <v>1.260656560172406</v>
+        <v>1.092252505352855</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>-0.2350260367470899</v>
+        <v>-0.3185081647987705</v>
       </c>
       <c r="AI3">
-        <v>0.9200929122757008</v>
+        <v>0.8424401481062922</v>
       </c>
       <c r="AJ3">
-        <v>0.1465175320937149</v>
+        <v>0.1462867770181568</v>
       </c>
       <c r="AK3">
-        <v>0.1880907729945215</v>
+        <v>0.05388500430424849</v>
       </c>
       <c r="AL3">
-        <v>0.2167481180179686</v>
+        <v>0.1908172457089166</v>
       </c>
       <c r="AM3">
-        <v>0.09014496927549201</v>
+        <v>0.05013341473119987</v>
       </c>
       <c r="AN3">
-        <v>-2.385873333333322</v>
+        <v>-6.2084233333333</v>
       </c>
       <c r="AO3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AP3">
-        <v>44.49349333333333</v>
+        <v>31.90051666666668</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>-1.354672499999998</v>
+        <v>-3.244539999999994</v>
       </c>
       <c r="AS3">
-        <v>28.83540958333334</v>
+        <v>26.34928583333333</v>
       </c>
       <c r="AT3">
-        <v>2.423831992827272</v>
+        <v>2.075130786948432</v>
       </c>
       <c r="AU3">
+        <v>0.5</v>
+      </c>
+      <c r="AV3">
         <v>2</v>
       </c>
-      <c r="AV3">
-        <v>4</v>
-      </c>
       <c r="AW3">
-        <v>2.456547619047619</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="AX3">
-        <v>1.25</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AY3">
-        <v>2.285714285714286</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="AZ3">
-        <v>1.566464785214785</v>
+        <v>1.394751082251082</v>
       </c>
       <c r="BA3">
-        <v>1.061797949279874</v>
+        <v>1.167643096050927</v>
       </c>
       <c r="BB3">
-        <v>1.793068050937266</v>
+        <v>1.395156829017423</v>
       </c>
       <c r="BC3">
-        <v>1.323213740102504</v>
+        <v>1.261222096154614</v>
       </c>
       <c r="BD3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BE3">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="BF3">
-        <v>33.5</v>
+        <v>37.5</v>
       </c>
       <c r="BG3">
-        <v>10.5</v>
+        <v>19.49145111751987</v>
       </c>
       <c r="BH3">
-        <v>101.8106</v>
+        <v>96.98199999999999</v>
       </c>
       <c r="BI3">
-        <v>1.009000000000015</v>
+        <v>5.90874027691182</v>
       </c>
       <c r="BJ3">
-        <v>102.8196</v>
+        <v>103.8361</v>
       </c>
     </row>
     <row r="4" spans="1:62">
@@ -1048,181 +1048,181 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>43.83333333333334</v>
       </c>
       <c r="I4">
-        <v>34.57166469813104</v>
+        <v>35.22506998652459</v>
       </c>
       <c r="J4">
-        <v>0.4666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="M4">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="N4">
-        <v>0.48</v>
+        <v>0.4722222222222223</v>
       </c>
       <c r="O4">
-        <v>0.7533333333333333</v>
+        <v>0.7611111111111111</v>
       </c>
       <c r="P4">
-        <v>0.6341858387799564</v>
+        <v>0.6374740804183195</v>
       </c>
       <c r="Q4">
-        <v>0.01632993161855452</v>
+        <v>0.04044505494044732</v>
       </c>
       <c r="R4">
-        <v>0.04521553322083516</v>
+        <v>0.01242259987499887</v>
       </c>
       <c r="S4">
-        <v>0.01116127612780876</v>
+        <v>0.007378962604085104</v>
       </c>
       <c r="T4">
-        <v>0.1666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="U4">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="V4">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.2466666666666667</v>
+        <v>0.2388888888888889</v>
       </c>
       <c r="Y4">
-        <v>0.52</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="Z4">
-        <v>0.3658141612200435</v>
+        <v>0.3625259195816805</v>
       </c>
       <c r="AA4">
-        <v>0.04521553322083512</v>
+        <v>0.01242259987499883</v>
       </c>
       <c r="AB4">
-        <v>0.01632993161855452</v>
+        <v>0.04044505494044731</v>
       </c>
       <c r="AC4">
-        <v>0.01116127612780876</v>
+        <v>0.007378962604085149</v>
       </c>
       <c r="AD4">
-        <v>-0.4522670168666447</v>
+        <v>-0.5345224838248431</v>
       </c>
       <c r="AE4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AF4">
-        <v>1.040820074429404</v>
+        <v>1.185239731832779</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>-0.2444712029823259</v>
+        <v>-0.3123860300252375</v>
       </c>
       <c r="AI4">
-        <v>0.9853479778818203</v>
+        <v>0.9004036577351888</v>
       </c>
       <c r="AJ4">
-        <v>0.1173078722756749</v>
+        <v>0.09318061711599511</v>
       </c>
       <c r="AK4">
-        <v>0.1818297166024355</v>
+        <v>0.1580683724567594</v>
       </c>
       <c r="AL4">
-        <v>0.04698270541690446</v>
+        <v>0.2056869798554296</v>
       </c>
       <c r="AM4">
-        <v>0.06742130205511511</v>
+        <v>0.05513687789923368</v>
       </c>
       <c r="AN4">
-        <v>-2.366943333333325</v>
+        <v>-4.383626666666672</v>
       </c>
       <c r="AO4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP4">
-        <v>37.27512333333335</v>
+        <v>42.19244999999999</v>
       </c>
       <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>-1.072843333333336</v>
+        <v>-2.133382777777781</v>
       </c>
       <c r="AS4">
-        <v>34.03993266666667</v>
+        <v>30.15259166666667</v>
       </c>
       <c r="AT4">
-        <v>1.937864483071896</v>
+        <v>1.391999370091558</v>
       </c>
       <c r="AU4">
-        <v>1.5</v>
+        <v>0.875</v>
       </c>
       <c r="AV4">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AW4">
-        <v>1.783333333333334</v>
+        <v>1.548611111111111</v>
       </c>
       <c r="AX4">
-        <v>1.071428571428571</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="AY4">
         <v>2</v>
       </c>
       <c r="AZ4">
-        <v>1.473260073260073</v>
+        <v>1.492826617826618</v>
       </c>
       <c r="BA4">
-        <v>1.069361063179038</v>
+        <v>1.064762139431568</v>
       </c>
       <c r="BB4">
-        <v>1.393103889650616</v>
+        <v>1.38629966509762</v>
       </c>
       <c r="BC4">
-        <v>1.229125974336219</v>
+        <v>1.172321505803338</v>
       </c>
       <c r="BD4">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="BE4">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="BF4">
-        <v>29</v>
+        <v>55.5</v>
       </c>
       <c r="BG4">
-        <v>6.870225614927067</v>
+        <v>21.5</v>
       </c>
       <c r="BH4">
-        <v>96.99477999999999</v>
+        <v>100.7383</v>
       </c>
       <c r="BI4">
-        <v>7.057594923314883</v>
+        <v>3.839457477300663</v>
       </c>
       <c r="BJ4">
-        <v>104.4484</v>
+        <v>104.2441</v>
       </c>
     </row>
     <row r="5" spans="1:62">
@@ -1236,181 +1236,181 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H5">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>23.68966019173766</v>
       </c>
       <c r="J5">
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="M5">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N5">
-        <v>0.5</v>
+        <v>0.5266666666666666</v>
       </c>
       <c r="O5">
-        <v>0.7666666666666666</v>
+        <v>0.74</v>
       </c>
       <c r="P5">
-        <v>0.6386638872344652</v>
+        <v>0.6372090434191499</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.02494438257849294</v>
       </c>
       <c r="R5">
-        <v>0.03333333333333338</v>
+        <v>0.02494438257849298</v>
       </c>
       <c r="S5">
-        <v>0.002432003176493891</v>
+        <v>0.01199015347339989</v>
       </c>
       <c r="T5">
-        <v>0.2</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="U5">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="V5">
         <v>0.5</v>
       </c>
       <c r="W5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <v>0.2333333333333333</v>
+        <v>0.26</v>
       </c>
       <c r="Y5">
-        <v>0.5</v>
+        <v>0.4733333333333333</v>
       </c>
       <c r="Z5">
-        <v>0.361336112765535</v>
+        <v>0.3627909565808503</v>
       </c>
       <c r="AA5">
-        <v>0.03333333333333333</v>
+        <v>0.02494438257849294</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.02494438257849294</v>
       </c>
       <c r="AC5">
-        <v>0.002432003176493919</v>
+        <v>0.01199015347339987</v>
       </c>
       <c r="AD5">
-        <v>-0.5883484054145462</v>
+        <v>-0.5380077714285122</v>
       </c>
       <c r="AE5">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="AF5">
-        <v>0.5664327763538516</v>
+        <v>0.5294521438194486</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>-0.4912018042679816</v>
+        <v>-0.4044676856946253</v>
       </c>
       <c r="AI5">
-        <v>0.5599957744419215</v>
+        <v>0.4656792343549968</v>
       </c>
       <c r="AJ5">
-        <v>0.03856323406764888</v>
+        <v>0.06248502010570839</v>
       </c>
       <c r="AK5">
-        <v>0.09714660114656465</v>
+        <v>0.07120002421052611</v>
       </c>
       <c r="AL5">
-        <v>0.006437001911930029</v>
+        <v>0.0494898477811711</v>
       </c>
       <c r="AM5">
-        <v>0.0009117082010921679</v>
+        <v>0.02298281822734283</v>
       </c>
       <c r="AN5">
-        <v>-0.3490000000000002</v>
+        <v>-0.7042133333333389</v>
       </c>
       <c r="AO5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP5">
-        <v>4.610493333333331</v>
+        <v>4.44253333333333</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>-0.2231749999999977</v>
+        <v>-0.3725226666666678</v>
       </c>
       <c r="AS5">
-        <v>3.745143333333331</v>
+        <v>3.601620666666664</v>
       </c>
       <c r="AT5">
-        <v>0.1010165432466414</v>
+        <v>0.150396703344872</v>
       </c>
       <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
         <v>1.333333333333333</v>
       </c>
-      <c r="AV5">
-        <v>2</v>
-      </c>
       <c r="AW5">
-        <v>1.666666666666667</v>
+        <v>0.7666666666666666</v>
       </c>
       <c r="AX5">
         <v>1.071428571428571</v>
       </c>
       <c r="AY5">
-        <v>1.25</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="AZ5">
-        <v>1.160714285714286</v>
+        <v>1.360750360750361</v>
       </c>
       <c r="BA5">
-        <v>1.04065027143127</v>
+        <v>1.03760678066032</v>
       </c>
       <c r="BB5">
-        <v>1.050189804481089</v>
+        <v>1.151143810076616</v>
       </c>
       <c r="BC5">
-        <v>1.04542003795618</v>
+        <v>1.096336852483821</v>
       </c>
       <c r="BD5">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="BE5">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="BF5">
-        <v>40.125</v>
+        <v>51.8</v>
       </c>
       <c r="BG5">
-        <v>26.36966770742476</v>
+        <v>16.9162643630324</v>
       </c>
       <c r="BH5">
-        <v>25.7919375</v>
+        <v>25.88602</v>
       </c>
       <c r="BI5">
-        <v>0.5439301998820714</v>
+        <v>0.20659972313631</v>
       </c>
       <c r="BJ5">
-        <v>26.2128</v>
+        <v>26.1303</v>
       </c>
     </row>
     <row r="6" spans="1:62">
@@ -1424,181 +1424,181 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>0.5166666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="O6">
-        <v>0.7666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="P6">
-        <v>0.6445019553715206</v>
+        <v>0.6448979591836739</v>
       </c>
       <c r="Q6">
-        <v>0.01666666666666666</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.03333333333333338</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.006820795951230918</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="W6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Y6">
-        <v>0.4833333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="Z6">
-        <v>0.3554980446284794</v>
+        <v>0.3551020408163267</v>
       </c>
       <c r="AA6">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01666666666666666</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.006820795951230668</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>-0.3527641774466536</v>
+        <v>-0.3333333333333272</v>
       </c>
       <c r="AE6">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AF6">
-        <v>0.4711412405896289</v>
+        <v>0.4704462138528056</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>-0.2736605533420143</v>
+        <v>-0.3333333333333272</v>
       </c>
       <c r="AI6">
-        <v>0.4563939121954919</v>
+        <v>0.4704462138528056</v>
       </c>
       <c r="AJ6">
-        <v>0.08962252713485298</v>
+        <v>0.04177136173167684</v>
       </c>
       <c r="AK6">
-        <v>0.07910362410463929</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.01474732839413703</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.04015220226840132</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>-0.1579533333333245</v>
+        <v>-0.1779600000000059</v>
       </c>
       <c r="AO6">
         <v>6</v>
       </c>
       <c r="AP6">
-        <v>3.713370000000003</v>
+        <v>3.956106666666667</v>
       </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>-0.1462849999999953</v>
+        <v>-0.1779600000000059</v>
       </c>
       <c r="AS6">
-        <v>3.152933333333334</v>
+        <v>3.956106666666667</v>
       </c>
       <c r="AT6">
-        <v>0.188831256038647</v>
+        <v>0.09801129251700663</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AV6">
-        <v>2.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AW6">
-        <v>1.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="AX6">
-        <v>1.307692307692308</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="AY6">
-        <v>1.363636363636364</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="AZ6">
-        <v>1.335664335664336</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="BA6">
-        <v>1.091098600164078</v>
+        <v>1.148567037471385</v>
       </c>
       <c r="BB6">
-        <v>1.22004191072339</v>
+        <v>1.148567037471385</v>
       </c>
       <c r="BC6">
-        <v>1.155570255443734</v>
+        <v>1.148567037471385</v>
       </c>
       <c r="BD6">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="BE6">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="BF6">
-        <v>53.125</v>
+        <v>40</v>
       </c>
       <c r="BG6">
-        <v>21.76831125742188</v>
+        <v>15.20233900132184</v>
       </c>
       <c r="BH6">
-        <v>25.5279125</v>
+        <v>25.86423333333333</v>
       </c>
       <c r="BI6">
-        <v>0.3461912709670043</v>
+        <v>0.3147881227464314</v>
       </c>
       <c r="BJ6">
-        <v>26.0028</v>
+        <v>26.2063</v>
       </c>
     </row>
     <row r="7" spans="1:62">
@@ -1612,181 +1612,181 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="H7">
-        <v>48.8</v>
+        <v>29.85714285714286</v>
       </c>
       <c r="I7">
-        <v>29.3148426569204</v>
+        <v>27.07887195070077</v>
       </c>
       <c r="J7">
-        <v>0.4666666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0.8</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="N7">
-        <v>0.4933333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="O7">
-        <v>0.74</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="P7">
-        <v>0.6322212047212048</v>
+        <v>0.6262645185986148</v>
       </c>
       <c r="Q7">
-        <v>0.02494438257849294</v>
+        <v>0.03984095364447978</v>
       </c>
       <c r="R7">
-        <v>0.03887301263230204</v>
+        <v>0.03984095364447982</v>
       </c>
       <c r="S7">
-        <v>0.009146022054143686</v>
+        <v>0.01818278468502089</v>
       </c>
       <c r="T7">
         <v>0.2</v>
       </c>
       <c r="U7">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="V7">
-        <v>0.5333333333333333</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="W7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.26</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Y7">
-        <v>0.5066666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="Z7">
-        <v>0.3677787952787954</v>
+        <v>0.3737354814013853</v>
       </c>
       <c r="AA7">
-        <v>0.03887301263230199</v>
+        <v>0.03984095364447978</v>
       </c>
       <c r="AB7">
-        <v>0.02494438257849294</v>
+        <v>0.03984095364447978</v>
       </c>
       <c r="AC7">
-        <v>0.009146022054143525</v>
+        <v>0.01818278468502091</v>
       </c>
       <c r="AD7">
-        <v>-0.4082482904638582</v>
+        <v>-0.4472135954999571</v>
       </c>
       <c r="AE7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AF7">
-        <v>0.9589265404395483</v>
+        <v>1.008300211025157</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>-0.2824402347540773</v>
+        <v>-0.2276380027586381</v>
       </c>
       <c r="AI7">
-        <v>0.7660015495096</v>
+        <v>0.8416926424509787</v>
       </c>
       <c r="AJ7">
-        <v>0.09782723933016038</v>
+        <v>0.1634464722407949</v>
       </c>
       <c r="AK7">
-        <v>0.09479179042251709</v>
+        <v>0.169542405714942</v>
       </c>
       <c r="AL7">
-        <v>0.146211826710528</v>
+        <v>0.121943485048657</v>
       </c>
       <c r="AM7">
-        <v>0.04698700387774774</v>
+        <v>0.1048503212332592</v>
       </c>
       <c r="AN7">
-        <v>-0.3854277850972601</v>
+        <v>-0.6274973281045035</v>
       </c>
       <c r="AO7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AP7">
-        <v>2.94208561552043</v>
+        <v>3.979515170783908</v>
       </c>
       <c r="AQ7">
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>-0.2213647586824024</v>
+        <v>-0.211580486281038</v>
       </c>
       <c r="AS7">
-        <v>2.482827784826299</v>
+        <v>2.881399137649348</v>
       </c>
       <c r="AT7">
-        <v>0.1719228937373702</v>
+        <v>0.3802735077415532</v>
       </c>
       <c r="AU7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>1.666666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="AW7">
-        <v>1.123333333333334</v>
+        <v>1.547619047619047</v>
       </c>
       <c r="AX7">
-        <v>1.214285714285714</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="AY7">
-        <v>1.454545454545455</v>
+        <v>2</v>
       </c>
       <c r="AZ7">
-        <v>1.318031968031968</v>
+        <v>1.551530612244898</v>
       </c>
       <c r="BA7">
-        <v>1.072562482929696</v>
+        <v>1.066574036001902</v>
       </c>
       <c r="BB7">
-        <v>1.352182956224272</v>
+        <v>1.539823384363614</v>
       </c>
       <c r="BC7">
-        <v>1.176072805394655</v>
+        <v>1.296254851644574</v>
       </c>
       <c r="BD7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BE7">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="BF7">
-        <v>18.8</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="BG7">
-        <v>7.054076835419359</v>
+        <v>17.46106780494506</v>
       </c>
       <c r="BH7">
-        <v>11.67223763655707</v>
+        <v>12.01606885157712</v>
       </c>
       <c r="BI7">
-        <v>0.932546832615349</v>
+        <v>0.593028620630157</v>
       </c>
       <c r="BJ7">
-        <v>12.7751260120747</v>
+        <v>12.55350613666823</v>
       </c>
     </row>
     <row r="8" spans="1:62">
@@ -1800,181 +1800,181 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="H8">
-        <v>21.5</v>
+        <v>39.5</v>
       </c>
       <c r="I8">
-        <v>8.05708797684788</v>
+        <v>31.94135250736888</v>
       </c>
       <c r="J8">
         <v>0.4666666666666667</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L8">
         <v>0.8</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="N8">
-        <v>0.5055555555555555</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="O8">
-        <v>0.7666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="P8">
-        <v>0.6360904172669999</v>
+        <v>0.6247981296090306</v>
       </c>
       <c r="Q8">
-        <v>0.02290614236454255</v>
+        <v>0.02763853991962833</v>
       </c>
       <c r="R8">
-        <v>0.03849001794597509</v>
+        <v>0.03726779962499654</v>
       </c>
       <c r="S8">
-        <v>0.01516371636365017</v>
+        <v>0.012142116498713</v>
       </c>
       <c r="T8">
         <v>0.2</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="V8">
         <v>0.5333333333333333</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X8">
-        <v>0.2333333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="Y8">
-        <v>0.4944444444444445</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="Z8">
-        <v>0.3639095827329999</v>
+        <v>0.3752018703909694</v>
       </c>
       <c r="AA8">
-        <v>0.03849001794597504</v>
+        <v>0.03726779962499649</v>
       </c>
       <c r="AB8">
-        <v>0.02290614236454255</v>
+        <v>0.02763853991962833</v>
       </c>
       <c r="AC8">
-        <v>0.01516371636365008</v>
+        <v>0.01214211649871295</v>
       </c>
       <c r="AD8">
-        <v>-0.2959941012741295</v>
+        <v>-0.4364357804719895</v>
       </c>
       <c r="AE8">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="AF8">
-        <v>0.9039642141703439</v>
+        <v>0.8475193177303518</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>-0.203492322958049</v>
+        <v>-0.3855129132570119</v>
       </c>
       <c r="AI8">
-        <v>0.7184605149580229</v>
+        <v>0.689223000418848</v>
       </c>
       <c r="AJ8">
-        <v>0.1377044280225535</v>
+        <v>0.09952774953702093</v>
       </c>
       <c r="AK8">
-        <v>0.06795124480246263</v>
+        <v>0.03792030008025462</v>
       </c>
       <c r="AL8">
-        <v>0.114380326021273</v>
+        <v>0.12054784805238</v>
       </c>
       <c r="AM8">
-        <v>0.03846936701853907</v>
+        <v>0.04584659409327286</v>
       </c>
       <c r="AN8">
-        <v>-0.2734222027219833</v>
+        <v>-0.1962706352010866</v>
       </c>
       <c r="AO8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AP8">
-        <v>3.492114360999398</v>
+        <v>2.915173375998355</v>
       </c>
       <c r="AQ8">
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>-0.1561825419084369</v>
+        <v>-0.1306840903735726</v>
       </c>
       <c r="AS8">
-        <v>2.511270487584182</v>
+        <v>2.534671073215327</v>
       </c>
       <c r="AT8">
-        <v>0.2874164283958834</v>
+        <v>0.2374007781987527</v>
       </c>
       <c r="AU8">
         <v>1</v>
       </c>
       <c r="AV8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW8">
-        <v>1.768783068783069</v>
+        <v>2.7</v>
       </c>
       <c r="AX8">
-        <v>1.071428571428571</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="AY8">
-        <v>1.636363636363636</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="AZ8">
-        <v>1.231518481518481</v>
+        <v>1.544594294594295</v>
       </c>
       <c r="BA8">
-        <v>1.189089000576639</v>
+        <v>1.058716664138587</v>
       </c>
       <c r="BB8">
-        <v>1.307299189558281</v>
+        <v>1.419083798710471</v>
       </c>
       <c r="BC8">
-        <v>1.236299433848991</v>
+        <v>1.213127288913058</v>
       </c>
       <c r="BD8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BE8">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="BF8">
-        <v>25</v>
+        <v>59.16666666666666</v>
       </c>
       <c r="BG8">
-        <v>9.974968671630002</v>
+        <v>44.87915873642118</v>
       </c>
       <c r="BH8">
-        <v>12.61162071907376</v>
+        <v>11.66394742715304</v>
       </c>
       <c r="BI8">
-        <v>0.2776457928548832</v>
+        <v>1.166666006732365</v>
       </c>
       <c r="BJ8">
-        <v>12.87129965752215</v>
+        <v>12.8391615976917</v>
       </c>
     </row>
     <row r="9" spans="1:62">
@@ -1988,181 +1988,160 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>23.1</v>
       </c>
       <c r="I9">
-        <v>15.36229149573722</v>
+        <v>22.51865892987413</v>
       </c>
       <c r="J9">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.8</v>
+      </c>
+      <c r="M9">
+        <v>67</v>
+      </c>
+      <c r="N9">
+        <v>0.2933333333333333</v>
+      </c>
+      <c r="O9">
+        <v>0.7266666666666668</v>
+      </c>
+      <c r="P9">
+        <v>0.6340074295822143</v>
+      </c>
+      <c r="Q9">
+        <v>0.09977753031397177</v>
+      </c>
+      <c r="R9">
+        <v>0.0466666666666667</v>
+      </c>
+      <c r="S9">
+        <v>0.02099332237622237</v>
+      </c>
+      <c r="T9">
         <v>0.2</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="M9">
-        <v>10</v>
-      </c>
-      <c r="N9">
-        <v>0.3037037037037036</v>
-      </c>
-      <c r="O9">
-        <v>0.7074074074074074</v>
-      </c>
-      <c r="P9">
-        <v>0.6185816275631092</v>
-      </c>
-      <c r="Q9">
-        <v>0.04829038818668627</v>
-      </c>
-      <c r="R9">
-        <v>0.0561694477337152</v>
-      </c>
-      <c r="S9">
-        <v>0.04993241303787523</v>
-      </c>
-      <c r="T9">
-        <v>0.2333333333333333</v>
-      </c>
       <c r="U9">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="V9">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.2925925925925926</v>
+        <v>0.2733333333333333</v>
       </c>
       <c r="Y9">
-        <v>0.6962962962962963</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="Z9">
-        <v>0.381418372436891</v>
+        <v>0.3659925704177856</v>
       </c>
       <c r="AA9">
-        <v>0.05616944773371519</v>
+        <v>0.04666666666666665</v>
       </c>
       <c r="AB9">
-        <v>0.0482903881866863</v>
+        <v>0.0997775303139718</v>
       </c>
       <c r="AC9">
-        <v>0.04993241303787518</v>
+        <v>0.02099332237622237</v>
       </c>
       <c r="AD9">
-        <v>-0.3713906763540988</v>
+        <v>-0.472866243743454</v>
       </c>
       <c r="AE9">
         <v>43</v>
       </c>
       <c r="AF9">
-        <v>2.662354895480724</v>
+        <v>2.716758779522179</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>-0.06271162428508124</v>
+        <v>-0.153566175884159</v>
       </c>
       <c r="AI9">
-        <v>1.973903288544146</v>
+        <v>2.037286093423872</v>
       </c>
       <c r="AJ9">
-        <v>0.219057555793534</v>
+        <v>0.1641044986403082</v>
       </c>
       <c r="AK9">
-        <v>0.1604487904191574</v>
+        <v>0.1868917772004891</v>
       </c>
       <c r="AL9">
-        <v>0.3861158525795783</v>
+        <v>0.4425137220010397</v>
       </c>
       <c r="AM9">
-        <v>0.137295557218328</v>
+        <v>0.09454452329209866</v>
       </c>
       <c r="AN9">
-        <v>-374.6969397095236</v>
+        <v>-1337.383279999503</v>
       </c>
       <c r="AO9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP9">
-        <v>16371.42950842719</v>
+        <v>18499.16262754863</v>
       </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>9.824099281752247</v>
+        <v>-255.3722558707486</v>
       </c>
       <c r="AS9">
-        <v>13318.69828861031</v>
+        <v>14019.619345847</v>
       </c>
       <c r="AT9">
-        <v>1471.68592199253</v>
+        <v>1007.610991651432</v>
       </c>
       <c r="AU9">
-        <v>1.285714285714286</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="AW9">
-        <v>1.877818477818478</v>
+        <v>1.573015873015873</v>
       </c>
       <c r="AX9">
-        <v>1.153846153846154</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AY9">
-        <v>2</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="AZ9">
-        <v>1.488859905526572</v>
+        <v>1.498824786324787</v>
       </c>
       <c r="BA9">
-        <v>1.142089141741638</v>
+        <v>1.072148970308405</v>
       </c>
       <c r="BB9">
-        <v>3.406746031746032</v>
+        <v>2.737819241513823</v>
       </c>
       <c r="BC9">
-        <v>1.977519981566866</v>
-      </c>
-      <c r="BD9">
-        <v>62</v>
-      </c>
-      <c r="BE9">
-        <v>62</v>
-      </c>
-      <c r="BF9">
-        <v>62</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>25336.46648519111</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>25336.46648519111</v>
+        <v>1.769682038355162</v>
       </c>
     </row>
   </sheetData>

--- a/out_test/tables/aggregated_30.xlsx
+++ b/out_test/tables/aggregated_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Fitness Function</t>
   </si>
@@ -209,6 +209,33 @@
   </si>
   <si>
     <t>nonMax_F_found</t>
+  </si>
+  <si>
+    <t>I_start</t>
+  </si>
+  <si>
+    <t>GR_start</t>
+  </si>
+  <si>
+    <t>Pr_start</t>
+  </si>
+  <si>
+    <t>Pr_min</t>
+  </si>
+  <si>
+    <t>NI_Pr_min</t>
+  </si>
+  <si>
+    <t>Pr_max</t>
+  </si>
+  <si>
+    <t>NI_Pr_max</t>
+  </si>
+  <si>
+    <t>Pr_avg</t>
+  </si>
+  <si>
+    <t>NI_Pr_avg</t>
   </si>
   <si>
     <t>Fx2</t>
@@ -561,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ9"/>
+  <dimension ref="A1:BS9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +599,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:71">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -759,8 +786,35 @@
       <c r="BJ1" t="s">
         <v>64</v>
       </c>
+      <c r="BK1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:71">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -777,81 +831,81 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="H2">
-        <v>48.1</v>
+        <v>43.3</v>
       </c>
       <c r="I2">
-        <v>22.3268896176785</v>
+        <v>27.90716753810748</v>
       </c>
       <c r="J2">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K2">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="L2">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>0.5166666666666666</v>
+        <v>0.5133333333333333</v>
       </c>
       <c r="O2">
-        <v>0.7533333333333333</v>
+        <v>0.7833333333333334</v>
       </c>
       <c r="P2">
-        <v>0.6383947427798635</v>
+        <v>0.6407892587843292</v>
       </c>
       <c r="Q2">
-        <v>0.01666666666666666</v>
+        <v>0.03055050463303893</v>
       </c>
       <c r="R2">
-        <v>0.02666666666666671</v>
+        <v>0.03073181485764299</v>
       </c>
       <c r="S2">
-        <v>0.008744066132873943</v>
+        <v>0.009170048688648527</v>
       </c>
       <c r="T2">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="U2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="V2">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="W2">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="X2">
-        <v>0.2466666666666667</v>
+        <v>0.2166666666666666</v>
       </c>
       <c r="Y2">
-        <v>0.4833333333333333</v>
+        <v>0.4866666666666666</v>
       </c>
       <c r="Z2">
-        <v>0.3616052572201364</v>
+        <v>0.3592107412156708</v>
       </c>
       <c r="AA2">
-        <v>0.02666666666666666</v>
+        <v>0.03073181485764296</v>
       </c>
       <c r="AB2">
-        <v>0.01666666666666666</v>
+        <v>0.03055050463303893</v>
       </c>
       <c r="AC2">
-        <v>0.008744066132873905</v>
+        <v>0.009170048688648508</v>
       </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:71">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -860,25 +914,25 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>24.75</v>
+        <v>19.28571428571428</v>
       </c>
       <c r="I3">
-        <v>8.613216588476108</v>
+        <v>9.23834069384271</v>
       </c>
       <c r="J3">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -887,159 +941,159 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>0.4833333333333333</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="O3">
-        <v>0.75</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="P3">
-        <v>0.6325671185539604</v>
+        <v>0.629366986860721</v>
       </c>
       <c r="Q3">
-        <v>0.03726779962499649</v>
+        <v>0.0301169300968417</v>
       </c>
       <c r="R3">
-        <v>0.01666666666666672</v>
+        <v>0.02935435239509038</v>
       </c>
       <c r="S3">
-        <v>0.01487283663062444</v>
+        <v>0.01148104871427595</v>
       </c>
       <c r="T3">
         <v>0.2333333333333333</v>
       </c>
       <c r="U3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="V3">
-        <v>0.5666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.25</v>
+        <v>0.2761904761904762</v>
       </c>
       <c r="Y3">
-        <v>0.5166666666666666</v>
+        <v>0.4857142857142858</v>
       </c>
       <c r="Z3">
-        <v>0.3674328814460394</v>
+        <v>0.3706330131392788</v>
       </c>
       <c r="AA3">
-        <v>0.01666666666666666</v>
+        <v>0.02935435239509036</v>
       </c>
       <c r="AB3">
-        <v>0.03726779962499649</v>
+        <v>0.0301169300968417</v>
       </c>
       <c r="AC3">
-        <v>0.01487283663062436</v>
+        <v>0.01148104871427597</v>
       </c>
       <c r="AD3">
-        <v>-0.3713906763541082</v>
+        <v>-0.4472135954999549</v>
       </c>
       <c r="AE3">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AF3">
-        <v>1.092252505352855</v>
+        <v>0.9335618574477024</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>-0.3185081647987705</v>
+        <v>-0.1689587167937017</v>
       </c>
       <c r="AI3">
-        <v>0.8424401481062922</v>
+        <v>0.7944406880994093</v>
       </c>
       <c r="AJ3">
-        <v>0.1462867770181568</v>
+        <v>0.1847841114813459</v>
       </c>
       <c r="AK3">
-        <v>0.05388500430424849</v>
+        <v>0.1350220098866607</v>
       </c>
       <c r="AL3">
-        <v>0.1908172457089166</v>
+        <v>0.1010014856140396</v>
       </c>
       <c r="AM3">
-        <v>0.05013341473119987</v>
+        <v>0.08681632988353034</v>
       </c>
       <c r="AN3">
-        <v>-6.2084233333333</v>
+        <v>-1.755359999999982</v>
       </c>
       <c r="AO3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AP3">
-        <v>31.90051666666668</v>
+        <v>34.17817</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>-3.244539999999994</v>
+        <v>-0.808959047619049</v>
       </c>
       <c r="AS3">
-        <v>26.34928583333333</v>
+        <v>25.12057333333334</v>
       </c>
       <c r="AT3">
-        <v>2.075130786948432</v>
+        <v>3.348877446634495</v>
       </c>
       <c r="AU3">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AV3">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="AW3">
-        <v>1.041666666666667</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="AX3">
-        <v>1.071428571428571</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AY3">
-        <v>1.727272727272727</v>
+        <v>1.7</v>
       </c>
       <c r="AZ3">
-        <v>1.394751082251082</v>
+        <v>1.395145330859616</v>
       </c>
       <c r="BA3">
-        <v>1.167643096050927</v>
+        <v>1.14267114068985</v>
       </c>
       <c r="BB3">
-        <v>1.395156829017423</v>
+        <v>1.64924907910056</v>
       </c>
       <c r="BC3">
-        <v>1.261222096154614</v>
+        <v>1.349008544567483</v>
       </c>
       <c r="BD3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BE3">
+        <v>84</v>
+      </c>
+      <c r="BF3">
+        <v>46</v>
+      </c>
+      <c r="BG3">
+        <v>30.24345659257001</v>
+      </c>
+      <c r="BH3">
+        <v>98.28500000000001</v>
+      </c>
+      <c r="BI3">
+        <v>2.070008004815445</v>
+      </c>
+      <c r="BJ3">
+        <v>101.2036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71">
+      <c r="A4" t="s">
         <v>75</v>
-      </c>
-      <c r="BF3">
-        <v>37.5</v>
-      </c>
-      <c r="BG3">
-        <v>19.49145111751987</v>
-      </c>
-      <c r="BH3">
-        <v>96.98199999999999</v>
-      </c>
-      <c r="BI3">
-        <v>5.90874027691182</v>
-      </c>
-      <c r="BJ3">
-        <v>103.8361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:62">
-      <c r="A4" t="s">
-        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1048,22 +1102,22 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
       <c r="G4">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="H4">
-        <v>43.83333333333334</v>
+        <v>13.75</v>
       </c>
       <c r="I4">
-        <v>35.22506998652459</v>
+        <v>4.968651728587948</v>
       </c>
       <c r="J4">
         <v>0.4</v>
@@ -1075,31 +1129,31 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>0.4722222222222223</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O4">
-        <v>0.7611111111111111</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="P4">
-        <v>0.6374740804183195</v>
+        <v>0.6273842592592591</v>
       </c>
       <c r="Q4">
-        <v>0.04044505494044732</v>
+        <v>0.06236095644623234</v>
       </c>
       <c r="R4">
-        <v>0.01242259987499887</v>
+        <v>0.04930066485916349</v>
       </c>
       <c r="S4">
-        <v>0.007378962604085104</v>
+        <v>0.02184462912255682</v>
       </c>
       <c r="T4">
         <v>0.2333333333333333</v>
       </c>
       <c r="U4">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="V4">
         <v>0.6</v>
@@ -1108,126 +1162,126 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.2388888888888889</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="Y4">
-        <v>0.5277777777777778</v>
+        <v>0.5333333333333334</v>
       </c>
       <c r="Z4">
-        <v>0.3625259195816805</v>
+        <v>0.3726157407407407</v>
       </c>
       <c r="AA4">
-        <v>0.01242259987499883</v>
+        <v>0.04930066485916346</v>
       </c>
       <c r="AB4">
-        <v>0.04044505494044731</v>
+        <v>0.06236095644623234</v>
       </c>
       <c r="AC4">
-        <v>0.007378962604085149</v>
+        <v>0.02184462912255688</v>
       </c>
       <c r="AD4">
-        <v>-0.5345224838248431</v>
+        <v>-0.2672612419124286</v>
       </c>
       <c r="AE4">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="AF4">
-        <v>1.185239731832779</v>
+        <v>1.138311383561731</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>-0.3123860300252375</v>
+        <v>-0.1158443442626539</v>
       </c>
       <c r="AI4">
-        <v>0.9004036577351888</v>
+        <v>0.870841071022863</v>
       </c>
       <c r="AJ4">
-        <v>0.09318061711599511</v>
+        <v>0.2115753070435697</v>
       </c>
       <c r="AK4">
-        <v>0.1580683724567594</v>
+        <v>0.2230849638347916</v>
       </c>
       <c r="AL4">
-        <v>0.2056869798554296</v>
+        <v>0.2036004814567418</v>
       </c>
       <c r="AM4">
-        <v>0.05513687789923368</v>
+        <v>0.1451383908754069</v>
       </c>
       <c r="AN4">
-        <v>-4.383626666666672</v>
+        <v>-1.444053333333343</v>
       </c>
       <c r="AO4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP4">
-        <v>42.19244999999999</v>
+        <v>40.52188333333332</v>
       </c>
       <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>-2.133382777777781</v>
+        <v>-0.3075066666666721</v>
       </c>
       <c r="AS4">
-        <v>30.15259166666667</v>
+        <v>28.16479</v>
       </c>
       <c r="AT4">
-        <v>1.391999370091558</v>
+        <v>4.033278769675928</v>
       </c>
       <c r="AU4">
-        <v>0.875</v>
+        <v>1.5</v>
       </c>
       <c r="AV4">
         <v>2.333333333333333</v>
       </c>
       <c r="AW4">
-        <v>1.548611111111111</v>
+        <v>2</v>
       </c>
       <c r="AX4">
-        <v>1.230769230769231</v>
+        <v>1.25</v>
       </c>
       <c r="AY4">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AZ4">
-        <v>1.492826617826618</v>
+        <v>1.49702380952381</v>
       </c>
       <c r="BA4">
-        <v>1.064762139431568</v>
+        <v>1.265662717628662</v>
       </c>
       <c r="BB4">
-        <v>1.38629966509762</v>
+        <v>1.610930735930736</v>
       </c>
       <c r="BC4">
-        <v>1.172321505803338</v>
+        <v>1.395729457958314</v>
       </c>
       <c r="BD4">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="BE4">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="BF4">
-        <v>55.5</v>
+        <v>32.83333333333334</v>
       </c>
       <c r="BG4">
-        <v>21.5</v>
+        <v>15.48565644574215</v>
       </c>
       <c r="BH4">
-        <v>100.7383</v>
+        <v>101.5038</v>
       </c>
       <c r="BI4">
-        <v>3.839457477300663</v>
+        <v>3.551982468988263</v>
       </c>
       <c r="BJ4">
-        <v>104.2441</v>
+        <v>104.4484</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:71">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1236,186 +1290,186 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>25</v>
       </c>
       <c r="G5">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="H5">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I5">
-        <v>23.68966019173766</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0.5</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5">
         <v>0.7666666666666667</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>0.5266666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="O5">
-        <v>0.74</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="P5">
-        <v>0.6372090434191499</v>
+        <v>0.6402777777777773</v>
       </c>
       <c r="Q5">
-        <v>0.02494438257849294</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.02494438257849298</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.01199015347339989</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0.2333333333333333</v>
       </c>
       <c r="U5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="V5">
         <v>0.5</v>
       </c>
       <c r="W5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X5">
-        <v>0.26</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="Y5">
-        <v>0.4733333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Z5">
-        <v>0.3627909565808503</v>
+        <v>0.3597222222222221</v>
       </c>
       <c r="AA5">
-        <v>0.02494438257849294</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02494438257849294</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.01199015347339987</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>-0.5380077714285122</v>
+        <v>-0.2716340464031189</v>
       </c>
       <c r="AE5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AF5">
-        <v>0.5294521438194486</v>
+        <v>0.3573404598775777</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH5">
-        <v>-0.4044676856946253</v>
+        <v>-0.2716340464031189</v>
       </c>
       <c r="AI5">
-        <v>0.4656792343549968</v>
+        <v>0.3573404598775777</v>
       </c>
       <c r="AJ5">
-        <v>0.06248502010570839</v>
+        <v>0.091630711971551</v>
       </c>
       <c r="AK5">
-        <v>0.07120002421052611</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0494898477811711</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.02298281822734283</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>-0.7042133333333389</v>
+        <v>-0.4107666666666603</v>
       </c>
       <c r="AO5">
         <v>8</v>
       </c>
       <c r="AP5">
-        <v>4.44253333333333</v>
+        <v>2.194673333333323</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>-0.3725226666666678</v>
+        <v>-0.4107666666666603</v>
       </c>
       <c r="AS5">
-        <v>3.601620666666664</v>
+        <v>2.194673333333323</v>
       </c>
       <c r="AT5">
-        <v>0.150396703344872</v>
+        <v>0.2258518055555555</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV5">
-        <v>1.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="AW5">
-        <v>0.7666666666666666</v>
+        <v>4</v>
       </c>
       <c r="AX5">
-        <v>1.071428571428571</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AY5">
-        <v>1.777777777777778</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AZ5">
-        <v>1.360750360750361</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="BA5">
-        <v>1.03760678066032</v>
+        <v>1.221241720776046</v>
       </c>
       <c r="BB5">
-        <v>1.151143810076616</v>
+        <v>1.221241720776046</v>
       </c>
       <c r="BC5">
-        <v>1.096336852483821</v>
+        <v>1.221241720776046</v>
       </c>
       <c r="BD5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BE5">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="BF5">
-        <v>51.8</v>
+        <v>35.66666666666666</v>
       </c>
       <c r="BG5">
-        <v>16.9162643630324</v>
+        <v>7.195677714974301</v>
       </c>
       <c r="BH5">
-        <v>25.88602</v>
+        <v>25.76465555555556</v>
       </c>
       <c r="BI5">
-        <v>0.20659972313631</v>
+        <v>0.5321779174321958</v>
       </c>
       <c r="BJ5">
-        <v>26.1303</v>
+        <v>26.2095</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:71">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1430,13 +1484,13 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1445,13 +1499,13 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L6">
         <v>0.7333333333333333</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0.5333333333333333</v>
@@ -1460,7 +1514,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="P6">
-        <v>0.6448979591836739</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1475,13 +1529,13 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <v>0.4666666666666667</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X6">
         <v>0.2666666666666667</v>
@@ -1490,7 +1544,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="Z6">
-        <v>0.3551020408163267</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1502,25 +1556,25 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>-0.3333333333333272</v>
+        <v>-0.2672612419124233</v>
       </c>
       <c r="AE6">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="AF6">
-        <v>0.4704462138528056</v>
+        <v>0.5394493729499837</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>-0.3333333333333272</v>
+        <v>-0.2672612419124233</v>
       </c>
       <c r="AI6">
-        <v>0.4704462138528056</v>
+        <v>0.5394493729499837</v>
       </c>
       <c r="AJ6">
-        <v>0.04177136173167684</v>
+        <v>0.08661680856193768</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -1532,78 +1586,78 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>-0.1779600000000059</v>
+        <v>-0.09739333333333278</v>
       </c>
       <c r="AO6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP6">
-        <v>3.956106666666667</v>
+        <v>4.014329999999998</v>
       </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>-0.1779600000000059</v>
+        <v>-0.09739333333333278</v>
       </c>
       <c r="AS6">
-        <v>3.956106666666667</v>
+        <v>4.014329999999998</v>
       </c>
       <c r="AT6">
-        <v>0.09801129251700663</v>
+        <v>0.1995103174603172</v>
       </c>
       <c r="AU6">
-        <v>0.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AV6">
-        <v>0.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AW6">
-        <v>0.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AX6">
-        <v>1.454545454545455</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AY6">
-        <v>1.454545454545455</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AZ6">
-        <v>1.454545454545455</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="BA6">
-        <v>1.148567037471385</v>
+        <v>1.219730212923289</v>
       </c>
       <c r="BB6">
-        <v>1.148567037471385</v>
+        <v>1.219730212923289</v>
       </c>
       <c r="BC6">
-        <v>1.148567037471385</v>
+        <v>1.219730212923289</v>
       </c>
       <c r="BD6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BE6">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="BF6">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="BG6">
-        <v>15.20233900132184</v>
+        <v>14.45298892578587</v>
       </c>
       <c r="BH6">
-        <v>25.86423333333333</v>
+        <v>26.04505555555556</v>
       </c>
       <c r="BI6">
-        <v>0.3147881227464314</v>
+        <v>0.2306164353356322</v>
       </c>
       <c r="BJ6">
-        <v>26.2063</v>
+        <v>26.214</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:71">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1618,16 +1672,16 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H7">
-        <v>29.85714285714286</v>
+        <v>26.14285714285714</v>
       </c>
       <c r="I7">
-        <v>27.07887195070077</v>
+        <v>11.48201788423435</v>
       </c>
       <c r="J7">
         <v>0.4333333333333333</v>
@@ -1636,34 +1690,34 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M7">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>0.5</v>
       </c>
       <c r="O7">
-        <v>0.7333333333333334</v>
+        <v>0.7476190476190476</v>
       </c>
       <c r="P7">
-        <v>0.6262645185986148</v>
+        <v>0.6329663802042721</v>
       </c>
       <c r="Q7">
         <v>0.03984095364447978</v>
       </c>
       <c r="R7">
-        <v>0.03984095364447982</v>
+        <v>0.04312088161017821</v>
       </c>
       <c r="S7">
-        <v>0.01818278468502089</v>
+        <v>0.01883259148257703</v>
       </c>
       <c r="T7">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="U7">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="V7">
         <v>0.5666666666666667</v>
@@ -1672,126 +1726,126 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.2666666666666667</v>
+        <v>0.2523809523809524</v>
       </c>
       <c r="Y7">
         <v>0.5</v>
       </c>
       <c r="Z7">
-        <v>0.3737354814013853</v>
+        <v>0.3670336197957279</v>
       </c>
       <c r="AA7">
-        <v>0.03984095364447978</v>
+        <v>0.04312088161017817</v>
       </c>
       <c r="AB7">
         <v>0.03984095364447978</v>
       </c>
       <c r="AC7">
-        <v>0.01818278468502091</v>
+        <v>0.01883259148257703</v>
       </c>
       <c r="AD7">
-        <v>-0.4472135954999571</v>
+        <v>-0.6260990336999432</v>
       </c>
       <c r="AE7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AF7">
-        <v>1.008300211025157</v>
+        <v>1.044730758145375</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>-0.2276380027586381</v>
+        <v>-0.3266510367701438</v>
       </c>
       <c r="AI7">
-        <v>0.8416926424509787</v>
+        <v>0.7608342700839471</v>
       </c>
       <c r="AJ7">
-        <v>0.1634464722407949</v>
+        <v>0.1294460671849579</v>
       </c>
       <c r="AK7">
-        <v>0.169542405714942</v>
+        <v>0.2111330763597631</v>
       </c>
       <c r="AL7">
-        <v>0.121943485048657</v>
+        <v>0.2218190598857689</v>
       </c>
       <c r="AM7">
-        <v>0.1048503212332592</v>
+        <v>0.06084630787185441</v>
       </c>
       <c r="AN7">
-        <v>-0.6274973281045035</v>
+        <v>-0.5827034033488996</v>
       </c>
       <c r="AO7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AP7">
-        <v>3.979515170783908</v>
+        <v>3.987087503295393</v>
       </c>
       <c r="AQ7">
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>-0.211580486281038</v>
+        <v>-0.2662260940487088</v>
       </c>
       <c r="AS7">
-        <v>2.881399137649348</v>
+        <v>2.605776549483541</v>
       </c>
       <c r="AT7">
-        <v>0.3802735077415532</v>
+        <v>0.2617465281169628</v>
       </c>
       <c r="AU7">
         <v>1</v>
       </c>
       <c r="AV7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AW7">
-        <v>1.547619047619047</v>
+        <v>1.952380952380953</v>
       </c>
       <c r="AX7">
-        <v>1.285714285714286</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AY7">
-        <v>2</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="AZ7">
-        <v>1.551530612244898</v>
+        <v>1.309761666904524</v>
       </c>
       <c r="BA7">
-        <v>1.066574036001902</v>
+        <v>1.122760574031826</v>
       </c>
       <c r="BB7">
-        <v>1.539823384363614</v>
+        <v>1.412061368583108</v>
       </c>
       <c r="BC7">
-        <v>1.296254851644574</v>
+        <v>1.245228450812102</v>
       </c>
       <c r="BD7">
         <v>12</v>
       </c>
       <c r="BE7">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="BF7">
-        <v>30.66666666666667</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="BG7">
-        <v>17.46106780494506</v>
+        <v>4.642796092394707</v>
       </c>
       <c r="BH7">
-        <v>12.01606885157712</v>
+        <v>12.56508030928504</v>
       </c>
       <c r="BI7">
-        <v>0.593028620630157</v>
+        <v>0.1669771511528002</v>
       </c>
       <c r="BJ7">
-        <v>12.55350613666823</v>
+        <v>12.7751260120747</v>
       </c>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:71">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1800,186 +1854,186 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>26.42857142857143</v>
+      </c>
+      <c r="I8">
+        <v>13.605221086639</v>
+      </c>
+      <c r="J8">
+        <v>0.3666666666666666</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="M8">
+        <v>22</v>
+      </c>
+      <c r="N8">
+        <v>0.4619047619047619</v>
+      </c>
+      <c r="O8">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="P8">
+        <v>0.6317208912550527</v>
+      </c>
+      <c r="Q8">
+        <v>0.05172752614857246</v>
+      </c>
+      <c r="R8">
+        <v>0.02519763153394852</v>
+      </c>
+      <c r="S8">
+        <v>0.01384427692673933</v>
+      </c>
+      <c r="T8">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="U8">
+        <v>22</v>
+      </c>
+      <c r="V8">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y8">
+        <v>0.5380952380952381</v>
+      </c>
+      <c r="Z8">
+        <v>0.3682791087449474</v>
+      </c>
+      <c r="AA8">
+        <v>0.02519763153394848</v>
+      </c>
+      <c r="AB8">
+        <v>0.05172752614857244</v>
+      </c>
+      <c r="AC8">
+        <v>0.01384427692673926</v>
+      </c>
+      <c r="AD8">
+        <v>-0.301511344577761</v>
+      </c>
+      <c r="AE8">
+        <v>18</v>
+      </c>
+      <c r="AF8">
+        <v>1.331112309523567</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>-0.1859865817609799</v>
+      </c>
+      <c r="AI8">
+        <v>0.8594240746038307</v>
+      </c>
+      <c r="AJ8">
+        <v>0.1440340745601538</v>
+      </c>
+      <c r="AK8">
+        <v>0.1205021261204545</v>
+      </c>
+      <c r="AL8">
+        <v>0.2771359123615238</v>
+      </c>
+      <c r="AM8">
+        <v>0.07967467399671466</v>
+      </c>
+      <c r="AN8">
+        <v>-0.3629278927530741</v>
+      </c>
+      <c r="AO8">
         <v>4</v>
       </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>94</v>
-      </c>
-      <c r="H8">
-        <v>39.5</v>
-      </c>
-      <c r="I8">
-        <v>31.94135250736888</v>
-      </c>
-      <c r="J8">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="K8">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>0.8</v>
-      </c>
-      <c r="M8">
-        <v>73</v>
-      </c>
-      <c r="N8">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="O8">
-        <v>0.75</v>
-      </c>
-      <c r="P8">
-        <v>0.6247981296090306</v>
-      </c>
-      <c r="Q8">
-        <v>0.02763853991962833</v>
-      </c>
-      <c r="R8">
-        <v>0.03726779962499654</v>
-      </c>
-      <c r="S8">
-        <v>0.012142116498713</v>
-      </c>
-      <c r="T8">
-        <v>0.2</v>
-      </c>
-      <c r="U8">
-        <v>73</v>
-      </c>
-      <c r="V8">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="W8">
-        <v>11</v>
-      </c>
-      <c r="X8">
-        <v>0.25</v>
-      </c>
-      <c r="Y8">
-        <v>0.4916666666666667</v>
-      </c>
-      <c r="Z8">
-        <v>0.3752018703909694</v>
-      </c>
-      <c r="AA8">
-        <v>0.03726779962499649</v>
-      </c>
-      <c r="AB8">
-        <v>0.02763853991962833</v>
-      </c>
-      <c r="AC8">
-        <v>0.01214211649871295</v>
-      </c>
-      <c r="AD8">
-        <v>-0.4364357804719895</v>
-      </c>
-      <c r="AE8">
-        <v>37</v>
-      </c>
-      <c r="AF8">
-        <v>0.8475193177303518</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>-0.3855129132570119</v>
-      </c>
-      <c r="AI8">
-        <v>0.689223000418848</v>
-      </c>
-      <c r="AJ8">
-        <v>0.09952774953702093</v>
-      </c>
-      <c r="AK8">
-        <v>0.03792030008025462</v>
-      </c>
-      <c r="AL8">
-        <v>0.12054784805238</v>
-      </c>
-      <c r="AM8">
-        <v>0.04584659409327286</v>
-      </c>
-      <c r="AN8">
-        <v>-0.1962706352010866</v>
-      </c>
-      <c r="AO8">
-        <v>10</v>
-      </c>
       <c r="AP8">
-        <v>2.915173375998355</v>
+        <v>5.142234990415643</v>
       </c>
       <c r="AQ8">
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>-0.1306840903735726</v>
+        <v>-0.1505890620682873</v>
       </c>
       <c r="AS8">
-        <v>2.534671073215327</v>
+        <v>3.113724104230941</v>
       </c>
       <c r="AT8">
-        <v>0.2374007781987527</v>
+        <v>0.2592604396277233</v>
       </c>
       <c r="AU8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AV8">
-        <v>5</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="AW8">
-        <v>2.7</v>
+        <v>1.521428571428571</v>
       </c>
       <c r="AX8">
-        <v>1.153846153846154</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="AY8">
-        <v>1.818181818181818</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="AZ8">
-        <v>1.544594294594295</v>
+        <v>1.581484388627246</v>
       </c>
       <c r="BA8">
-        <v>1.058716664138587</v>
+        <v>1.103802218131759</v>
       </c>
       <c r="BB8">
-        <v>1.419083798710471</v>
+        <v>1.416413807886822</v>
       </c>
       <c r="BC8">
-        <v>1.213127288913058</v>
+        <v>1.239574326910607</v>
       </c>
       <c r="BD8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="BE8">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="BF8">
-        <v>59.16666666666666</v>
+        <v>66</v>
       </c>
       <c r="BG8">
-        <v>44.87915873642118</v>
+        <v>53.10994884827763</v>
       </c>
       <c r="BH8">
-        <v>11.66394742715304</v>
+        <v>12.79655125188746</v>
       </c>
       <c r="BI8">
-        <v>1.166666006732365</v>
+        <v>0.05443566557333544</v>
       </c>
       <c r="BJ8">
-        <v>12.8391615976917</v>
+        <v>12.87129965752215</v>
       </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:71">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1994,154 +2048,154 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="H9">
-        <v>23.1</v>
+        <v>13.4</v>
       </c>
       <c r="I9">
-        <v>22.51865892987413</v>
+        <v>6.62117814289874</v>
       </c>
       <c r="J9">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="N9">
-        <v>0.2933333333333333</v>
+        <v>0.2733333333333333</v>
       </c>
       <c r="O9">
-        <v>0.7266666666666668</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="P9">
-        <v>0.6340074295822143</v>
+        <v>0.6187609161793372</v>
       </c>
       <c r="Q9">
-        <v>0.09977753031397177</v>
+        <v>0.08137703743822468</v>
       </c>
       <c r="R9">
-        <v>0.0466666666666667</v>
+        <v>0.05385164807134506</v>
       </c>
       <c r="S9">
-        <v>0.02099332237622237</v>
+        <v>0.03199143434196162</v>
       </c>
       <c r="T9">
-        <v>0.2</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="U9">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="V9">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.2733333333333333</v>
+        <v>0.29</v>
       </c>
       <c r="Y9">
-        <v>0.7066666666666667</v>
+        <v>0.7266666666666667</v>
       </c>
       <c r="Z9">
-        <v>0.3659925704177856</v>
+        <v>0.3812390838206627</v>
       </c>
       <c r="AA9">
-        <v>0.04666666666666665</v>
+        <v>0.05385164807134504</v>
       </c>
       <c r="AB9">
-        <v>0.0997775303139718</v>
+        <v>0.08137703743822471</v>
       </c>
       <c r="AC9">
-        <v>0.02099332237622237</v>
+        <v>0.03199143434196165</v>
       </c>
       <c r="AD9">
-        <v>-0.472866243743454</v>
+        <v>-0.5555555555555652</v>
       </c>
       <c r="AE9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="AF9">
-        <v>2.716758779522179</v>
+        <v>2.803450351682867</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>-0.153566175884159</v>
+        <v>-0.1015641634996209</v>
       </c>
       <c r="AI9">
-        <v>2.037286093423872</v>
+        <v>2.052914799399319</v>
       </c>
       <c r="AJ9">
-        <v>0.1641044986403082</v>
+        <v>0.2191458751788855</v>
       </c>
       <c r="AK9">
-        <v>0.1868917772004891</v>
+        <v>0.2437634036316809</v>
       </c>
       <c r="AL9">
-        <v>0.4425137220010397</v>
+        <v>0.44632251936433</v>
       </c>
       <c r="AM9">
-        <v>0.09454452329209866</v>
+        <v>0.1037733160951575</v>
       </c>
       <c r="AN9">
-        <v>-1337.383279999503</v>
+        <v>-1386.117119070754</v>
       </c>
       <c r="AO9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AP9">
-        <v>18499.16262754863</v>
+        <v>16955.58364152483</v>
       </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>-255.3722558707486</v>
+        <v>-124.8353237970266</v>
       </c>
       <c r="AS9">
-        <v>14019.619345847</v>
+        <v>14100.72419980129</v>
       </c>
       <c r="AT9">
-        <v>1007.610991651432</v>
+        <v>1232.478016019306</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="AV9">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AW9">
-        <v>1.573015873015873</v>
+        <v>1.495854700854701</v>
       </c>
       <c r="AX9">
-        <v>1.071428571428571</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="AY9">
-        <v>2.111111111111111</v>
+        <v>1.9</v>
       </c>
       <c r="AZ9">
-        <v>1.498824786324787</v>
+        <v>1.518479853479854</v>
       </c>
       <c r="BA9">
-        <v>1.072148970308405</v>
+        <v>1.243426787116279</v>
       </c>
       <c r="BB9">
-        <v>2.737819241513823</v>
+        <v>3.420952380952381</v>
       </c>
       <c r="BC9">
-        <v>1.769682038355162</v>
+        <v>1.976608515242893</v>
       </c>
     </row>
   </sheetData>

--- a/out_test/tables/aggregated_30.xlsx
+++ b/out_test/tables/aggregated_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
   <si>
     <t>Fitness Function</t>
   </si>
@@ -236,6 +236,66 @@
   </si>
   <si>
     <t>NI_Pr_avg</t>
+  </si>
+  <si>
+    <t>Min_I_start</t>
+  </si>
+  <si>
+    <t>Max_I_start</t>
+  </si>
+  <si>
+    <t>Avg_I_start</t>
+  </si>
+  <si>
+    <t>Sigma_I_start</t>
+  </si>
+  <si>
+    <t>Min_GR_start</t>
+  </si>
+  <si>
+    <t>Max_GR_start</t>
+  </si>
+  <si>
+    <t>Avg_GR_start</t>
+  </si>
+  <si>
+    <t>Sigma_GR_start</t>
+  </si>
+  <si>
+    <t>Min_Pr_min</t>
+  </si>
+  <si>
+    <t>Max_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_min</t>
+  </si>
+  <si>
+    <t>Avg_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_avg</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_min</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_max</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_avg</t>
+  </si>
+  <si>
+    <t>Min_Pr_start</t>
+  </si>
+  <si>
+    <t>Max_Pr_start</t>
+  </si>
+  <si>
+    <t>Avg_Pr_start</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_start</t>
   </si>
   <si>
     <t>Fx2</t>
@@ -588,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS9"/>
+  <dimension ref="A1:CO9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -599,7 +659,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:93">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -813,8 +873,74 @@
       <c r="BS1" t="s">
         <v>73</v>
       </c>
+      <c r="BT1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="2" spans="1:71">
+    <row r="2" spans="1:93">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -831,81 +957,81 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="H2">
-        <v>43.3</v>
+        <v>51.2</v>
       </c>
       <c r="I2">
-        <v>27.90716753810748</v>
+        <v>21.94903186931032</v>
       </c>
       <c r="J2">
         <v>0.4666666666666667</v>
       </c>
       <c r="K2">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L2">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="M2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N2">
         <v>0.5133333333333333</v>
       </c>
       <c r="O2">
-        <v>0.7833333333333334</v>
+        <v>0.7533333333333333</v>
       </c>
       <c r="P2">
-        <v>0.6407892587843292</v>
+        <v>0.6396827258009741</v>
       </c>
       <c r="Q2">
-        <v>0.03055050463303893</v>
+        <v>0.02211083193570266</v>
       </c>
       <c r="R2">
-        <v>0.03073181485764299</v>
+        <v>0.02211083193570271</v>
       </c>
       <c r="S2">
-        <v>0.009170048688648527</v>
+        <v>0.007738086724401227</v>
       </c>
       <c r="T2">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="U2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V2">
         <v>0.5333333333333333</v>
       </c>
       <c r="W2">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="X2">
-        <v>0.2166666666666666</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="Y2">
-        <v>0.4866666666666666</v>
+        <v>0.4866666666666667</v>
       </c>
       <c r="Z2">
-        <v>0.3592107412156708</v>
+        <v>0.360317274199026</v>
       </c>
       <c r="AA2">
-        <v>0.03073181485764296</v>
+        <v>0.02211083193570266</v>
       </c>
       <c r="AB2">
-        <v>0.03055050463303893</v>
+        <v>0.02211083193570266</v>
       </c>
       <c r="AC2">
-        <v>0.009170048688648508</v>
+        <v>0.007738086724401293</v>
       </c>
     </row>
-    <row r="3" spans="1:71">
+    <row r="3" spans="1:93">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -914,25 +1040,25 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H3">
-        <v>19.28571428571428</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>9.23834069384271</v>
+        <v>23.79075450674064</v>
       </c>
       <c r="J3">
-        <v>0.4666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -941,159 +1067,231 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N3">
-        <v>0.5142857142857142</v>
+        <v>0.4958333333333333</v>
       </c>
       <c r="O3">
-        <v>0.7238095238095238</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="P3">
-        <v>0.629366986860721</v>
+        <v>0.6337473290598292</v>
       </c>
       <c r="Q3">
-        <v>0.0301169300968417</v>
+        <v>0.0484122918275927</v>
       </c>
       <c r="R3">
-        <v>0.02935435239509038</v>
+        <v>0.02319901817845847</v>
       </c>
       <c r="S3">
-        <v>0.01148104871427595</v>
+        <v>0.008862816051369928</v>
       </c>
       <c r="T3">
         <v>0.2333333333333333</v>
       </c>
       <c r="U3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V3">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.2761904761904762</v>
+        <v>0.2541666666666667</v>
       </c>
       <c r="Y3">
-        <v>0.4857142857142858</v>
+        <v>0.5041666666666667</v>
       </c>
       <c r="Z3">
-        <v>0.3706330131392788</v>
+        <v>0.3662526709401709</v>
       </c>
       <c r="AA3">
-        <v>0.02935435239509036</v>
+        <v>0.02319901817845842</v>
       </c>
       <c r="AB3">
-        <v>0.0301169300968417</v>
+        <v>0.0484122918275927</v>
       </c>
       <c r="AC3">
-        <v>0.01148104871427597</v>
+        <v>0.008862816051369925</v>
       </c>
       <c r="AD3">
-        <v>-0.4472135954999549</v>
+        <v>-0.5345224838248492</v>
       </c>
       <c r="AE3">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="AF3">
-        <v>0.9335618574477024</v>
+        <v>1.146012955546884</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>-0.1689587167937017</v>
+        <v>-0.3032181532469036</v>
       </c>
       <c r="AI3">
-        <v>0.7944406880994093</v>
+        <v>0.8749300632219301</v>
       </c>
       <c r="AJ3">
-        <v>0.1847841114813459</v>
+        <v>0.1105166591954752</v>
       </c>
       <c r="AK3">
-        <v>0.1350220098866607</v>
+        <v>0.1708797607750975</v>
       </c>
       <c r="AL3">
-        <v>0.1010014856140396</v>
+        <v>0.1829686597814046</v>
       </c>
       <c r="AM3">
-        <v>0.08681632988353034</v>
+        <v>0.08388273662938035</v>
       </c>
       <c r="AN3">
-        <v>-1.755359999999982</v>
+        <v>-2.784419999999969</v>
       </c>
       <c r="AO3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AP3">
-        <v>34.17817</v>
+        <v>36.87824333333334</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>-0.808959047619049</v>
+        <v>-1.308971250000008</v>
       </c>
       <c r="AS3">
-        <v>25.12057333333334</v>
+        <v>27.66010333333334</v>
       </c>
       <c r="AT3">
-        <v>3.348877446634495</v>
+        <v>1.95250257585817</v>
       </c>
       <c r="AU3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AV3">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AW3">
-        <v>2.083333333333333</v>
+        <v>1.791666666666667</v>
       </c>
       <c r="AX3">
-        <v>1.142857142857143</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="AY3">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AZ3">
-        <v>1.395145330859616</v>
+        <v>1.553300865800866</v>
       </c>
       <c r="BA3">
-        <v>1.14267114068985</v>
+        <v>1.074356388784582</v>
       </c>
       <c r="BB3">
-        <v>1.64924907910056</v>
+        <v>1.659526481748704</v>
       </c>
       <c r="BC3">
-        <v>1.349008544567483</v>
+        <v>1.250275926670594</v>
       </c>
       <c r="BD3">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="BE3">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BF3">
-        <v>46</v>
+        <v>54.5</v>
       </c>
       <c r="BG3">
-        <v>30.24345659257001</v>
+        <v>27.5</v>
       </c>
       <c r="BH3">
-        <v>98.28500000000001</v>
+        <v>100.6265</v>
       </c>
       <c r="BI3">
-        <v>2.070008004815445</v>
+        <v>3.209600000000002</v>
       </c>
       <c r="BJ3">
-        <v>101.2036</v>
+        <v>103.8361</v>
+      </c>
+      <c r="BO3">
+        <v>18</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0.1039872886924002</v>
+      </c>
+      <c r="BU3">
+        <v>0.6637901360612373</v>
+      </c>
+      <c r="BV3">
+        <v>0.4729488518163875</v>
+      </c>
+      <c r="BW3">
+        <v>0.1645652261843512</v>
+      </c>
+      <c r="BX3">
+        <v>1</v>
+      </c>
+      <c r="BY3">
+        <v>6</v>
+      </c>
+      <c r="BZ3">
+        <v>3.375</v>
+      </c>
+      <c r="CA3">
+        <v>1.576190026614811</v>
+      </c>
+      <c r="CB3">
+        <v>1.001099856042673</v>
+      </c>
+      <c r="CC3">
+        <v>18</v>
+      </c>
+      <c r="CD3">
+        <v>3.625026642832253</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>1.00598145305561</v>
+      </c>
+      <c r="CG3">
+        <v>2.931215893625735</v>
+      </c>
+      <c r="CH3">
+        <v>1.100380803569547</v>
+      </c>
+      <c r="CI3">
+        <v>0.004759398257720079</v>
+      </c>
+      <c r="CJ3">
+        <v>0.5411823660570405</v>
+      </c>
+      <c r="CK3">
+        <v>0.06948249650867698</v>
+      </c>
+      <c r="CL3">
+        <v>1.370752792468495</v>
+      </c>
+      <c r="CM3">
+        <v>2.024603718744777</v>
+      </c>
+      <c r="CN3">
+        <v>1.644548957807453</v>
+      </c>
+      <c r="CO3">
+        <v>0.2065367109429329</v>
       </c>
     </row>
-    <row r="4" spans="1:71">
+    <row r="4" spans="1:93">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1102,25 +1300,25 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="H4">
-        <v>13.75</v>
+        <v>40.2</v>
       </c>
       <c r="I4">
-        <v>4.968651728587948</v>
+        <v>33.81952099010275</v>
       </c>
       <c r="J4">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1129,159 +1327,231 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>0.4666666666666667</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="O4">
-        <v>0.7083333333333334</v>
+        <v>0.7466666666666666</v>
       </c>
       <c r="P4">
-        <v>0.6273842592592591</v>
+        <v>0.6278937532002049</v>
       </c>
       <c r="Q4">
-        <v>0.06236095644623234</v>
+        <v>0.03887301263230199</v>
       </c>
       <c r="R4">
-        <v>0.04930066485916349</v>
+        <v>0.02666666666666671</v>
       </c>
       <c r="S4">
-        <v>0.02184462912255682</v>
+        <v>0.01099221632267589</v>
       </c>
       <c r="T4">
         <v>0.2333333333333333</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V4">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.2916666666666667</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="Y4">
-        <v>0.5333333333333334</v>
+        <v>0.5066666666666666</v>
       </c>
       <c r="Z4">
-        <v>0.3726157407407407</v>
+        <v>0.3721062467997952</v>
       </c>
       <c r="AA4">
-        <v>0.04930066485916346</v>
+        <v>0.02666666666666666</v>
       </c>
       <c r="AB4">
-        <v>0.06236095644623234</v>
+        <v>0.03887301263230199</v>
       </c>
       <c r="AC4">
-        <v>0.02184462912255688</v>
+        <v>0.01099221632267586</v>
       </c>
       <c r="AD4">
-        <v>-0.2672612419124286</v>
+        <v>-0.5366563145999498</v>
       </c>
       <c r="AE4">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AF4">
-        <v>1.138311383561731</v>
+        <v>1.129459635414878</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>-0.1158443442626539</v>
+        <v>-0.2769435057690796</v>
       </c>
       <c r="AI4">
-        <v>0.870841071022863</v>
+        <v>0.8407929620907464</v>
       </c>
       <c r="AJ4">
-        <v>0.2115753070435697</v>
+        <v>0.1298741062157212</v>
       </c>
       <c r="AK4">
-        <v>0.2230849638347916</v>
+        <v>0.2336219546388093</v>
       </c>
       <c r="AL4">
-        <v>0.2036004814567418</v>
+        <v>0.2011377945316433</v>
       </c>
       <c r="AM4">
-        <v>0.1451383908754069</v>
+        <v>0.09909020991775508</v>
       </c>
       <c r="AN4">
-        <v>-1.444053333333343</v>
+        <v>-5.583060000000003</v>
       </c>
       <c r="AO4">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AP4">
-        <v>40.52188333333332</v>
+        <v>40.20677666666668</v>
       </c>
       <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>-0.3075066666666721</v>
+        <v>-1.61817733333333</v>
       </c>
       <c r="AS4">
-        <v>28.16479</v>
+        <v>28.17276</v>
       </c>
       <c r="AT4">
-        <v>4.033278769675928</v>
+        <v>2.748806293906811</v>
       </c>
       <c r="AU4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AV4">
-        <v>2.333333333333333</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="AW4">
-        <v>2</v>
+        <v>1.453787878787879</v>
       </c>
       <c r="AX4">
         <v>1.25</v>
       </c>
       <c r="AY4">
-        <v>1.666666666666667</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="AZ4">
-        <v>1.49702380952381</v>
+        <v>1.470779220779221</v>
       </c>
       <c r="BA4">
-        <v>1.265662717628662</v>
+        <v>1.072711633109697</v>
       </c>
       <c r="BB4">
-        <v>1.610930735930736</v>
+        <v>1.653909605663991</v>
       </c>
       <c r="BC4">
-        <v>1.395729457958314</v>
+        <v>1.294927808336866</v>
       </c>
       <c r="BD4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BE4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BF4">
-        <v>32.83333333333334</v>
+        <v>36.6</v>
       </c>
       <c r="BG4">
-        <v>15.48565644574215</v>
+        <v>12.00999583680194</v>
       </c>
       <c r="BH4">
-        <v>101.5038</v>
+        <v>99.80886000000001</v>
       </c>
       <c r="BI4">
-        <v>3.551982468988263</v>
+        <v>5.863807917931839</v>
       </c>
       <c r="BJ4">
         <v>104.4484</v>
       </c>
+      <c r="BO4">
+        <v>93</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0.117954808057333</v>
+      </c>
+      <c r="BU4">
+        <v>0.6345248426856089</v>
+      </c>
+      <c r="BV4">
+        <v>0.3856515505209151</v>
+      </c>
+      <c r="BW4">
+        <v>0.164419088694725</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
+        <v>4</v>
+      </c>
+      <c r="BZ4">
+        <v>2.733333333333333</v>
+      </c>
+      <c r="CA4">
+        <v>1.103529690483123</v>
+      </c>
+      <c r="CB4">
+        <v>1.000842507840672</v>
+      </c>
+      <c r="CC4">
+        <v>93</v>
+      </c>
+      <c r="CD4">
+        <v>3.411212653308817</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>1.006497674954956</v>
+      </c>
+      <c r="CG4">
+        <v>2.857530987242489</v>
+      </c>
+      <c r="CH4">
+        <v>1.097366865941107</v>
+      </c>
+      <c r="CI4">
+        <v>0.006798157043966946</v>
+      </c>
+      <c r="CJ4">
+        <v>0.4252152861036494</v>
+      </c>
+      <c r="CK4">
+        <v>0.05258484907750482</v>
+      </c>
+      <c r="CL4">
+        <v>1.460528445904958</v>
+      </c>
+      <c r="CM4">
+        <v>1.769669732806722</v>
+      </c>
+      <c r="CN4">
+        <v>1.603223118778716</v>
+      </c>
+      <c r="CO4">
+        <v>0.1114281514955646</v>
+      </c>
     </row>
-    <row r="5" spans="1:71">
+    <row r="5" spans="1:93">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1290,186 +1560,258 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>29.5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.34680571791022</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>0.7666666666666667</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <v>0.5</v>
       </c>
       <c r="O5">
-        <v>0.7666666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="P5">
-        <v>0.6402777777777773</v>
+        <v>0.630791847041847</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.02357022603955158</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.01443375672974069</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.01055029263293936</v>
       </c>
       <c r="T5">
         <v>0.2333333333333333</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="W5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="X5">
-        <v>0.2333333333333333</v>
+        <v>0.2583333333333333</v>
       </c>
       <c r="Y5">
         <v>0.5</v>
       </c>
       <c r="Z5">
-        <v>0.3597222222222221</v>
+        <v>0.369208152958153</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.01443375672974064</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.02357022603955158</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.01055029263293937</v>
       </c>
       <c r="AD5">
-        <v>-0.2716340464031189</v>
+        <v>-0.3713906763442079</v>
       </c>
       <c r="AE5">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AF5">
-        <v>0.3573404598775777</v>
+        <v>1.031356630441049</v>
       </c>
       <c r="AG5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>-0.2716340464031189</v>
+        <v>-0.2690701393266353</v>
       </c>
       <c r="AI5">
-        <v>0.3573404598775777</v>
+        <v>0.6072611213980234</v>
       </c>
       <c r="AJ5">
-        <v>0.091630711971551</v>
+        <v>0.09663518300223803</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.1456194176217501</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.2453179423314811</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.06689165664520939</v>
       </c>
       <c r="AN5">
-        <v>-0.4107666666666603</v>
+        <v>-0.993386666666666</v>
       </c>
       <c r="AO5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP5">
-        <v>2.194673333333323</v>
+        <v>8.354023333333323</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>-0.4107666666666603</v>
+        <v>-0.4470475</v>
       </c>
       <c r="AS5">
-        <v>2.194673333333323</v>
+        <v>4.722307499999997</v>
       </c>
       <c r="AT5">
-        <v>0.2258518055555555</v>
+        <v>0.1755902835497834</v>
       </c>
       <c r="AU5">
-        <v>4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AV5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW5">
-        <v>4</v>
+        <v>1.194444444444444</v>
       </c>
       <c r="AX5">
-        <v>1.142857142857143</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AY5">
-        <v>1.142857142857143</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="AZ5">
-        <v>1.142857142857143</v>
+        <v>1.195741758241758</v>
       </c>
       <c r="BA5">
-        <v>1.221241720776046</v>
+        <v>1.079385370330609</v>
       </c>
       <c r="BB5">
-        <v>1.221241720776046</v>
+        <v>1.522836523924057</v>
       </c>
       <c r="BC5">
-        <v>1.221241720776046</v>
+        <v>1.211853751874006</v>
       </c>
       <c r="BD5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BE5">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="BF5">
-        <v>35.66666666666666</v>
+        <v>31</v>
       </c>
       <c r="BG5">
-        <v>7.195677714974301</v>
+        <v>6.708203932499369</v>
       </c>
       <c r="BH5">
-        <v>25.76465555555556</v>
+        <v>25.51075000000001</v>
       </c>
       <c r="BI5">
-        <v>0.5321779174321958</v>
+        <v>0.6515859133682991</v>
       </c>
       <c r="BJ5">
-        <v>26.2095</v>
+        <v>26.0623</v>
+      </c>
+      <c r="BO5">
+        <v>21</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0.1039948289205292</v>
+      </c>
+      <c r="BU5">
+        <v>0.4138711280996356</v>
+      </c>
+      <c r="BV5">
+        <v>0.1875342261428022</v>
+      </c>
+      <c r="BW5">
+        <v>0.1309146470577465</v>
+      </c>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BY5">
+        <v>6</v>
+      </c>
+      <c r="BZ5">
+        <v>3.25</v>
+      </c>
+      <c r="CA5">
+        <v>1.785357107135713</v>
+      </c>
+      <c r="CB5">
+        <v>1.000002034509348</v>
+      </c>
+      <c r="CC5">
+        <v>21</v>
+      </c>
+      <c r="CD5">
+        <v>1.778761314148945</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>1.0009748154605</v>
+      </c>
+      <c r="CG5">
+        <v>1.502010806379471</v>
+      </c>
+      <c r="CH5">
+        <v>1.039210333452114</v>
+      </c>
+      <c r="CI5">
+        <v>0.001326099277962739</v>
+      </c>
+      <c r="CJ5">
+        <v>0.1598026754252904</v>
+      </c>
+      <c r="CK5">
+        <v>0.01250253757410787</v>
+      </c>
+      <c r="CL5">
+        <v>1.135241714797716</v>
+      </c>
+      <c r="CM5">
+        <v>1.192246829925876</v>
+      </c>
+      <c r="CN5">
+        <v>1.173209054588983</v>
+      </c>
+      <c r="CO5">
+        <v>0.02300327200438646</v>
       </c>
     </row>
-    <row r="6" spans="1:71">
+    <row r="6" spans="1:93">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1478,186 +1820,258 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>29</v>
+      </c>
+      <c r="I6">
         <v>1</v>
-      </c>
-      <c r="F6">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>22</v>
-      </c>
-      <c r="H6">
-        <v>22</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
       <c r="J6">
         <v>0.5333333333333333</v>
       </c>
       <c r="K6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0.7333333333333333</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>0.5333333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="O6">
-        <v>0.7333333333333333</v>
+        <v>0.7166666666666666</v>
       </c>
       <c r="P6">
-        <v>0.6285714285714286</v>
+        <v>0.6273307790549167</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.01666666666666666</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.01666666666666666</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.001404853128991024</v>
       </c>
       <c r="T6">
         <v>0.2666666666666667</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V6">
         <v>0.4666666666666667</v>
       </c>
       <c r="W6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.2666666666666667</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="Y6">
-        <v>0.4666666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="Z6">
-        <v>0.3714285714285714</v>
+        <v>0.3726692209450831</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.01666666666666666</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01666666666666666</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.001404853128990968</v>
       </c>
       <c r="AD6">
-        <v>-0.2672612419124233</v>
+        <v>-0.5345224838248352</v>
       </c>
       <c r="AE6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AF6">
-        <v>0.5394493729499837</v>
+        <v>0.7034949364540191</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>-0.2672612419124233</v>
+        <v>-0.3783723530233101</v>
       </c>
       <c r="AI6">
-        <v>0.5394493729499837</v>
+        <v>0.5459179503300529</v>
       </c>
       <c r="AJ6">
-        <v>0.08661680856193768</v>
+        <v>0.06210289851454463</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>0.1561501308015252</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.1575769861239661</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.007985050303844696</v>
       </c>
       <c r="AN6">
-        <v>-0.09739333333333278</v>
+        <v>-0.2033333333333331</v>
       </c>
       <c r="AO6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP6">
-        <v>4.014329999999998</v>
+        <v>6.461370000000001</v>
       </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>-0.09739333333333278</v>
+        <v>-0.1474416666666691</v>
       </c>
       <c r="AS6">
-        <v>4.014329999999998</v>
+        <v>4.180189999999999</v>
       </c>
       <c r="AT6">
-        <v>0.1995103174603172</v>
+        <v>0.1944358024691355</v>
       </c>
       <c r="AU6">
-        <v>1.333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="AV6">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>1.333333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="AX6">
-        <v>1.666666666666667</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="AY6">
-        <v>1.666666666666667</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="AZ6">
-        <v>1.666666666666667</v>
+        <v>1.296703296703297</v>
       </c>
       <c r="BA6">
-        <v>1.219730212923289</v>
+        <v>1.175489376226686</v>
       </c>
       <c r="BB6">
-        <v>1.219730212923289</v>
+        <v>1.184106541694101</v>
       </c>
       <c r="BC6">
-        <v>1.219730212923289</v>
+        <v>1.179797958960394</v>
       </c>
       <c r="BD6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BE6">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="BF6">
-        <v>47</v>
+        <v>40.375</v>
       </c>
       <c r="BG6">
-        <v>14.45298892578587</v>
+        <v>14.78121696613645</v>
       </c>
       <c r="BH6">
-        <v>26.04505555555556</v>
+        <v>25.910575</v>
       </c>
       <c r="BI6">
-        <v>0.2306164353356322</v>
+        <v>0.2757137136143218</v>
       </c>
       <c r="BJ6">
         <v>26.214</v>
       </c>
+      <c r="BO6">
+        <v>24</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0.2186894188183049</v>
+      </c>
+      <c r="BU6">
+        <v>0.2366365081239443</v>
+      </c>
+      <c r="BV6">
+        <v>0.2276629634711246</v>
+      </c>
+      <c r="BW6">
+        <v>0.008973544652819687</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="BY6">
+        <v>4</v>
+      </c>
+      <c r="BZ6">
+        <v>2.5</v>
+      </c>
+      <c r="CA6">
+        <v>1.5</v>
+      </c>
+      <c r="CB6">
+        <v>1.000045905630994</v>
+      </c>
+      <c r="CC6">
+        <v>24</v>
+      </c>
+      <c r="CD6">
+        <v>1.652502733746918</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>1.00033468065292</v>
+      </c>
+      <c r="CG6">
+        <v>1.554010548351668</v>
+      </c>
+      <c r="CH6">
+        <v>1.039298586630049</v>
+      </c>
+      <c r="CI6">
+        <v>0.0002887750219264795</v>
+      </c>
+      <c r="CJ6">
+        <v>0.09849218539525029</v>
+      </c>
+      <c r="CK6">
+        <v>0.02376512287761379</v>
+      </c>
+      <c r="CL6">
+        <v>1.174226537365656</v>
+      </c>
+      <c r="CM6">
+        <v>1.355716455097426</v>
+      </c>
+      <c r="CN6">
+        <v>1.264971496231541</v>
+      </c>
+      <c r="CO6">
+        <v>0.09074495886588496</v>
+      </c>
     </row>
-    <row r="7" spans="1:71">
+    <row r="7" spans="1:93">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1666,186 +2080,258 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>22.4</v>
+      </c>
+      <c r="I7">
+        <v>7.735631842325487</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="M7">
         <v>13</v>
       </c>
-      <c r="G7">
-        <v>51</v>
-      </c>
-      <c r="H7">
-        <v>26.14285714285714</v>
-      </c>
-      <c r="I7">
-        <v>11.48201788423435</v>
-      </c>
-      <c r="J7">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="M7">
-        <v>18</v>
-      </c>
       <c r="N7">
+        <v>0.5133333333333333</v>
+      </c>
+      <c r="O7">
+        <v>0.7066666666666667</v>
+      </c>
+      <c r="P7">
+        <v>0.6234514613926377</v>
+      </c>
+      <c r="Q7">
+        <v>0.01632993161855452</v>
+      </c>
+      <c r="R7">
+        <v>0.03265986323710907</v>
+      </c>
+      <c r="S7">
+        <v>0.01533402700063785</v>
+      </c>
+      <c r="T7">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="U7">
+        <v>13</v>
+      </c>
+      <c r="V7">
         <v>0.5</v>
       </c>
-      <c r="O7">
-        <v>0.7476190476190476</v>
-      </c>
-      <c r="P7">
-        <v>0.6329663802042721</v>
-      </c>
-      <c r="Q7">
-        <v>0.03984095364447978</v>
-      </c>
-      <c r="R7">
-        <v>0.04312088161017821</v>
-      </c>
-      <c r="S7">
-        <v>0.01883259148257703</v>
-      </c>
-      <c r="T7">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="U7">
-        <v>18</v>
-      </c>
-      <c r="V7">
-        <v>0.5666666666666667</v>
-      </c>
       <c r="W7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X7">
-        <v>0.2523809523809524</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="Y7">
-        <v>0.5</v>
+        <v>0.4866666666666667</v>
       </c>
       <c r="Z7">
-        <v>0.3670336197957279</v>
+        <v>0.3765485386073622</v>
       </c>
       <c r="AA7">
-        <v>0.04312088161017817</v>
+        <v>0.03265986323710903</v>
       </c>
       <c r="AB7">
-        <v>0.03984095364447978</v>
+        <v>0.01632993161855452</v>
       </c>
       <c r="AC7">
-        <v>0.01883259148257703</v>
+        <v>0.01533402700063786</v>
       </c>
       <c r="AD7">
-        <v>-0.6260990336999432</v>
+        <v>-0.267261241912421</v>
       </c>
       <c r="AE7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF7">
-        <v>1.044730758145375</v>
+        <v>0.890174443055205</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>-0.3266510367701438</v>
+        <v>-0.1984549727753245</v>
       </c>
       <c r="AI7">
-        <v>0.7608342700839471</v>
+        <v>0.7601379423459578</v>
       </c>
       <c r="AJ7">
-        <v>0.1294460671849579</v>
+        <v>0.1410580997098236</v>
       </c>
       <c r="AK7">
-        <v>0.2111330763597631</v>
+        <v>0.04121137110361538</v>
       </c>
       <c r="AL7">
-        <v>0.2218190598857689</v>
+        <v>0.1414950736710502</v>
       </c>
       <c r="AM7">
-        <v>0.06084630787185441</v>
+        <v>0.04660461364040965</v>
       </c>
       <c r="AN7">
-        <v>-0.5827034033488996</v>
+        <v>-0.2546775447511482</v>
       </c>
       <c r="AO7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AP7">
-        <v>3.987087503295393</v>
+        <v>3.208231113412181</v>
       </c>
       <c r="AQ7">
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>-0.2662260940487088</v>
+        <v>-0.1668779208110422</v>
       </c>
       <c r="AS7">
-        <v>2.605776549483541</v>
+        <v>2.581349578538641</v>
       </c>
       <c r="AT7">
-        <v>0.2617465281169628</v>
+        <v>0.3122516729843343</v>
       </c>
       <c r="AU7">
+        <v>1.5</v>
+      </c>
+      <c r="AV7">
+        <v>6</v>
+      </c>
+      <c r="AW7">
+        <v>3.1</v>
+      </c>
+      <c r="AX7">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="AY7">
+        <v>1.461538461538461</v>
+      </c>
+      <c r="AZ7">
+        <v>1.278571428571428</v>
+      </c>
+      <c r="BA7">
+        <v>1.138998429050926</v>
+      </c>
+      <c r="BB7">
+        <v>1.385570700114236</v>
+      </c>
+      <c r="BC7">
+        <v>1.256880917550117</v>
+      </c>
+      <c r="BD7">
+        <v>9</v>
+      </c>
+      <c r="BE7">
+        <v>59</v>
+      </c>
+      <c r="BF7">
+        <v>23.2</v>
+      </c>
+      <c r="BG7">
+        <v>18.4</v>
+      </c>
+      <c r="BH7">
+        <v>11.69181870059744</v>
+      </c>
+      <c r="BI7">
+        <v>0.8011110860939552</v>
+      </c>
+      <c r="BJ7">
+        <v>12.58492916442845</v>
+      </c>
+      <c r="BO7">
+        <v>22</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0.3619091171975141</v>
+      </c>
+      <c r="BU7">
+        <v>0.890174443055205</v>
+      </c>
+      <c r="BV7">
+        <v>0.543877073631406</v>
+      </c>
+      <c r="BW7">
+        <v>0.1836609856438043</v>
+      </c>
+      <c r="BX7">
         <v>1</v>
       </c>
-      <c r="AV7">
-        <v>3.5</v>
-      </c>
-      <c r="AW7">
-        <v>1.952380952380953</v>
-      </c>
-      <c r="AX7">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="AY7">
-        <v>1.727272727272727</v>
-      </c>
-      <c r="AZ7">
-        <v>1.309761666904524</v>
-      </c>
-      <c r="BA7">
-        <v>1.122760574031826</v>
-      </c>
-      <c r="BB7">
-        <v>1.412061368583108</v>
-      </c>
-      <c r="BC7">
-        <v>1.245228450812102</v>
-      </c>
-      <c r="BD7">
-        <v>12</v>
-      </c>
-      <c r="BE7">
-        <v>23</v>
-      </c>
-      <c r="BF7">
-        <v>18.33333333333333</v>
-      </c>
-      <c r="BG7">
-        <v>4.642796092394707</v>
-      </c>
-      <c r="BH7">
-        <v>12.56508030928504</v>
-      </c>
-      <c r="BI7">
-        <v>0.1669771511528002</v>
-      </c>
-      <c r="BJ7">
-        <v>12.7751260120747</v>
+      <c r="BY7">
+        <v>3</v>
+      </c>
+      <c r="BZ7">
+        <v>2</v>
+      </c>
+      <c r="CA7">
+        <v>0.6324555320336759</v>
+      </c>
+      <c r="CB7">
+        <v>1.003709022285535</v>
+      </c>
+      <c r="CC7">
+        <v>22</v>
+      </c>
+      <c r="CD7">
+        <v>3.157941449218307</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>1.007813899106353</v>
+      </c>
+      <c r="CG7">
+        <v>2.907802689441977</v>
+      </c>
+      <c r="CH7">
+        <v>1.146290199469234</v>
+      </c>
+      <c r="CI7">
+        <v>0.003013234373479913</v>
+      </c>
+      <c r="CJ7">
+        <v>0.2546775460175867</v>
+      </c>
+      <c r="CK7">
+        <v>0.04952100820002821</v>
+      </c>
+      <c r="CL7">
+        <v>1.667711606338618</v>
+      </c>
+      <c r="CM7">
+        <v>2.151400011344555</v>
+      </c>
+      <c r="CN7">
+        <v>1.901783025399223</v>
+      </c>
+      <c r="CO7">
+        <v>0.1639421493013532</v>
       </c>
     </row>
-    <row r="8" spans="1:71">
+    <row r="8" spans="1:93">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1854,25 +2340,25 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H8">
-        <v>26.42857142857143</v>
+        <v>28.8</v>
       </c>
       <c r="I8">
-        <v>13.605221086639</v>
+        <v>15.96746692496966</v>
       </c>
       <c r="J8">
-        <v>0.3666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1881,159 +2367,231 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N8">
-        <v>0.4619047619047619</v>
+        <v>0.5066666666666666</v>
       </c>
       <c r="O8">
-        <v>0.7333333333333334</v>
+        <v>0.7266666666666667</v>
       </c>
       <c r="P8">
-        <v>0.6317208912550527</v>
+        <v>0.6248193811608445</v>
       </c>
       <c r="Q8">
-        <v>0.05172752614857246</v>
+        <v>0.03887301263230199</v>
       </c>
       <c r="R8">
-        <v>0.02519763153394852</v>
+        <v>0.04898979485566361</v>
       </c>
       <c r="S8">
-        <v>0.01384427692673933</v>
+        <v>0.01743804304948153</v>
       </c>
       <c r="T8">
         <v>0.2333333333333333</v>
       </c>
       <c r="U8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V8">
-        <v>0.6333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0.2666666666666667</v>
+        <v>0.2733333333333333</v>
       </c>
       <c r="Y8">
-        <v>0.5380952380952381</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="Z8">
-        <v>0.3682791087449474</v>
+        <v>0.3751806188391554</v>
       </c>
       <c r="AA8">
-        <v>0.02519763153394848</v>
+        <v>0.04898979485566356</v>
       </c>
       <c r="AB8">
-        <v>0.05172752614857244</v>
+        <v>0.03887301263230199</v>
       </c>
       <c r="AC8">
-        <v>0.01384427692673926</v>
+        <v>0.01743804304948153</v>
       </c>
       <c r="AD8">
-        <v>-0.301511344577761</v>
+        <v>-0.4008918628685922</v>
       </c>
       <c r="AE8">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AF8">
-        <v>1.331112309523567</v>
+        <v>0.9210866791696868</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>-0.1859865817609799</v>
+        <v>-0.2293824041849513</v>
       </c>
       <c r="AI8">
-        <v>0.8594240746038307</v>
+        <v>0.6964318089656649</v>
       </c>
       <c r="AJ8">
-        <v>0.1440340745601538</v>
+        <v>0.1272300857100034</v>
       </c>
       <c r="AK8">
-        <v>0.1205021261204545</v>
+        <v>0.1294512489788815</v>
       </c>
       <c r="AL8">
-        <v>0.2771359123615238</v>
+        <v>0.15851238055078</v>
       </c>
       <c r="AM8">
-        <v>0.07967467399671466</v>
+        <v>0.04894309602181999</v>
       </c>
       <c r="AN8">
-        <v>-0.3629278927530741</v>
+        <v>-0.4512761059702921</v>
       </c>
       <c r="AO8">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AP8">
-        <v>5.142234990415643</v>
+        <v>3.558260348841177</v>
       </c>
       <c r="AQ8">
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>-0.1505890620682873</v>
+        <v>-0.2363876783209957</v>
       </c>
       <c r="AS8">
-        <v>3.113724104230941</v>
+        <v>2.495290298574713</v>
       </c>
       <c r="AT8">
-        <v>0.2592604396277233</v>
+        <v>0.2496630577662582</v>
       </c>
       <c r="AU8">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>2.666666666666667</v>
+        <v>3</v>
       </c>
       <c r="AW8">
-        <v>1.521428571428571</v>
+        <v>2.044444444444444</v>
       </c>
       <c r="AX8">
-        <v>1.214285714285714</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="AY8">
-        <v>2.142857142857143</v>
+        <v>1.461538461538461</v>
       </c>
       <c r="AZ8">
-        <v>1.581484388627246</v>
+        <v>1.269230769230769</v>
       </c>
       <c r="BA8">
-        <v>1.103802218131759</v>
+        <v>1.090926107155012</v>
       </c>
       <c r="BB8">
-        <v>1.416413807886822</v>
+        <v>1.398951924590593</v>
       </c>
       <c r="BC8">
-        <v>1.239574326910607</v>
+        <v>1.21268348472377</v>
       </c>
       <c r="BD8">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="BE8">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="BF8">
-        <v>66</v>
+        <v>40.2</v>
       </c>
       <c r="BG8">
-        <v>53.10994884827763</v>
+        <v>23.65924766344019</v>
       </c>
       <c r="BH8">
-        <v>12.79655125188746</v>
+        <v>11.99581392994397</v>
       </c>
       <c r="BI8">
-        <v>0.05443566557333544</v>
+        <v>1.344988520290807</v>
       </c>
       <c r="BJ8">
         <v>12.87129965752215</v>
       </c>
+      <c r="BO8">
+        <v>39</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0.4808392391342982</v>
+      </c>
+      <c r="BU8">
+        <v>0.539538850733858</v>
+      </c>
+      <c r="BV8">
+        <v>0.5127474238467219</v>
+      </c>
+      <c r="BW8">
+        <v>0.02252258167593717</v>
+      </c>
+      <c r="BX8">
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>3</v>
+      </c>
+      <c r="BZ8">
+        <v>2</v>
+      </c>
+      <c r="CA8">
+        <v>0.8944271909999159</v>
+      </c>
+      <c r="CB8">
+        <v>1.000414244844608</v>
+      </c>
+      <c r="CC8">
+        <v>39</v>
+      </c>
+      <c r="CD8">
+        <v>2.930808944634442</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>1.004242771869256</v>
+      </c>
+      <c r="CG8">
+        <v>2.426391647255685</v>
+      </c>
+      <c r="CH8">
+        <v>1.119603614210325</v>
+      </c>
+      <c r="CI8">
+        <v>0.003576791529896815</v>
+      </c>
+      <c r="CJ8">
+        <v>0.2582377651792833</v>
+      </c>
+      <c r="CK8">
+        <v>0.06272247989728696</v>
+      </c>
+      <c r="CL8">
+        <v>1.582881040834502</v>
+      </c>
+      <c r="CM8">
+        <v>1.708814059314089</v>
+      </c>
+      <c r="CN8">
+        <v>1.641391201488537</v>
+      </c>
+      <c r="CO8">
+        <v>0.04312039520747741</v>
+      </c>
     </row>
-    <row r="9" spans="1:71">
+    <row r="9" spans="1:93">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2051,13 +2609,13 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>13.4</v>
+        <v>10.1</v>
       </c>
       <c r="I9">
-        <v>6.62117814289874</v>
+        <v>3.858756276314947</v>
       </c>
       <c r="J9">
         <v>0.1666666666666667</v>
@@ -2069,31 +2627,31 @@
         <v>0.7666666666666667</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N9">
-        <v>0.2733333333333333</v>
+        <v>0.29</v>
       </c>
       <c r="O9">
-        <v>0.7100000000000001</v>
+        <v>0.6933333333333332</v>
       </c>
       <c r="P9">
-        <v>0.6187609161793372</v>
+        <v>0.6149107602637014</v>
       </c>
       <c r="Q9">
-        <v>0.08137703743822468</v>
+        <v>0.08439325934114775</v>
       </c>
       <c r="R9">
-        <v>0.05385164807134506</v>
+        <v>0.04163331998932266</v>
       </c>
       <c r="S9">
-        <v>0.03199143434196162</v>
+        <v>0.02971521818240699</v>
       </c>
       <c r="T9">
         <v>0.2333333333333333</v>
       </c>
       <c r="U9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="V9">
         <v>0.8333333333333334</v>
@@ -2102,100 +2660,172 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.29</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="Y9">
-        <v>0.7266666666666667</v>
+        <v>0.71</v>
       </c>
       <c r="Z9">
-        <v>0.3812390838206627</v>
+        <v>0.3850892397362985</v>
       </c>
       <c r="AA9">
-        <v>0.05385164807134504</v>
+        <v>0.04163331998932265</v>
       </c>
       <c r="AB9">
-        <v>0.08137703743822471</v>
+        <v>0.08439325934114776</v>
       </c>
       <c r="AC9">
-        <v>0.03199143434196165</v>
+        <v>0.02971521818240697</v>
       </c>
       <c r="AD9">
-        <v>-0.5555555555555652</v>
+        <v>-0.4008918628686369</v>
       </c>
       <c r="AE9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AF9">
-        <v>2.803450351682867</v>
+        <v>2.944284778000219</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>-0.1015641634996209</v>
+        <v>-0.04426574484517522</v>
       </c>
       <c r="AI9">
-        <v>2.052914799399319</v>
+        <v>1.985448070141359</v>
       </c>
       <c r="AJ9">
-        <v>0.2191458751788855</v>
+        <v>0.2427644154618504</v>
       </c>
       <c r="AK9">
-        <v>0.2437634036316809</v>
+        <v>0.1831087098036524</v>
       </c>
       <c r="AL9">
-        <v>0.44632251936433</v>
+        <v>0.4917063961157726</v>
       </c>
       <c r="AM9">
-        <v>0.1037733160951575</v>
+        <v>0.1075470458927156</v>
       </c>
       <c r="AN9">
-        <v>-1386.117119070754</v>
+        <v>-1039.587839303065</v>
       </c>
       <c r="AO9">
         <v>6</v>
       </c>
       <c r="AP9">
-        <v>16955.58364152483</v>
+        <v>19702.33860574303</v>
       </c>
       <c r="AQ9">
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>-124.8353237970266</v>
+        <v>-26.07739909196607</v>
       </c>
       <c r="AS9">
-        <v>14100.72419980129</v>
+        <v>13657.26380052756</v>
       </c>
       <c r="AT9">
-        <v>1232.478016019306</v>
+        <v>1469.484197244061</v>
       </c>
       <c r="AU9">
-        <v>0.7777777777777778</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="AV9">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AW9">
-        <v>1.495854700854701</v>
+        <v>2.001072261072261</v>
       </c>
       <c r="AX9">
-        <v>1.214285714285714</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AY9">
-        <v>1.9</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AZ9">
-        <v>1.518479853479854</v>
+        <v>1.539167499167499</v>
       </c>
       <c r="BA9">
-        <v>1.243426787116279</v>
+        <v>1.281978626079284</v>
       </c>
       <c r="BB9">
-        <v>3.420952380952381</v>
+        <v>2.733469842317392</v>
       </c>
       <c r="BC9">
-        <v>1.976608515242893</v>
+        <v>2.03645582377694</v>
+      </c>
+      <c r="BO9">
+        <v>17</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0.3340371005242398</v>
+      </c>
+      <c r="BU9">
+        <v>0.8506856794478567</v>
+      </c>
+      <c r="BV9">
+        <v>0.6279593629657511</v>
+      </c>
+      <c r="BW9">
+        <v>0.1537943243367617</v>
+      </c>
+      <c r="BX9">
+        <v>2</v>
+      </c>
+      <c r="BY9">
+        <v>13</v>
+      </c>
+      <c r="BZ9">
+        <v>7.9</v>
+      </c>
+      <c r="CA9">
+        <v>2.981610303175115</v>
+      </c>
+      <c r="CB9">
+        <v>1.001308729228491</v>
+      </c>
+      <c r="CC9">
+        <v>17</v>
+      </c>
+      <c r="CD9">
+        <v>12.5262186227228</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>1.012417436469751</v>
+      </c>
+      <c r="CG9">
+        <v>8.446895235537671</v>
+      </c>
+      <c r="CH9">
+        <v>1.168424646519746</v>
+      </c>
+      <c r="CI9">
+        <v>0.008683366945376041</v>
+      </c>
+      <c r="CJ9">
+        <v>2.746212453050284</v>
+      </c>
+      <c r="CK9">
+        <v>0.1128369053170773</v>
+      </c>
+      <c r="CL9">
+        <v>1.238833251869997</v>
+      </c>
+      <c r="CM9">
+        <v>2.122208985498237</v>
+      </c>
+      <c r="CN9">
+        <v>1.644905404805177</v>
+      </c>
+      <c r="CO9">
+        <v>0.273226859642874</v>
       </c>
     </row>
   </sheetData>

--- a/out_test/tables/aggregated_30.xlsx
+++ b/out_test/tables/aggregated_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
   <si>
     <t>Fitness Function</t>
   </si>
@@ -28,7 +28,7 @@
     <t>FconstALL</t>
   </si>
   <si>
-    <t>RWS</t>
+    <t>ExpRankingRWS</t>
   </si>
   <si>
     <t>no_operators</t>
@@ -317,6 +317,36 @@
   </si>
   <si>
     <t>Fexp1</t>
+  </si>
+  <si>
+    <t>Fexp1_gray</t>
+  </si>
+  <si>
+    <t>Fexp2</t>
+  </si>
+  <si>
+    <t>Fexp2_gray</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>Rastrigin_binary</t>
+  </si>
+  <si>
+    <t>Rastrigin_gray</t>
+  </si>
+  <si>
+    <t>Debs2_binary</t>
+  </si>
+  <si>
+    <t>Debs2_gray</t>
+  </si>
+  <si>
+    <t>Debs4_binary</t>
+  </si>
+  <si>
+    <t>Debs4_gray</t>
   </si>
 </sst>
 </file>
@@ -648,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO9"/>
+  <dimension ref="A1:CO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -954,79 +984,79 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="H2">
-        <v>51.2</v>
+        <v>55.38</v>
       </c>
       <c r="I2">
-        <v>21.94903186931032</v>
+        <v>32.34896598038336</v>
       </c>
       <c r="J2">
-        <v>0.4666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>0.5133333333333333</v>
+        <v>0.4976666666666666</v>
       </c>
       <c r="O2">
-        <v>0.7533333333333333</v>
+        <v>0.7476666666666667</v>
       </c>
       <c r="P2">
-        <v>0.6396827258009741</v>
+        <v>0.6248424239940106</v>
       </c>
       <c r="Q2">
-        <v>0.02211083193570266</v>
+        <v>0.034076710848059</v>
       </c>
       <c r="R2">
-        <v>0.02211083193570271</v>
+        <v>0.03440122736828509</v>
       </c>
       <c r="S2">
-        <v>0.007738086724401227</v>
+        <v>0.009900390566262867</v>
       </c>
       <c r="T2">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V2">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="W2">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="X2">
-        <v>0.2466666666666667</v>
+        <v>0.2523333333333333</v>
       </c>
       <c r="Y2">
-        <v>0.4866666666666667</v>
+        <v>0.5023333333333333</v>
       </c>
       <c r="Z2">
-        <v>0.360317274199026</v>
+        <v>0.3751575760059895</v>
       </c>
       <c r="AA2">
-        <v>0.02211083193570266</v>
+        <v>0.03440122736828505</v>
       </c>
       <c r="AB2">
-        <v>0.02211083193570266</v>
+        <v>0.03407671084805899</v>
       </c>
       <c r="AC2">
-        <v>0.007738086724401293</v>
+        <v>0.009900390566262813</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -1040,253 +1070,253 @@
         <v>5</v>
       </c>
       <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>91</v>
+      </c>
+      <c r="H3">
+        <v>48.2</v>
+      </c>
+      <c r="I3">
+        <v>23.00782475593901</v>
+      </c>
+      <c r="J3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
         <v>0.8</v>
       </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>78</v>
-      </c>
-      <c r="H3">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>23.79075450674064</v>
-      </c>
-      <c r="J3">
-        <v>0.4</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.7666666666666667</v>
-      </c>
       <c r="M3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N3">
-        <v>0.4958333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="O3">
-        <v>0.7458333333333333</v>
+        <v>0.7666666666666668</v>
       </c>
       <c r="P3">
-        <v>0.6337473290598292</v>
+        <v>0.6230219114219113</v>
       </c>
       <c r="Q3">
-        <v>0.0484122918275927</v>
+        <v>0.04714045207910316</v>
       </c>
       <c r="R3">
-        <v>0.02319901817845847</v>
+        <v>0.02108185106778923</v>
       </c>
       <c r="S3">
-        <v>0.008862816051369928</v>
+        <v>0.007928005522176273</v>
       </c>
       <c r="T3">
+        <v>0.2</v>
+      </c>
+      <c r="U3">
+        <v>18</v>
+      </c>
+      <c r="V3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="W3">
+        <v>7</v>
+      </c>
+      <c r="X3">
         <v>0.2333333333333333</v>
       </c>
-      <c r="U3">
-        <v>12</v>
-      </c>
-      <c r="V3">
-        <v>0.6</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0.2541666666666667</v>
-      </c>
       <c r="Y3">
-        <v>0.5041666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="Z3">
-        <v>0.3662526709401709</v>
+        <v>0.3769780885780887</v>
       </c>
       <c r="AA3">
-        <v>0.02319901817845842</v>
+        <v>0.02108185106778919</v>
       </c>
       <c r="AB3">
-        <v>0.0484122918275927</v>
+        <v>0.04714045207910316</v>
       </c>
       <c r="AC3">
-        <v>0.008862816051369925</v>
+        <v>0.007928005522176306</v>
       </c>
       <c r="AD3">
-        <v>-0.5345224838248492</v>
+        <v>-0.3598572141591074</v>
       </c>
       <c r="AE3">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="AF3">
-        <v>1.146012955546884</v>
+        <v>0.6669897433257351</v>
       </c>
       <c r="AG3">
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>-0.3032181532469036</v>
+        <v>-0.3063926767205207</v>
       </c>
       <c r="AI3">
-        <v>0.8749300632219301</v>
+        <v>0.483251546646805</v>
       </c>
       <c r="AJ3">
-        <v>0.1105166591954752</v>
+        <v>0.04076268903413909</v>
       </c>
       <c r="AK3">
-        <v>0.1708797607750975</v>
+        <v>0.0631312053564729</v>
       </c>
       <c r="AL3">
-        <v>0.1829686597814046</v>
+        <v>0.09795396426413425</v>
       </c>
       <c r="AM3">
-        <v>0.08388273662938035</v>
+        <v>0.01357883244823125</v>
       </c>
       <c r="AN3">
-        <v>-2.784419999999969</v>
+        <v>-16.54508333333334</v>
       </c>
       <c r="AO3">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="AP3">
-        <v>36.87824333333334</v>
+        <v>22.89193</v>
       </c>
       <c r="AQ3">
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>-1.308971250000008</v>
+        <v>-10.87459666666667</v>
       </c>
       <c r="AS3">
-        <v>27.66010333333334</v>
+        <v>19.09956533333334</v>
       </c>
       <c r="AT3">
-        <v>1.95250257585817</v>
+        <v>1.502343490919451</v>
       </c>
       <c r="AU3">
         <v>1</v>
       </c>
       <c r="AV3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AW3">
-        <v>1.791666666666667</v>
+        <v>1.8</v>
       </c>
       <c r="AX3">
-        <v>1.214285714285714</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AY3">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AZ3">
-        <v>1.553300865800866</v>
+        <v>1.361861471861472</v>
       </c>
       <c r="BA3">
-        <v>1.074356388784582</v>
+        <v>1.079732031363368</v>
       </c>
       <c r="BB3">
-        <v>1.659526481748704</v>
+        <v>1.254871849606332</v>
       </c>
       <c r="BC3">
-        <v>1.250275926670594</v>
+        <v>1.145624777408247</v>
       </c>
       <c r="BD3">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="BE3">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="BF3">
-        <v>54.5</v>
+        <v>57.32631578947368</v>
       </c>
       <c r="BG3">
-        <v>27.5</v>
+        <v>32.83593734254337</v>
       </c>
       <c r="BH3">
-        <v>100.6265</v>
+        <v>33.40787684210527</v>
       </c>
       <c r="BI3">
-        <v>3.209600000000002</v>
+        <v>31.05453867490973</v>
       </c>
       <c r="BJ3">
-        <v>103.8361</v>
+        <v>103.2256</v>
       </c>
       <c r="BO3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BT3">
-        <v>0.1039872886924002</v>
+        <v>-0.1670998940386526</v>
       </c>
       <c r="BU3">
-        <v>0.6637901360612373</v>
+        <v>0.2650293509384057</v>
       </c>
       <c r="BV3">
-        <v>0.4729488518163875</v>
+        <v>0.09251721352445212</v>
       </c>
       <c r="BW3">
-        <v>0.1645652261843512</v>
+        <v>0.1786821422541336</v>
       </c>
       <c r="BX3">
         <v>1</v>
       </c>
       <c r="BY3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BZ3">
-        <v>3.375</v>
+        <v>2.4</v>
       </c>
       <c r="CA3">
-        <v>1.576190026614811</v>
+        <v>1.356465996625054</v>
       </c>
       <c r="CB3">
-        <v>1.001099856042673</v>
+        <v>1.006117744207765</v>
       </c>
       <c r="CC3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="CD3">
-        <v>3.625026642832253</v>
+        <v>7.476663312045061</v>
       </c>
       <c r="CE3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CF3">
-        <v>1.00598145305561</v>
+        <v>1.03502057540306</v>
       </c>
       <c r="CG3">
-        <v>2.931215893625735</v>
+        <v>3.938324907997323</v>
       </c>
       <c r="CH3">
-        <v>1.100380803569547</v>
+        <v>1.955684598335115</v>
       </c>
       <c r="CI3">
-        <v>0.004759398257720079</v>
+        <v>0.01947736098325401</v>
       </c>
       <c r="CJ3">
-        <v>0.5411823660570405</v>
+        <v>1.803733538773214</v>
       </c>
       <c r="CK3">
-        <v>0.06948249650867698</v>
+        <v>0.8999975981509897</v>
       </c>
       <c r="CL3">
-        <v>1.370752792468495</v>
+        <v>1.779949059547355</v>
       </c>
       <c r="CM3">
-        <v>2.024603718744777</v>
+        <v>3.102740099672331</v>
       </c>
       <c r="CN3">
-        <v>1.644548957807453</v>
+        <v>2.491307930205468</v>
       </c>
       <c r="CO3">
-        <v>0.2065367109429329</v>
+        <v>0.4296472558885756</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1300,253 +1330,253 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>74</v>
+      </c>
+      <c r="H4">
+        <v>52</v>
+      </c>
+      <c r="I4">
+        <v>20.79422996891205</v>
+      </c>
+      <c r="J4">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>97</v>
-      </c>
-      <c r="H4">
-        <v>40.2</v>
-      </c>
-      <c r="I4">
-        <v>33.81952099010275</v>
-      </c>
-      <c r="J4">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
+        <v>0.8</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>0.5066666666666666</v>
+      </c>
+      <c r="O4">
         <v>0.7666666666666667</v>
       </c>
-      <c r="M4">
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>0.4933333333333333</v>
-      </c>
-      <c r="O4">
-        <v>0.7466666666666666</v>
-      </c>
       <c r="P4">
-        <v>0.6278937532002049</v>
+        <v>0.6300556962597339</v>
       </c>
       <c r="Q4">
         <v>0.03887301263230199</v>
       </c>
       <c r="R4">
-        <v>0.02666666666666671</v>
+        <v>0.02108185106778923</v>
       </c>
       <c r="S4">
-        <v>0.01099221632267589</v>
+        <v>0.01876616923579401</v>
       </c>
       <c r="T4">
+        <v>0.2</v>
+      </c>
+      <c r="U4">
+        <v>11</v>
+      </c>
+      <c r="V4">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="X4">
         <v>0.2333333333333333</v>
       </c>
-      <c r="U4">
-        <v>9</v>
-      </c>
-      <c r="V4">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0.2533333333333334</v>
-      </c>
       <c r="Y4">
-        <v>0.5066666666666666</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="Z4">
-        <v>0.3721062467997952</v>
+        <v>0.3699443037402663</v>
       </c>
       <c r="AA4">
-        <v>0.02666666666666666</v>
+        <v>0.02108185106778919</v>
       </c>
       <c r="AB4">
         <v>0.03887301263230199</v>
       </c>
       <c r="AC4">
-        <v>0.01099221632267586</v>
+        <v>0.01876616923579429</v>
       </c>
       <c r="AD4">
-        <v>-0.5366563145999498</v>
+        <v>-0.4757422775974751</v>
       </c>
       <c r="AE4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF4">
-        <v>1.129459635414878</v>
+        <v>0.5354850083960058</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH4">
-        <v>-0.2769435057690796</v>
+        <v>-0.3354028993679625</v>
       </c>
       <c r="AI4">
-        <v>0.8407929620907464</v>
+        <v>0.4438557852786746</v>
       </c>
       <c r="AJ4">
-        <v>0.1298741062157212</v>
+        <v>0.05669218531981465</v>
       </c>
       <c r="AK4">
-        <v>0.2336219546388093</v>
+        <v>0.1053082791673423</v>
       </c>
       <c r="AL4">
-        <v>0.2011377945316433</v>
+        <v>0.06675712865493862</v>
       </c>
       <c r="AM4">
-        <v>0.09909020991775508</v>
+        <v>0.02974977938131563</v>
       </c>
       <c r="AN4">
-        <v>-5.583060000000003</v>
+        <v>-14.63253</v>
       </c>
       <c r="AO4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP4">
-        <v>40.20677666666668</v>
+        <v>17.41936000000003</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AR4">
-        <v>-1.61817733333333</v>
+        <v>-9.514884</v>
       </c>
       <c r="AS4">
-        <v>28.17276</v>
+        <v>14.465026</v>
       </c>
       <c r="AT4">
-        <v>2.748806293906811</v>
+        <v>1.425349138230216</v>
       </c>
       <c r="AU4">
         <v>1</v>
       </c>
       <c r="AV4">
-        <v>1.727272727272727</v>
+        <v>4</v>
       </c>
       <c r="AW4">
-        <v>1.453787878787879</v>
+        <v>1.993333333333334</v>
       </c>
       <c r="AX4">
-        <v>1.25</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AY4">
-        <v>1.727272727272727</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="AZ4">
-        <v>1.470779220779221</v>
+        <v>1.522344322344322</v>
       </c>
       <c r="BA4">
-        <v>1.072711633109697</v>
+        <v>1.075486780920055</v>
       </c>
       <c r="BB4">
-        <v>1.653909605663991</v>
+        <v>1.247145109913139</v>
       </c>
       <c r="BC4">
-        <v>1.294927808336866</v>
+        <v>1.14574937141199</v>
       </c>
       <c r="BD4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BE4">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="BF4">
-        <v>36.6</v>
+        <v>52.73684210526316</v>
       </c>
       <c r="BG4">
-        <v>12.00999583680194</v>
+        <v>31.42449950237981</v>
       </c>
       <c r="BH4">
-        <v>99.80886000000001</v>
+        <v>36.11181789473684</v>
       </c>
       <c r="BI4">
-        <v>5.863807917931839</v>
+        <v>31.3260166055191</v>
       </c>
       <c r="BJ4">
-        <v>104.4484</v>
+        <v>102.4144</v>
       </c>
       <c r="BO4">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BT4">
-        <v>0.117954808057333</v>
+        <v>-0.238123187075726</v>
       </c>
       <c r="BU4">
-        <v>0.6345248426856089</v>
+        <v>0.2212909627253852</v>
       </c>
       <c r="BV4">
-        <v>0.3856515505209151</v>
+        <v>0.05363049100296559</v>
       </c>
       <c r="BW4">
-        <v>0.164419088694725</v>
+        <v>0.1814099882780057</v>
       </c>
       <c r="BX4">
         <v>1</v>
       </c>
       <c r="BY4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BZ4">
-        <v>2.733333333333333</v>
+        <v>2.1</v>
       </c>
       <c r="CA4">
-        <v>1.103529690483123</v>
+        <v>1.496662954709577</v>
       </c>
       <c r="CB4">
-        <v>1.000842507840672</v>
+        <v>1.00249932968995</v>
       </c>
       <c r="CC4">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="CD4">
-        <v>3.411212653308817</v>
+        <v>4.382230759546076</v>
       </c>
       <c r="CE4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CF4">
-        <v>1.006497674954956</v>
+        <v>1.017159035477523</v>
       </c>
       <c r="CG4">
-        <v>2.857530987242489</v>
+        <v>3.095444613445188</v>
       </c>
       <c r="CH4">
-        <v>1.097366865941107</v>
+        <v>1.434095498725183</v>
       </c>
       <c r="CI4">
-        <v>0.006798157043966946</v>
+        <v>0.009763781916083377</v>
       </c>
       <c r="CJ4">
-        <v>0.4252152861036494</v>
+        <v>0.7840641289773846</v>
       </c>
       <c r="CK4">
-        <v>0.05258484907750482</v>
+        <v>0.2319278804703528</v>
       </c>
       <c r="CL4">
-        <v>1.460528445904958</v>
+        <v>1.805773102830393</v>
       </c>
       <c r="CM4">
-        <v>1.769669732806722</v>
+        <v>3.974859127147909</v>
       </c>
       <c r="CN4">
-        <v>1.603223118778716</v>
+        <v>2.630430162845633</v>
       </c>
       <c r="CO4">
-        <v>0.1114281514955646</v>
+        <v>0.7236641998370276</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1560,253 +1590,253 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H5">
-        <v>29.5</v>
+        <v>46.25</v>
       </c>
       <c r="I5">
-        <v>11.34680571791022</v>
+        <v>6.015604707757983</v>
       </c>
       <c r="J5">
         <v>0.4666666666666667</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="N5">
         <v>0.5</v>
       </c>
       <c r="O5">
-        <v>0.7416666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="P5">
-        <v>0.630791847041847</v>
+        <v>0.6308470111448837</v>
       </c>
       <c r="Q5">
         <v>0.02357022603955158</v>
       </c>
       <c r="R5">
-        <v>0.01443375672974069</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.01055029263293936</v>
+        <v>0.005057255921679359</v>
       </c>
       <c r="T5">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="V5">
         <v>0.5333333333333333</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X5">
-        <v>0.2583333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Y5">
         <v>0.5</v>
       </c>
       <c r="Z5">
-        <v>0.369208152958153</v>
+        <v>0.3691529888551167</v>
       </c>
       <c r="AA5">
-        <v>0.01443375672974064</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0.02357022603955158</v>
       </c>
       <c r="AC5">
-        <v>0.01055029263293937</v>
+        <v>0.005057255921679414</v>
       </c>
       <c r="AD5">
-        <v>-0.3713906763442079</v>
+        <v>-0.4008918628686386</v>
       </c>
       <c r="AE5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF5">
-        <v>1.031356630441049</v>
+        <v>0.5345224838248496</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH5">
-        <v>-0.2690701393266353</v>
+        <v>-0.3334018905780098</v>
       </c>
       <c r="AI5">
-        <v>0.6072611213980234</v>
+        <v>0.3865871155669776</v>
       </c>
       <c r="AJ5">
-        <v>0.09663518300223803</v>
+        <v>0.03620813800084664</v>
       </c>
       <c r="AK5">
-        <v>0.1456194176217501</v>
+        <v>0.05207826228022128</v>
       </c>
       <c r="AL5">
-        <v>0.2453179423314811</v>
+        <v>0.09712903318605599</v>
       </c>
       <c r="AM5">
-        <v>0.06689165664520939</v>
+        <v>0.01204282668726152</v>
       </c>
       <c r="AN5">
-        <v>-0.993386666666666</v>
+        <v>-2.172016666666671</v>
       </c>
       <c r="AO5">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AP5">
-        <v>8.354023333333323</v>
+        <v>3.475226666666671</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AR5">
-        <v>-0.4470475</v>
+        <v>-1.5471075</v>
       </c>
       <c r="AS5">
-        <v>4.722307499999997</v>
+        <v>2.478764166666665</v>
       </c>
       <c r="AT5">
-        <v>0.1755902835497834</v>
+        <v>0.153560934520191</v>
       </c>
       <c r="AU5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AV5">
-        <v>2</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AW5">
-        <v>1.194444444444444</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="AX5">
         <v>1.071428571428571</v>
       </c>
       <c r="AY5">
-        <v>1.307692307692308</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AZ5">
-        <v>1.195741758241758</v>
+        <v>1.389069264069264</v>
       </c>
       <c r="BA5">
-        <v>1.079385370330609</v>
+        <v>1.098199149245615</v>
       </c>
       <c r="BB5">
-        <v>1.522836523924057</v>
+        <v>1.140016648891186</v>
       </c>
       <c r="BC5">
-        <v>1.211853751874006</v>
+        <v>1.115176867457435</v>
       </c>
       <c r="BD5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BE5">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="BF5">
-        <v>31</v>
+        <v>53.36458333333334</v>
       </c>
       <c r="BG5">
-        <v>6.708203932499369</v>
+        <v>30.20972518345247</v>
       </c>
       <c r="BH5">
-        <v>25.51075000000001</v>
+        <v>17.41506979166667</v>
       </c>
       <c r="BI5">
-        <v>0.6515859133682991</v>
+        <v>7.565797445427236</v>
       </c>
       <c r="BJ5">
-        <v>26.0623</v>
+        <v>26.1919</v>
       </c>
       <c r="BO5">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BT5">
-        <v>0.1039948289205292</v>
+        <v>-0.1613489891060577</v>
       </c>
       <c r="BU5">
-        <v>0.4138711280996356</v>
+        <v>0.1725105066858569</v>
       </c>
       <c r="BV5">
-        <v>0.1875342261428022</v>
+        <v>0.01047079852142056</v>
       </c>
       <c r="BW5">
-        <v>0.1309146470577465</v>
+        <v>0.1306275414013122</v>
       </c>
       <c r="BX5">
         <v>1</v>
       </c>
       <c r="BY5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BZ5">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="CA5">
-        <v>1.785357107135713</v>
+        <v>1.118033988749895</v>
       </c>
       <c r="CB5">
-        <v>1.000002034509348</v>
+        <v>1.000280967796054</v>
       </c>
       <c r="CC5">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="CD5">
-        <v>1.778761314148945</v>
+        <v>1.630853903085929</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CF5">
-        <v>1.0009748154605</v>
+        <v>1.008858347596211</v>
       </c>
       <c r="CG5">
-        <v>1.502010806379471</v>
+        <v>1.450590655829711</v>
       </c>
       <c r="CH5">
-        <v>1.039210333452114</v>
+        <v>1.149727340514485</v>
       </c>
       <c r="CI5">
-        <v>0.001326099277962739</v>
+        <v>0.007486987230478649</v>
       </c>
       <c r="CJ5">
-        <v>0.1598026754252904</v>
+        <v>0.1122264711088442</v>
       </c>
       <c r="CK5">
-        <v>0.01250253757410787</v>
+        <v>0.1008368615229319</v>
       </c>
       <c r="CL5">
-        <v>1.135241714797716</v>
+        <v>1.299942824017483</v>
       </c>
       <c r="CM5">
-        <v>1.192246829925876</v>
+        <v>1.450835395548714</v>
       </c>
       <c r="CN5">
-        <v>1.173209054588983</v>
+        <v>1.358100655394575</v>
       </c>
       <c r="CO5">
-        <v>0.02300327200438646</v>
+        <v>0.06105449837202377</v>
       </c>
     </row>
     <row r="6" spans="1:93">
@@ -1820,253 +1850,253 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>91</v>
+      </c>
+      <c r="G6">
+        <v>91</v>
+      </c>
+      <c r="H6">
+        <v>91</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="K6">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="O6">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="P6">
+        <v>0.6285185185185184</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="W6">
+        <v>31</v>
+      </c>
+      <c r="X6">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="Y6">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="Z6">
+        <v>0.3714814814814813</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>-0.5548992512275056</v>
+      </c>
+      <c r="AE6">
+        <v>36</v>
+      </c>
+      <c r="AF6">
+        <v>0.6013377943029546</v>
+      </c>
+      <c r="AG6">
+        <v>72</v>
+      </c>
+      <c r="AH6">
+        <v>-0.5548992512275056</v>
+      </c>
+      <c r="AI6">
+        <v>0.6013377943029546</v>
+      </c>
+      <c r="AJ6">
+        <v>0.006726099285647263</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>-4.738983333333326</v>
+      </c>
+      <c r="AO6">
+        <v>36</v>
+      </c>
+      <c r="AP6">
+        <v>4.728269999999998</v>
+      </c>
+      <c r="AQ6">
+        <v>72</v>
+      </c>
+      <c r="AR6">
+        <v>-4.738983333333326</v>
+      </c>
+      <c r="AS6">
+        <v>4.728269999999998</v>
+      </c>
+      <c r="AT6">
+        <v>0.1095705185185185</v>
+      </c>
+      <c r="AU6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>28</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="K6">
+      <c r="AV6">
+        <v>2</v>
+      </c>
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AY6">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AZ6">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BA6">
+        <v>1.060575471563823</v>
+      </c>
+      <c r="BB6">
+        <v>1.060575471563823</v>
+      </c>
+      <c r="BC6">
+        <v>1.060575471563823</v>
+      </c>
+      <c r="BD6">
+        <v>15</v>
+      </c>
+      <c r="BE6">
+        <v>151</v>
+      </c>
+      <c r="BF6">
+        <v>50.55555555555556</v>
+      </c>
+      <c r="BG6">
+        <v>28.284350608381</v>
+      </c>
+      <c r="BH6">
+        <v>18.87159797979798</v>
+      </c>
+      <c r="BI6">
+        <v>6.955922901115175</v>
+      </c>
+      <c r="BJ6">
+        <v>26.2063</v>
+      </c>
+      <c r="BO6">
+        <v>86</v>
+      </c>
+      <c r="BQ6">
+        <v>44</v>
+      </c>
+      <c r="BT6">
+        <v>0.08441249066997014</v>
+      </c>
+      <c r="BU6">
+        <v>0.08441249066997014</v>
+      </c>
+      <c r="BV6">
+        <v>0.08441249066997014</v>
+      </c>
+      <c r="BW6">
         <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>0.55</v>
-      </c>
-      <c r="O6">
-        <v>0.7166666666666666</v>
-      </c>
-      <c r="P6">
-        <v>0.6273307790549167</v>
-      </c>
-      <c r="Q6">
-        <v>0.01666666666666666</v>
-      </c>
-      <c r="R6">
-        <v>0.01666666666666666</v>
-      </c>
-      <c r="S6">
-        <v>0.001404853128991024</v>
-      </c>
-      <c r="T6">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="U6">
-        <v>6</v>
-      </c>
-      <c r="V6">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="Y6">
-        <v>0.45</v>
-      </c>
-      <c r="Z6">
-        <v>0.3726692209450831</v>
-      </c>
-      <c r="AA6">
-        <v>0.01666666666666666</v>
-      </c>
-      <c r="AB6">
-        <v>0.01666666666666666</v>
-      </c>
-      <c r="AC6">
-        <v>0.001404853128990968</v>
-      </c>
-      <c r="AD6">
-        <v>-0.5345224838248352</v>
-      </c>
-      <c r="AE6">
-        <v>20</v>
-      </c>
-      <c r="AF6">
-        <v>0.7034949364540191</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>-0.3783723530233101</v>
-      </c>
-      <c r="AI6">
-        <v>0.5459179503300529</v>
-      </c>
-      <c r="AJ6">
-        <v>0.06210289851454463</v>
-      </c>
-      <c r="AK6">
-        <v>0.1561501308015252</v>
-      </c>
-      <c r="AL6">
-        <v>0.1575769861239661</v>
-      </c>
-      <c r="AM6">
-        <v>0.007985050303844696</v>
-      </c>
-      <c r="AN6">
-        <v>-0.2033333333333331</v>
-      </c>
-      <c r="AO6">
-        <v>11</v>
-      </c>
-      <c r="AP6">
-        <v>6.461370000000001</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>-0.1474416666666691</v>
-      </c>
-      <c r="AS6">
-        <v>4.180189999999999</v>
-      </c>
-      <c r="AT6">
-        <v>0.1944358024691355</v>
-      </c>
-      <c r="AU6">
-        <v>0.75</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>0.875</v>
-      </c>
-      <c r="AX6">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="AY6">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="AZ6">
-        <v>1.296703296703297</v>
-      </c>
-      <c r="BA6">
-        <v>1.175489376226686</v>
-      </c>
-      <c r="BB6">
-        <v>1.184106541694101</v>
-      </c>
-      <c r="BC6">
-        <v>1.179797958960394</v>
-      </c>
-      <c r="BD6">
-        <v>18</v>
-      </c>
-      <c r="BE6">
-        <v>61</v>
-      </c>
-      <c r="BF6">
-        <v>40.375</v>
-      </c>
-      <c r="BG6">
-        <v>14.78121696613645</v>
-      </c>
-      <c r="BH6">
-        <v>25.910575</v>
-      </c>
-      <c r="BI6">
-        <v>0.2757137136143218</v>
-      </c>
-      <c r="BJ6">
-        <v>26.214</v>
-      </c>
-      <c r="BO6">
-        <v>24</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0.2186894188183049</v>
-      </c>
-      <c r="BU6">
-        <v>0.2366365081239443</v>
-      </c>
-      <c r="BV6">
-        <v>0.2276629634711246</v>
-      </c>
-      <c r="BW6">
-        <v>0.008973544652819687</v>
       </c>
       <c r="BX6">
         <v>1</v>
       </c>
       <c r="BY6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BZ6">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="CA6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1.000045905630994</v>
+        <v>1.020450877164072</v>
       </c>
       <c r="CC6">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="CD6">
-        <v>1.652502733746918</v>
+        <v>2.216693866851571</v>
       </c>
       <c r="CE6">
+        <v>44</v>
+      </c>
+      <c r="CF6">
+        <v>1.020450877164072</v>
+      </c>
+      <c r="CG6">
+        <v>2.216693866851571</v>
+      </c>
+      <c r="CH6">
+        <v>1.350791438152205</v>
+      </c>
+      <c r="CI6">
         <v>0</v>
       </c>
-      <c r="CF6">
-        <v>1.00033468065292</v>
-      </c>
-      <c r="CG6">
-        <v>1.554010548351668</v>
-      </c>
-      <c r="CH6">
-        <v>1.039298586630049</v>
-      </c>
-      <c r="CI6">
-        <v>0.0002887750219264795</v>
-      </c>
       <c r="CJ6">
-        <v>0.09849218539525029</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.02376512287761379</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>1.174226537365656</v>
+        <v>1.60302785453318</v>
       </c>
       <c r="CM6">
-        <v>1.355716455097426</v>
+        <v>1.60302785453318</v>
       </c>
       <c r="CN6">
-        <v>1.264971496231541</v>
+        <v>1.60302785453318</v>
       </c>
       <c r="CO6">
-        <v>0.09074495886588496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:93">
@@ -2080,199 +2110,199 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="H7">
-        <v>22.4</v>
+        <v>51.4</v>
       </c>
       <c r="I7">
-        <v>7.735631842325487</v>
+        <v>21.40654105641545</v>
       </c>
       <c r="J7">
         <v>0.5</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L7">
-        <v>0.7666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>0.5133333333333333</v>
       </c>
       <c r="O7">
-        <v>0.7066666666666667</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="P7">
-        <v>0.6234514613926377</v>
+        <v>0.6265680559277191</v>
       </c>
       <c r="Q7">
         <v>0.01632993161855452</v>
       </c>
       <c r="R7">
-        <v>0.03265986323710907</v>
+        <v>0.03399346342395194</v>
       </c>
       <c r="S7">
-        <v>0.01533402700063785</v>
+        <v>0.00638318482445624</v>
       </c>
       <c r="T7">
-        <v>0.2333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="U7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V7">
         <v>0.5</v>
       </c>
       <c r="W7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="X7">
-        <v>0.2933333333333333</v>
+        <v>0.2533333333333333</v>
       </c>
       <c r="Y7">
         <v>0.4866666666666667</v>
       </c>
       <c r="Z7">
-        <v>0.3765485386073622</v>
+        <v>0.3734319440722811</v>
       </c>
       <c r="AA7">
-        <v>0.03265986323710903</v>
+        <v>0.03399346342395189</v>
       </c>
       <c r="AB7">
         <v>0.01632993161855452</v>
       </c>
       <c r="AC7">
-        <v>0.01533402700063786</v>
+        <v>0.006383184824456099</v>
       </c>
       <c r="AD7">
-        <v>-0.267261241912421</v>
+        <v>-0.4367364404103061</v>
       </c>
       <c r="AE7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AF7">
-        <v>0.890174443055205</v>
+        <v>0.5418979709797451</v>
       </c>
       <c r="AG7">
+        <v>18</v>
+      </c>
+      <c r="AH7">
+        <v>-0.403545012180598</v>
+      </c>
+      <c r="AI7">
+        <v>0.4931098397844697</v>
+      </c>
+      <c r="AJ7">
+        <v>0.04459043677685402</v>
+      </c>
+      <c r="AK7">
+        <v>0.03198895170093172</v>
+      </c>
+      <c r="AL7">
+        <v>0.05480833501754084</v>
+      </c>
+      <c r="AM7">
+        <v>0.01708966105038932</v>
+      </c>
+      <c r="AN7">
+        <v>-1.996118500036274</v>
+      </c>
+      <c r="AO7">
+        <v>20</v>
+      </c>
+      <c r="AP7">
+        <v>2.660553608618021</v>
+      </c>
+      <c r="AQ7">
+        <v>5</v>
+      </c>
+      <c r="AR7">
+        <v>-1.558286186936846</v>
+      </c>
+      <c r="AS7">
+        <v>1.950017310001374</v>
+      </c>
+      <c r="AT7">
+        <v>0.1702075786387375</v>
+      </c>
+      <c r="AU7">
         <v>1</v>
       </c>
-      <c r="AH7">
-        <v>-0.1984549727753245</v>
-      </c>
-      <c r="AI7">
-        <v>0.7601379423459578</v>
-      </c>
-      <c r="AJ7">
-        <v>0.1410580997098236</v>
-      </c>
-      <c r="AK7">
-        <v>0.04121137110361538</v>
-      </c>
-      <c r="AL7">
-        <v>0.1414950736710502</v>
-      </c>
-      <c r="AM7">
-        <v>0.04660461364040965</v>
-      </c>
-      <c r="AN7">
-        <v>-0.2546775447511482</v>
-      </c>
-      <c r="AO7">
-        <v>9</v>
-      </c>
-      <c r="AP7">
-        <v>3.208231113412181</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>-0.1668779208110422</v>
-      </c>
-      <c r="AS7">
-        <v>2.581349578538641</v>
-      </c>
-      <c r="AT7">
-        <v>0.3122516729843343</v>
-      </c>
-      <c r="AU7">
-        <v>1.5</v>
-      </c>
       <c r="AV7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW7">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="AX7">
-        <v>1.142857142857143</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="AY7">
-        <v>1.461538461538461</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="AZ7">
-        <v>1.278571428571428</v>
+        <v>1.223260073260073</v>
       </c>
       <c r="BA7">
-        <v>1.138998429050926</v>
+        <v>1.069839697246871</v>
       </c>
       <c r="BB7">
-        <v>1.385570700114236</v>
+        <v>1.154228459159879</v>
       </c>
       <c r="BC7">
-        <v>1.256880917550117</v>
+        <v>1.131961011867615</v>
       </c>
       <c r="BD7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BE7">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="BF7">
-        <v>23.2</v>
+        <v>55.12631578947369</v>
       </c>
       <c r="BG7">
-        <v>18.4</v>
+        <v>33.43280522741042</v>
       </c>
       <c r="BH7">
-        <v>11.69181870059744</v>
+        <v>4.45540239976839</v>
       </c>
       <c r="BI7">
-        <v>0.8011110860939552</v>
+        <v>2.893113730017386</v>
       </c>
       <c r="BJ7">
-        <v>12.58492916442845</v>
+        <v>12.52216156836224</v>
       </c>
       <c r="BO7">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BT7">
-        <v>0.3619091171975141</v>
+        <v>-0.09841528587771081</v>
       </c>
       <c r="BU7">
-        <v>0.890174443055205</v>
+        <v>0.2868562948467058</v>
       </c>
       <c r="BV7">
-        <v>0.543877073631406</v>
+        <v>0.1085857741250053</v>
       </c>
       <c r="BW7">
-        <v>0.1836609856438043</v>
+        <v>0.1285671042405309</v>
       </c>
       <c r="BX7">
         <v>1</v>
@@ -2287,46 +2317,46 @@
         <v>0.6324555320336759</v>
       </c>
       <c r="CB7">
-        <v>1.003709022285535</v>
+        <v>1.010061102715784</v>
       </c>
       <c r="CC7">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="CD7">
-        <v>3.157941449218307</v>
+        <v>4.098258450482973</v>
       </c>
       <c r="CE7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CF7">
-        <v>1.007813899106353</v>
+        <v>1.027735399551223</v>
       </c>
       <c r="CG7">
-        <v>2.907802689441977</v>
+        <v>2.945347347263424</v>
       </c>
       <c r="CH7">
-        <v>1.146290199469234</v>
+        <v>1.604877287507788</v>
       </c>
       <c r="CI7">
-        <v>0.003013234373479913</v>
+        <v>0.01492948119660892</v>
       </c>
       <c r="CJ7">
-        <v>0.2546775460175867</v>
+        <v>0.6228906848847533</v>
       </c>
       <c r="CK7">
-        <v>0.04952100820002821</v>
+        <v>0.2737668072225094</v>
       </c>
       <c r="CL7">
-        <v>1.667711606338618</v>
+        <v>2.164025365661807</v>
       </c>
       <c r="CM7">
-        <v>2.151400011344555</v>
+        <v>2.639470481864651</v>
       </c>
       <c r="CN7">
-        <v>1.901783025399223</v>
+        <v>2.353251184612996</v>
       </c>
       <c r="CO7">
-        <v>0.1639421493013532</v>
+        <v>0.1559962824972183</v>
       </c>
     </row>
     <row r="8" spans="1:93">
@@ -2340,253 +2370,253 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G8">
+        <v>94</v>
+      </c>
+      <c r="H8">
+        <v>63.66666666666666</v>
+      </c>
+      <c r="I8">
+        <v>23.92813313979082</v>
+      </c>
+      <c r="J8">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="K8">
+        <v>37</v>
+      </c>
+      <c r="L8">
+        <v>0.8</v>
+      </c>
+      <c r="M8">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="O8">
+        <v>0.7666666666666666</v>
+      </c>
+      <c r="P8">
+        <v>0.6236171191584613</v>
+      </c>
+      <c r="Q8">
+        <v>0.03142696805273544</v>
+      </c>
+      <c r="R8">
+        <v>0.02721655269759091</v>
+      </c>
+      <c r="S8">
+        <v>0.009052705886734777</v>
+      </c>
+      <c r="T8">
+        <v>0.2</v>
+      </c>
+      <c r="U8">
+        <v>14</v>
+      </c>
+      <c r="V8">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="W8">
+        <v>37</v>
+      </c>
+      <c r="X8">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="Y8">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="Z8">
+        <v>0.3763828808415386</v>
+      </c>
+      <c r="AA8">
+        <v>0.02721655269759086</v>
+      </c>
+      <c r="AB8">
+        <v>0.03142696805273544</v>
+      </c>
+      <c r="AC8">
+        <v>0.009052705886734616</v>
+      </c>
+      <c r="AD8">
+        <v>-0.5883484054145467</v>
+      </c>
+      <c r="AE8">
+        <v>81</v>
+      </c>
+      <c r="AF8">
+        <v>0.8017837257372716</v>
+      </c>
+      <c r="AG8">
         <v>53</v>
       </c>
-      <c r="H8">
-        <v>28.8</v>
-      </c>
-      <c r="I8">
-        <v>15.96746692496966</v>
-      </c>
-      <c r="J8">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="M8">
-        <v>16</v>
-      </c>
-      <c r="N8">
-        <v>0.5066666666666666</v>
-      </c>
-      <c r="O8">
-        <v>0.7266666666666667</v>
-      </c>
-      <c r="P8">
-        <v>0.6248193811608445</v>
-      </c>
-      <c r="Q8">
-        <v>0.03887301263230199</v>
-      </c>
-      <c r="R8">
-        <v>0.04898979485566361</v>
-      </c>
-      <c r="S8">
-        <v>0.01743804304948153</v>
-      </c>
-      <c r="T8">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="U8">
-        <v>16</v>
-      </c>
-      <c r="V8">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0.2733333333333333</v>
-      </c>
-      <c r="Y8">
-        <v>0.4933333333333333</v>
-      </c>
-      <c r="Z8">
-        <v>0.3751806188391554</v>
-      </c>
-      <c r="AA8">
-        <v>0.04898979485566356</v>
-      </c>
-      <c r="AB8">
-        <v>0.03887301263230199</v>
-      </c>
-      <c r="AC8">
-        <v>0.01743804304948153</v>
-      </c>
-      <c r="AD8">
-        <v>-0.4008918628685922</v>
-      </c>
-      <c r="AE8">
-        <v>29</v>
-      </c>
-      <c r="AF8">
-        <v>0.9210866791696868</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
       <c r="AH8">
-        <v>-0.2293824041849513</v>
+        <v>-0.4037895032470494</v>
       </c>
       <c r="AI8">
-        <v>0.6964318089656649</v>
+        <v>0.5567088263645096</v>
       </c>
       <c r="AJ8">
-        <v>0.1272300857100034</v>
+        <v>0.05154870432828005</v>
       </c>
       <c r="AK8">
-        <v>0.1294512489788815</v>
+        <v>0.1544196748898641</v>
       </c>
       <c r="AL8">
-        <v>0.15851238055078</v>
+        <v>0.1188781750066928</v>
       </c>
       <c r="AM8">
-        <v>0.04894309602181999</v>
+        <v>0.02766899589368212</v>
       </c>
       <c r="AN8">
-        <v>-0.4512761059702921</v>
+        <v>-1.488946520150238</v>
       </c>
       <c r="AO8">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AP8">
-        <v>3.558260348841177</v>
+        <v>2.018869233184306</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AR8">
-        <v>-0.2363876783209957</v>
+        <v>-1.06284323515921</v>
       </c>
       <c r="AS8">
-        <v>2.495290298574713</v>
+        <v>1.684611391448472</v>
       </c>
       <c r="AT8">
-        <v>0.2496630577662582</v>
+        <v>0.1579470870420742</v>
       </c>
       <c r="AU8">
         <v>1</v>
       </c>
       <c r="AV8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW8">
-        <v>2.044444444444444</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="AX8">
         <v>1.142857142857143</v>
       </c>
       <c r="AY8">
-        <v>1.461538461538461</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="AZ8">
-        <v>1.269230769230769</v>
+        <v>1.357323232323232</v>
       </c>
       <c r="BA8">
-        <v>1.090926107155012</v>
+        <v>1.065859906344576</v>
       </c>
       <c r="BB8">
-        <v>1.398951924590593</v>
+        <v>1.240896270115458</v>
       </c>
       <c r="BC8">
-        <v>1.21268348472377</v>
+        <v>1.119488362242292</v>
       </c>
       <c r="BD8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BE8">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="BF8">
-        <v>40.2</v>
+        <v>52.56382978723404</v>
       </c>
       <c r="BG8">
-        <v>23.65924766344019</v>
+        <v>30.11769767084304</v>
       </c>
       <c r="BH8">
-        <v>11.99581392994397</v>
+        <v>4.472150084468976</v>
       </c>
       <c r="BI8">
-        <v>1.344988520290807</v>
+        <v>3.140240585027421</v>
       </c>
       <c r="BJ8">
-        <v>12.87129965752215</v>
+        <v>12.45970702698744</v>
       </c>
       <c r="BO8">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="BQ8">
         <v>0</v>
       </c>
       <c r="BT8">
-        <v>0.4808392391342982</v>
+        <v>-0.1608134878619926</v>
       </c>
       <c r="BU8">
-        <v>0.539538850733858</v>
+        <v>0.5237025982901666</v>
       </c>
       <c r="BV8">
-        <v>0.5127474238467219</v>
+        <v>0.2020817429702385</v>
       </c>
       <c r="BW8">
-        <v>0.02252258167593717</v>
+        <v>0.2338979266067945</v>
       </c>
       <c r="BX8">
         <v>1</v>
       </c>
       <c r="BY8">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BZ8">
-        <v>2</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="CA8">
-        <v>0.8944271909999159</v>
+        <v>0.6066758241067098</v>
       </c>
       <c r="CB8">
-        <v>1.000414244844608</v>
+        <v>1.005151983796734</v>
       </c>
       <c r="CC8">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="CD8">
-        <v>2.930808944634442</v>
+        <v>3.453043394406533</v>
       </c>
       <c r="CE8">
         <v>0</v>
       </c>
       <c r="CF8">
-        <v>1.004242771869256</v>
+        <v>1.014618406692227</v>
       </c>
       <c r="CG8">
-        <v>2.426391647255685</v>
+        <v>2.943884701645084</v>
       </c>
       <c r="CH8">
-        <v>1.119603614210325</v>
+        <v>1.37392306937233</v>
       </c>
       <c r="CI8">
-        <v>0.003576791529896815</v>
+        <v>0.007780946976262434</v>
       </c>
       <c r="CJ8">
-        <v>0.2582377651792833</v>
+        <v>0.2744872228215168</v>
       </c>
       <c r="CK8">
-        <v>0.06272247989728696</v>
+        <v>0.1642235035834399</v>
       </c>
       <c r="CL8">
-        <v>1.582881040834502</v>
+        <v>2.187894362561755</v>
       </c>
       <c r="CM8">
-        <v>1.708814059314089</v>
+        <v>3.288379194497398</v>
       </c>
       <c r="CN8">
-        <v>1.641391201488537</v>
+        <v>2.71663057484792</v>
       </c>
       <c r="CO8">
-        <v>0.04312039520747741</v>
+        <v>0.4178595080031309</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -2600,232 +2630,2853 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>10.1</v>
+        <v>39.8</v>
       </c>
       <c r="I9">
-        <v>3.858756276314947</v>
+        <v>9.826494797230596</v>
       </c>
       <c r="J9">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>0.7666666666666667</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="N9">
-        <v>0.29</v>
+        <v>0.5066666666666666</v>
       </c>
       <c r="O9">
-        <v>0.6933333333333332</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="P9">
-        <v>0.6149107602637014</v>
+        <v>0.6269264239028945</v>
       </c>
       <c r="Q9">
-        <v>0.08439325934114775</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="R9">
-        <v>0.04163331998932266</v>
+        <v>0.01632993161855457</v>
       </c>
       <c r="S9">
-        <v>0.02971521818240699</v>
+        <v>0.006515459481749762</v>
       </c>
       <c r="T9">
         <v>0.2333333333333333</v>
       </c>
       <c r="U9">
+        <v>38</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>0.2533333333333333</v>
+      </c>
+      <c r="Y9">
+        <v>0.4933333333333333</v>
+      </c>
+      <c r="Z9">
+        <v>0.3730735760971056</v>
+      </c>
+      <c r="AA9">
+        <v>0.01632993161855452</v>
+      </c>
+      <c r="AB9">
+        <v>0.01333333333333333</v>
+      </c>
+      <c r="AC9">
+        <v>0.00651545948174984</v>
+      </c>
+      <c r="AD9">
+        <v>-0.5356949877553268</v>
+      </c>
+      <c r="AE9">
+        <v>14</v>
+      </c>
+      <c r="AF9">
+        <v>0.6272248952605034</v>
+      </c>
+      <c r="AG9">
+        <v>7</v>
+      </c>
+      <c r="AH9">
+        <v>-0.4042996837312915</v>
+      </c>
+      <c r="AI9">
+        <v>0.4924763778803756</v>
+      </c>
+      <c r="AJ9">
+        <v>0.06495492857453063</v>
+      </c>
+      <c r="AK9">
+        <v>0.07613701673728374</v>
+      </c>
+      <c r="AL9">
+        <v>0.08377202145257194</v>
+      </c>
+      <c r="AM9">
+        <v>0.02188746017857283</v>
+      </c>
+      <c r="AN9">
+        <v>-7372.238266993561</v>
+      </c>
+      <c r="AO9">
+        <v>14</v>
+      </c>
+      <c r="AP9">
+        <v>6437.04865900268</v>
+      </c>
+      <c r="AQ9">
+        <v>7</v>
+      </c>
+      <c r="AR9">
+        <v>-4606.625853238465</v>
+      </c>
+      <c r="AS9">
+        <v>5161.089259359904</v>
+      </c>
+      <c r="AT9">
+        <v>681.5288716821738</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>2</v>
+      </c>
+      <c r="AW9">
+        <v>1.4</v>
+      </c>
+      <c r="AX9">
+        <v>1.153846153846154</v>
+      </c>
+      <c r="AY9">
+        <v>1.461538461538461</v>
+      </c>
+      <c r="AZ9">
+        <v>1.265934065934066</v>
+      </c>
+      <c r="BA9">
+        <v>1.091781031059908</v>
+      </c>
+      <c r="BB9">
+        <v>1.191003117485085</v>
+      </c>
+      <c r="BC9">
+        <v>1.137774952704717</v>
+      </c>
+      <c r="BD9">
+        <v>16</v>
+      </c>
+      <c r="BE9">
+        <v>150</v>
+      </c>
+      <c r="BF9">
+        <v>50.74736842105263</v>
+      </c>
+      <c r="BG9">
+        <v>26.55955311174954</v>
+      </c>
+      <c r="BH9">
+        <v>2642.693481466576</v>
+      </c>
+      <c r="BI9">
+        <v>5771.75249971863</v>
+      </c>
+      <c r="BJ9">
+        <v>24834.77083506536</v>
+      </c>
+      <c r="BO9">
+        <v>35</v>
+      </c>
+      <c r="BQ9">
+        <v>10</v>
+      </c>
+      <c r="BT9">
+        <v>-0.061937923033424</v>
+      </c>
+      <c r="BU9">
+        <v>0.5534843242756929</v>
+      </c>
+      <c r="BV9">
+        <v>0.2011231943379272</v>
+      </c>
+      <c r="BW9">
+        <v>0.2492789116561549</v>
+      </c>
+      <c r="BX9">
+        <v>1</v>
+      </c>
+      <c r="BY9">
+        <v>2</v>
+      </c>
+      <c r="BZ9">
+        <v>1.4</v>
+      </c>
+      <c r="CA9">
+        <v>0.4898979485566356</v>
+      </c>
+      <c r="CB9">
+        <v>1.026264282966745</v>
+      </c>
+      <c r="CC9">
+        <v>35</v>
+      </c>
+      <c r="CD9">
+        <v>23.50543494108393</v>
+      </c>
+      <c r="CE9">
+        <v>10</v>
+      </c>
+      <c r="CF9">
+        <v>1.040098034118036</v>
+      </c>
+      <c r="CG9">
+        <v>14.55104849704969</v>
+      </c>
+      <c r="CH9">
+        <v>3.219650316510769</v>
+      </c>
+      <c r="CI9">
+        <v>0.01596335217534811</v>
+      </c>
+      <c r="CJ9">
+        <v>5.875937816098451</v>
+      </c>
+      <c r="CK9">
+        <v>0.8198331803165516</v>
+      </c>
+      <c r="CL9">
+        <v>8.448241188107291</v>
+      </c>
+      <c r="CM9">
+        <v>13.85193237865339</v>
+      </c>
+      <c r="CN9">
+        <v>9.748751441396875</v>
+      </c>
+      <c r="CO9">
+        <v>2.060299352001352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:93">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0.03</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>64</v>
+      </c>
+      <c r="H10">
+        <v>36.66666666666666</v>
+      </c>
+      <c r="I10">
+        <v>20.40152499746581</v>
+      </c>
+      <c r="J10">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="O10">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="P10">
+        <v>0.6214462081128748</v>
+      </c>
+      <c r="Q10">
+        <v>0.01571348402636772</v>
+      </c>
+      <c r="R10">
+        <v>0.01571348402636777</v>
+      </c>
+      <c r="S10">
+        <v>0.008516747362985546</v>
+      </c>
+      <c r="T10">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>0.2444444444444445</v>
+      </c>
+      <c r="Y10">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="Z10">
+        <v>0.3785537918871253</v>
+      </c>
+      <c r="AA10">
+        <v>0.01571348402636772</v>
+      </c>
+      <c r="AB10">
+        <v>0.01571348402636772</v>
+      </c>
+      <c r="AC10">
+        <v>0.00851674736298548</v>
+      </c>
+      <c r="AD10">
+        <v>-0.3729257234211323</v>
+      </c>
+      <c r="AE10">
+        <v>27</v>
+      </c>
+      <c r="AF10">
+        <v>0.5516772843673697</v>
+      </c>
+      <c r="AG10">
+        <v>39</v>
+      </c>
+      <c r="AH10">
+        <v>-0.2614100450091958</v>
+      </c>
+      <c r="AI10">
+        <v>0.4612440702550112</v>
+      </c>
+      <c r="AJ10">
+        <v>0.09085301037331921</v>
+      </c>
+      <c r="AK10">
+        <v>0.07934276076992516</v>
+      </c>
+      <c r="AL10">
+        <v>0.07128000556323476</v>
+      </c>
+      <c r="AM10">
+        <v>0.04511461928193235</v>
+      </c>
+      <c r="AN10">
+        <v>-4210.176487647695</v>
+      </c>
+      <c r="AO10">
+        <v>27</v>
+      </c>
+      <c r="AP10">
+        <v>5395.507937974664</v>
+      </c>
+      <c r="AQ10">
+        <v>11</v>
+      </c>
+      <c r="AR10">
+        <v>-3005.459255292155</v>
+      </c>
+      <c r="AS10">
+        <v>4619.347859933197</v>
+      </c>
+      <c r="AT10">
+        <v>932.3205083574754</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>1.5</v>
+      </c>
+      <c r="AX10">
+        <v>1.153846153846154</v>
+      </c>
+      <c r="AY10">
+        <v>1.384615384615385</v>
+      </c>
+      <c r="AZ10">
+        <v>1.29059829059829</v>
+      </c>
+      <c r="BA10">
+        <v>1.097489469763998</v>
+      </c>
+      <c r="BB10">
+        <v>1.343555148555148</v>
+      </c>
+      <c r="BC10">
+        <v>1.198180181092224</v>
+      </c>
+      <c r="BD10">
+        <v>16</v>
+      </c>
+      <c r="BE10">
+        <v>156</v>
+      </c>
+      <c r="BF10">
+        <v>57.28865979381443</v>
+      </c>
+      <c r="BG10">
+        <v>30.42955656326324</v>
+      </c>
+      <c r="BH10">
+        <v>2540.272882299742</v>
+      </c>
+      <c r="BI10">
+        <v>5568.455324883372</v>
+      </c>
+      <c r="BJ10">
+        <v>26635.49490018122</v>
+      </c>
+      <c r="BO10">
+        <v>63</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>-0.1268154599102883</v>
+      </c>
+      <c r="BU10">
+        <v>0.2129890314313412</v>
+      </c>
+      <c r="BV10">
+        <v>0.04956052190329902</v>
+      </c>
+      <c r="BW10">
+        <v>0.1390263784632845</v>
+      </c>
+      <c r="BX10">
+        <v>1</v>
+      </c>
+      <c r="BY10">
+        <v>2</v>
+      </c>
+      <c r="BZ10">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CA10">
+        <v>0.4714045207910317</v>
+      </c>
+      <c r="CB10">
+        <v>1.01757318395101</v>
+      </c>
+      <c r="CC10">
+        <v>63</v>
+      </c>
+      <c r="CD10">
+        <v>8.794950425409214</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>1.068358956271225</v>
+      </c>
+      <c r="CG10">
+        <v>7.679081809932774</v>
+      </c>
+      <c r="CH10">
+        <v>2.677248739793148</v>
+      </c>
+      <c r="CI10">
+        <v>0.06047463691063254</v>
+      </c>
+      <c r="CJ10">
+        <v>1.066222887538243</v>
+      </c>
+      <c r="CK10">
+        <v>0.5164804837952605</v>
+      </c>
+      <c r="CL10">
+        <v>5.51803757981427</v>
+      </c>
+      <c r="CM10">
+        <v>7.590951862880931</v>
+      </c>
+      <c r="CN10">
+        <v>6.420134958876711</v>
+      </c>
+      <c r="CO10">
+        <v>0.8673334781767021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:93">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0.01</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="K11">
+        <v>28</v>
+      </c>
+      <c r="L11">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="O11">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="P11">
+        <v>0.6505376344086021</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="W11">
+        <v>28</v>
+      </c>
+      <c r="X11">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y11">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="Z11">
+        <v>0.3494623655913979</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>-0.2079794158030091</v>
+      </c>
+      <c r="AE11">
+        <v>7</v>
+      </c>
+      <c r="AF11">
+        <v>0.5031729092563189</v>
+      </c>
+      <c r="AG11">
+        <v>6</v>
+      </c>
+      <c r="AH11">
+        <v>-0.2079794158030091</v>
+      </c>
+      <c r="AI11">
+        <v>0.5031729092563189</v>
+      </c>
+      <c r="AJ11">
+        <v>0.0723079676934327</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>-76853879.75640655</v>
+      </c>
+      <c r="AO11">
+        <v>7</v>
+      </c>
+      <c r="AP11">
+        <v>153707278.5090353</v>
+      </c>
+      <c r="AQ11">
+        <v>6</v>
+      </c>
+      <c r="AR11">
+        <v>-76853879.75640655</v>
+      </c>
+      <c r="AS11">
+        <v>153707278.5090353</v>
+      </c>
+      <c r="AT11">
+        <v>21854575.2392667</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="AY11">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="AZ11">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="BA11">
+        <v>1.144056816627906</v>
+      </c>
+      <c r="BB11">
+        <v>1.144056816627906</v>
+      </c>
+      <c r="BC11">
+        <v>1.144056816627906</v>
+      </c>
+      <c r="BD11">
+        <v>18</v>
+      </c>
+      <c r="BE11">
+        <v>154</v>
+      </c>
+      <c r="BF11">
+        <v>55.73737373737374</v>
+      </c>
+      <c r="BG11">
+        <v>29.41022493073594</v>
+      </c>
+      <c r="BH11">
+        <v>48891052.09371597</v>
+      </c>
+      <c r="BI11">
+        <v>131521110.5102637</v>
+      </c>
+      <c r="BJ11">
+        <v>629225338.9300364</v>
+      </c>
+      <c r="BO11">
+        <v>29</v>
+      </c>
+      <c r="BQ11">
+        <v>1</v>
+      </c>
+      <c r="BT11">
+        <v>0.003859587937998975</v>
+      </c>
+      <c r="BU11">
+        <v>0.003859587937998975</v>
+      </c>
+      <c r="BV11">
+        <v>0.003859587937998975</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>1</v>
+      </c>
+      <c r="BY11">
+        <v>1</v>
+      </c>
+      <c r="BZ11">
+        <v>1</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>1.034482745023385</v>
+      </c>
+      <c r="CC11">
+        <v>29</v>
+      </c>
+      <c r="CD11">
+        <v>8.441225602969174</v>
+      </c>
+      <c r="CE11">
+        <v>1</v>
+      </c>
+      <c r="CF11">
+        <v>1.034482745023385</v>
+      </c>
+      <c r="CG11">
+        <v>8.441225602969174</v>
+      </c>
+      <c r="CH11">
+        <v>2.450374998163635</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>8.441225602969174</v>
+      </c>
+      <c r="CM11">
+        <v>8.441225602969174</v>
+      </c>
+      <c r="CN11">
+        <v>8.441225602969174</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:93">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0.03</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>103</v>
+      </c>
+      <c r="H12">
+        <v>52</v>
+      </c>
+      <c r="I12">
+        <v>37.47888294315436</v>
+      </c>
+      <c r="J12">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="K12">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="M12">
+        <v>60</v>
+      </c>
+      <c r="N12">
+        <v>0.5</v>
+      </c>
+      <c r="O12">
+        <v>0.7333333333333334</v>
+      </c>
+      <c r="P12">
+        <v>0.6360517936369329</v>
+      </c>
+      <c r="Q12">
+        <v>0.04714045207910316</v>
+      </c>
+      <c r="R12">
+        <v>0.02721655269759091</v>
+      </c>
+      <c r="S12">
+        <v>0.009659021154789038</v>
+      </c>
+      <c r="T12">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="U12">
+        <v>60</v>
+      </c>
+      <c r="V12">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="W12">
+        <v>23</v>
+      </c>
+      <c r="X12">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y12">
+        <v>0.5</v>
+      </c>
+      <c r="Z12">
+        <v>0.363948206363067</v>
+      </c>
+      <c r="AA12">
+        <v>0.02721655269759086</v>
+      </c>
+      <c r="AB12">
+        <v>0.04714045207910316</v>
+      </c>
+      <c r="AC12">
+        <v>0.009659021154789039</v>
+      </c>
+      <c r="AD12">
+        <v>-0.3940552031195507</v>
+      </c>
+      <c r="AE12">
+        <v>89</v>
+      </c>
+      <c r="AF12">
+        <v>0.457456590968613</v>
+      </c>
+      <c r="AG12">
+        <v>7</v>
+      </c>
+      <c r="AH12">
+        <v>-0.2352327745578414</v>
+      </c>
+      <c r="AI12">
+        <v>0.4151789727045568</v>
+      </c>
+      <c r="AJ12">
+        <v>0.09157937559822431</v>
+      </c>
+      <c r="AK12">
+        <v>0.1138723417560979</v>
+      </c>
+      <c r="AL12">
+        <v>0.05093240529511162</v>
+      </c>
+      <c r="AM12">
+        <v>0.07240076986031781</v>
+      </c>
+      <c r="AN12">
+        <v>-128004777.9900538</v>
+      </c>
+      <c r="AO12">
+        <v>89</v>
+      </c>
+      <c r="AP12">
+        <v>169841265.5160488</v>
+      </c>
+      <c r="AQ12">
+        <v>7</v>
+      </c>
+      <c r="AR12">
+        <v>-76090651.87022574</v>
+      </c>
+      <c r="AS12">
+        <v>141972890.823054</v>
+      </c>
+      <c r="AT12">
+        <v>26743182.84771239</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <v>1.4</v>
+      </c>
+      <c r="AX12">
+        <v>1.230769230769231</v>
+      </c>
+      <c r="AY12">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="AZ12">
+        <v>1.367521367521367</v>
+      </c>
+      <c r="BA12">
+        <v>1.074474111824371</v>
+      </c>
+      <c r="BB12">
+        <v>1.325160594741876</v>
+      </c>
+      <c r="BC12">
+        <v>1.173886949105694</v>
+      </c>
+      <c r="BD12">
+        <v>16</v>
+      </c>
+      <c r="BE12">
+        <v>147</v>
+      </c>
+      <c r="BF12">
+        <v>53.58762886597938</v>
+      </c>
+      <c r="BG12">
+        <v>27.51560103947014</v>
+      </c>
+      <c r="BH12">
+        <v>55113493.63774494</v>
+      </c>
+      <c r="BI12">
+        <v>150781694.9097554</v>
+      </c>
+      <c r="BJ12">
+        <v>753319501.0832453</v>
+      </c>
+      <c r="BO12">
+        <v>13</v>
+      </c>
+      <c r="BQ12">
+        <v>1</v>
+      </c>
+      <c r="BT12">
+        <v>0.005290199552226683</v>
+      </c>
+      <c r="BU12">
+        <v>0.2816061616560101</v>
+      </c>
+      <c r="BV12">
+        <v>0.1212239731581831</v>
+      </c>
+      <c r="BW12">
+        <v>0.1171021602935795</v>
+      </c>
+      <c r="BX12">
+        <v>1</v>
+      </c>
+      <c r="BY12">
+        <v>2.5</v>
+      </c>
+      <c r="BZ12">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="CA12">
+        <v>0.6236095644623235</v>
+      </c>
+      <c r="CB12">
+        <v>1.034482617463876</v>
+      </c>
+      <c r="CC12">
+        <v>13</v>
+      </c>
+      <c r="CD12">
+        <v>25.74683067858448</v>
+      </c>
+      <c r="CE12">
+        <v>1</v>
+      </c>
+      <c r="CF12">
+        <v>1.059096362191267</v>
+      </c>
+      <c r="CG12">
+        <v>21.33576991553636</v>
+      </c>
+      <c r="CH12">
+        <v>3.38857887707571</v>
+      </c>
+      <c r="CI12">
+        <v>0.01740455810149527</v>
+      </c>
+      <c r="CJ12">
+        <v>4.656883084699786</v>
+      </c>
+      <c r="CK12">
+        <v>0.1169418504880406</v>
+      </c>
+      <c r="CL12">
+        <v>5.062679820287014</v>
+      </c>
+      <c r="CM12">
+        <v>25.74683067858448</v>
+      </c>
+      <c r="CN12">
+        <v>14.77482753305212</v>
+      </c>
+      <c r="CO12">
+        <v>8.491130704674802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:93">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0.02</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>59</v>
+      </c>
+      <c r="H13">
+        <v>47.5</v>
+      </c>
+      <c r="I13">
+        <v>11.5</v>
+      </c>
+      <c r="J13">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="K13">
+        <v>29</v>
+      </c>
+      <c r="L13">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="M13">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="O13">
+        <v>0.75</v>
+      </c>
+      <c r="P13">
+        <v>0.6229146141215107</v>
+      </c>
+      <c r="Q13">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="R13">
+        <v>0.01666666666666672</v>
+      </c>
+      <c r="S13">
+        <v>0.002799671592775055</v>
+      </c>
+      <c r="T13">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="U13">
+        <v>25</v>
+      </c>
+      <c r="V13">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="W13">
+        <v>29</v>
+      </c>
+      <c r="X13">
+        <v>0.25</v>
+      </c>
+      <c r="Y13">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="Z13">
+        <v>0.3770853858784893</v>
+      </c>
+      <c r="AA13">
+        <v>0.01666666666666666</v>
+      </c>
+      <c r="AB13">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="AC13">
+        <v>0.002799671592774999</v>
+      </c>
+      <c r="AD13">
+        <v>-0.4008918628686366</v>
+      </c>
+      <c r="AE13">
+        <v>23</v>
+      </c>
+      <c r="AF13">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AG13">
+        <v>49</v>
+      </c>
+      <c r="AH13">
+        <v>-0.3789343768568021</v>
+      </c>
+      <c r="AI13">
+        <v>0.4749999999999999</v>
+      </c>
+      <c r="AJ13">
+        <v>0.05412910052901834</v>
+      </c>
+      <c r="AK13">
+        <v>0.02195748601183453</v>
+      </c>
+      <c r="AL13">
+        <v>0.05833333333333346</v>
+      </c>
+      <c r="AM13">
+        <v>0.009970393951119573</v>
+      </c>
+      <c r="AN13">
+        <v>-8</v>
+      </c>
+      <c r="AO13">
+        <v>10</v>
+      </c>
+      <c r="AP13">
+        <v>12</v>
+      </c>
+      <c r="AQ13">
+        <v>49</v>
+      </c>
+      <c r="AR13">
+        <v>-7</v>
+      </c>
+      <c r="AS13">
+        <v>11</v>
+      </c>
+      <c r="AT13">
+        <v>1.049909688013136</v>
+      </c>
+      <c r="AU13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AV13">
+        <v>2</v>
+      </c>
+      <c r="AW13">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AX13">
+        <v>1.5</v>
+      </c>
+      <c r="AY13">
+        <v>1.5</v>
+      </c>
+      <c r="AZ13">
+        <v>1.5</v>
+      </c>
+      <c r="BA13">
+        <v>1.107049184094845</v>
+      </c>
+      <c r="BB13">
+        <v>1.167017759484998</v>
+      </c>
+      <c r="BC13">
+        <v>1.137033471789922</v>
+      </c>
+      <c r="BD13">
+        <v>14</v>
+      </c>
+      <c r="BE13">
+        <v>154</v>
+      </c>
+      <c r="BF13">
+        <v>55.87755102040816</v>
+      </c>
+      <c r="BG13">
+        <v>30.63753377207689</v>
+      </c>
+      <c r="BH13">
+        <v>50.89795918367347</v>
+      </c>
+      <c r="BI13">
+        <v>4.741242831808003</v>
+      </c>
+      <c r="BJ13">
+        <v>64</v>
+      </c>
+      <c r="BO13">
+        <v>58</v>
+      </c>
+      <c r="BQ13">
+        <v>1</v>
+      </c>
+      <c r="BT13">
+        <v>-0.1416609575005177</v>
+      </c>
+      <c r="BU13">
+        <v>0.3031815813212999</v>
+      </c>
+      <c r="BV13">
+        <v>0.08076031191039111</v>
+      </c>
+      <c r="BW13">
+        <v>0.2224212694109088</v>
+      </c>
+      <c r="BX13">
+        <v>1</v>
+      </c>
+      <c r="BY13">
+        <v>3</v>
+      </c>
+      <c r="BZ13">
+        <v>2</v>
+      </c>
+      <c r="CA13">
+        <v>1</v>
+      </c>
+      <c r="CB13">
+        <v>1.015228426395939</v>
+      </c>
+      <c r="CC13">
+        <v>58</v>
+      </c>
+      <c r="CD13">
+        <v>1.93923723335488</v>
+      </c>
+      <c r="CE13">
+        <v>1</v>
+      </c>
+      <c r="CF13">
+        <v>1.016088789469156</v>
+      </c>
+      <c r="CG13">
+        <v>1.934869581928405</v>
+      </c>
+      <c r="CH13">
+        <v>1.378337856772792</v>
+      </c>
+      <c r="CI13">
+        <v>0.0008603630732169076</v>
+      </c>
+      <c r="CJ13">
+        <v>0.004367651426474772</v>
+      </c>
+      <c r="CK13">
+        <v>0.09202766383433036</v>
+      </c>
+      <c r="CL13">
+        <v>1.794258373205742</v>
+      </c>
+      <c r="CM13">
+        <v>1.93923723335488</v>
+      </c>
+      <c r="CN13">
+        <v>1.866747803280311</v>
+      </c>
+      <c r="CO13">
+        <v>0.07248943007456932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:93">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>21</v>
+      </c>
+      <c r="G14">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="I14">
+        <v>6.599663291074443</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>18</v>
+      </c>
+      <c r="L14">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>0.5222222222222223</v>
+      </c>
+      <c r="O14">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="P14">
+        <v>0.6218281101614432</v>
+      </c>
+      <c r="Q14">
+        <v>0.01571348402636772</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.002504486153086428</v>
+      </c>
+      <c r="T14">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="U14">
+        <v>15</v>
+      </c>
+      <c r="V14">
+        <v>0.5</v>
+      </c>
+      <c r="W14">
+        <v>18</v>
+      </c>
+      <c r="X14">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y14">
+        <v>0.4777777777777778</v>
+      </c>
+      <c r="Z14">
+        <v>0.3781718898385567</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0.01571348402636772</v>
+      </c>
+      <c r="AC14">
+        <v>0.002504486153086233</v>
+      </c>
+      <c r="AD14">
+        <v>-0.534243740374425</v>
+      </c>
+      <c r="AE14">
+        <v>3</v>
+      </c>
+      <c r="AF14">
+        <v>0.4527969149123378</v>
+      </c>
+      <c r="AG14">
+        <v>31</v>
+      </c>
+      <c r="AH14">
+        <v>-0.2975033420067347</v>
+      </c>
+      <c r="AI14">
+        <v>0.3880814592068578</v>
+      </c>
+      <c r="AJ14">
+        <v>0.07792315067128365</v>
+      </c>
+      <c r="AK14">
+        <v>0.1720279127354017</v>
+      </c>
+      <c r="AL14">
+        <v>0.0457912543193908</v>
+      </c>
+      <c r="AM14">
+        <v>0.01557623496468558</v>
+      </c>
+      <c r="AN14">
+        <v>-3.934381820836272</v>
+      </c>
+      <c r="AO14">
+        <v>3</v>
+      </c>
+      <c r="AP14">
+        <v>4.038959674730428</v>
+      </c>
+      <c r="AQ14">
+        <v>23</v>
+      </c>
+      <c r="AR14">
+        <v>-2.303694059541039</v>
+      </c>
+      <c r="AS14">
+        <v>3.85569946351224</v>
+      </c>
+      <c r="AT14">
+        <v>0.677369312685864</v>
+      </c>
+      <c r="AU14">
+        <v>0.5</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
+        <v>1.055555555555556</v>
+      </c>
+      <c r="AX14">
+        <v>1.230769230769231</v>
+      </c>
+      <c r="AY14">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="AZ14">
+        <v>1.407925407925408</v>
+      </c>
+      <c r="BA14">
+        <v>1.182349922321186</v>
+      </c>
+      <c r="BB14">
+        <v>1.229234975991894</v>
+      </c>
+      <c r="BC14">
+        <v>1.202049059762802</v>
+      </c>
+      <c r="BD14">
+        <v>17</v>
+      </c>
+      <c r="BE14">
+        <v>179</v>
+      </c>
+      <c r="BF14">
+        <v>58.59793814432989</v>
+      </c>
+      <c r="BG14">
+        <v>33.05342747603794</v>
+      </c>
+      <c r="BH14">
+        <v>30.28525349353842</v>
+      </c>
+      <c r="BI14">
+        <v>9.83626958629389</v>
+      </c>
+      <c r="BJ14">
+        <v>48.68423161128631</v>
+      </c>
+      <c r="BO14">
+        <v>22</v>
+      </c>
+      <c r="BQ14">
+        <v>6</v>
+      </c>
+      <c r="BT14">
+        <v>-0.01335295148209899</v>
+      </c>
+      <c r="BU14">
+        <v>0.2526074524331764</v>
+      </c>
+      <c r="BV14">
+        <v>0.1549122709467966</v>
+      </c>
+      <c r="BW14">
+        <v>0.1194956962172428</v>
+      </c>
+      <c r="BX14">
+        <v>0.5</v>
+      </c>
+      <c r="BY14">
+        <v>3</v>
+      </c>
+      <c r="BZ14">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="CA14">
+        <v>1.027402333828163</v>
+      </c>
+      <c r="CB14">
+        <v>1.013689192097988</v>
+      </c>
+      <c r="CC14">
+        <v>22</v>
+      </c>
+      <c r="CD14">
+        <v>1.737303963202984</v>
+      </c>
+      <c r="CE14">
+        <v>6</v>
+      </c>
+      <c r="CF14">
+        <v>1.021694328180425</v>
+      </c>
+      <c r="CG14">
+        <v>1.632039124433717</v>
+      </c>
+      <c r="CH14">
+        <v>1.297990996720726</v>
+      </c>
+      <c r="CI14">
+        <v>0.005823233708698423</v>
+      </c>
+      <c r="CJ14">
+        <v>0.07522204649280648</v>
+      </c>
+      <c r="CK14">
+        <v>0.05134387327249278</v>
+      </c>
+      <c r="CL14">
+        <v>1.547664745458831</v>
+      </c>
+      <c r="CM14">
+        <v>1.566101829739294</v>
+      </c>
+      <c r="CN14">
+        <v>1.556465428668628</v>
+      </c>
+      <c r="CO14">
+        <v>0.007550070085699388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:93">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0.03</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>33</v>
+      </c>
+      <c r="G15">
+        <v>65</v>
+      </c>
+      <c r="H15">
+        <v>47.33333333333334</v>
+      </c>
+      <c r="I15">
+        <v>13.27487183449325</v>
+      </c>
+      <c r="J15">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="K15">
+        <v>26</v>
+      </c>
+      <c r="L15">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M15">
+        <v>29</v>
+      </c>
+      <c r="N15">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="O15">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="P15">
+        <v>0.6275314922480618</v>
+      </c>
+      <c r="Q15">
+        <v>0.01571348402636772</v>
+      </c>
+      <c r="R15">
+        <v>0.05443310539518177</v>
+      </c>
+      <c r="S15">
+        <v>0.002776903246672104</v>
+      </c>
+      <c r="T15">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="U15">
+        <v>29</v>
+      </c>
+      <c r="V15">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="W15">
+        <v>26</v>
+      </c>
+      <c r="X15">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="Y15">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="Z15">
+        <v>0.3724685077519381</v>
+      </c>
+      <c r="AA15">
+        <v>0.05443310539518174</v>
+      </c>
+      <c r="AB15">
+        <v>0.01571348402636772</v>
+      </c>
+      <c r="AC15">
+        <v>0.002776903246672127</v>
+      </c>
+      <c r="AD15">
+        <v>-0.3514622069003941</v>
+      </c>
+      <c r="AE15">
+        <v>26</v>
+      </c>
+      <c r="AF15">
+        <v>0.3704249908278719</v>
+      </c>
+      <c r="AG15">
+        <v>5</v>
+      </c>
+      <c r="AH15">
+        <v>-0.298265073309972</v>
+      </c>
+      <c r="AI15">
+        <v>0.3432428066338772</v>
+      </c>
+      <c r="AJ15">
+        <v>0.05167176939652531</v>
+      </c>
+      <c r="AK15">
+        <v>0.03988233254464097</v>
+      </c>
+      <c r="AL15">
+        <v>0.03388494378154303</v>
+      </c>
+      <c r="AM15">
+        <v>0.01111710396659603</v>
+      </c>
+      <c r="AN15">
+        <v>-2.965302597045778</v>
+      </c>
+      <c r="AO15">
+        <v>16</v>
+      </c>
+      <c r="AP15">
+        <v>3.867450413296176</v>
+      </c>
+      <c r="AQ15">
+        <v>12</v>
+      </c>
+      <c r="AR15">
+        <v>-2.584226519267453</v>
+      </c>
+      <c r="AS15">
+        <v>3.498078886312798</v>
+      </c>
+      <c r="AT15">
+        <v>0.4454275340933975</v>
+      </c>
+      <c r="AU15">
+        <v>0.5</v>
+      </c>
+      <c r="AV15">
+        <v>4</v>
+      </c>
+      <c r="AW15">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="AX15">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="AY15">
+        <v>1.5</v>
+      </c>
+      <c r="AZ15">
+        <v>1.293040293040293</v>
+      </c>
+      <c r="BA15">
+        <v>1.083647081485709</v>
+      </c>
+      <c r="BB15">
+        <v>1.174738513018251</v>
+      </c>
+      <c r="BC15">
+        <v>1.120919258355305</v>
+      </c>
+      <c r="BD15">
+        <v>16</v>
+      </c>
+      <c r="BE15">
+        <v>131</v>
+      </c>
+      <c r="BF15">
+        <v>50.18556701030928</v>
+      </c>
+      <c r="BG15">
+        <v>26.04489775186886</v>
+      </c>
+      <c r="BH15">
+        <v>29.75877074419241</v>
+      </c>
+      <c r="BI15">
+        <v>8.995373739474903</v>
+      </c>
+      <c r="BJ15">
+        <v>47.88197250728689</v>
+      </c>
+      <c r="BO15">
+        <v>63</v>
+      </c>
+      <c r="BQ15">
+        <v>1</v>
+      </c>
+      <c r="BT15">
+        <v>0.1581109640599782</v>
+      </c>
+      <c r="BU15">
+        <v>0.2990815736688096</v>
+      </c>
+      <c r="BV15">
+        <v>0.2503614921071644</v>
+      </c>
+      <c r="BW15">
+        <v>0.06526537122545305</v>
+      </c>
+      <c r="BX15">
+        <v>1</v>
+      </c>
+      <c r="BY15">
+        <v>2</v>
+      </c>
+      <c r="BZ15">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="CA15">
+        <v>0.4714045207910317</v>
+      </c>
+      <c r="CB15">
+        <v>1.00792800514249</v>
+      </c>
+      <c r="CC15">
+        <v>63</v>
+      </c>
+      <c r="CD15">
+        <v>1.70107406030826</v>
+      </c>
+      <c r="CE15">
+        <v>1</v>
+      </c>
+      <c r="CF15">
+        <v>1.012246365125237</v>
+      </c>
+      <c r="CG15">
+        <v>1.619147663975442</v>
+      </c>
+      <c r="CH15">
+        <v>1.229081609805105</v>
+      </c>
+      <c r="CI15">
+        <v>0.003054034118059252</v>
+      </c>
+      <c r="CJ15">
+        <v>0.1006596649541869</v>
+      </c>
+      <c r="CK15">
+        <v>0.07274715280442237</v>
+      </c>
+      <c r="CL15">
+        <v>1.477364817867909</v>
+      </c>
+      <c r="CM15">
+        <v>1.70107406030826</v>
+      </c>
+      <c r="CN15">
+        <v>1.619147663975442</v>
+      </c>
+      <c r="CO15">
+        <v>0.1006596649541869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:93">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0.05</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>38.2</v>
+      </c>
+      <c r="I16">
+        <v>18.54076589572286</v>
+      </c>
+      <c r="J16">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="K16">
+        <v>21</v>
+      </c>
+      <c r="L16">
+        <v>0.8</v>
+      </c>
+      <c r="M16">
+        <v>18</v>
+      </c>
+      <c r="N16">
+        <v>0.4933333333333333</v>
+      </c>
+      <c r="O16">
+        <v>0.7533333333333333</v>
+      </c>
+      <c r="P16">
+        <v>0.6252719027004741</v>
+      </c>
+      <c r="Q16">
+        <v>0.02494438257849294</v>
+      </c>
+      <c r="R16">
+        <v>0.03399346342395194</v>
+      </c>
+      <c r="S16">
+        <v>0.01243089120282426</v>
+      </c>
+      <c r="T16">
+        <v>0.2</v>
+      </c>
+      <c r="U16">
+        <v>18</v>
+      </c>
+      <c r="V16">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="W16">
+        <v>21</v>
+      </c>
+      <c r="X16">
+        <v>0.2466666666666667</v>
+      </c>
+      <c r="Y16">
+        <v>0.5066666666666666</v>
+      </c>
+      <c r="Z16">
+        <v>0.3747280972995259</v>
+      </c>
+      <c r="AA16">
+        <v>0.03399346342395189</v>
+      </c>
+      <c r="AB16">
+        <v>0.02494438257849294</v>
+      </c>
+      <c r="AC16">
+        <v>0.01243089120282418</v>
+      </c>
+      <c r="AD16">
+        <v>-0.3813408925950759</v>
+      </c>
+      <c r="AE16">
+        <v>24</v>
+      </c>
+      <c r="AF16">
+        <v>0.5227075456408075</v>
+      </c>
+      <c r="AG16">
+        <v>3</v>
+      </c>
+      <c r="AH16">
+        <v>-0.2604784881950901</v>
+      </c>
+      <c r="AI16">
+        <v>0.4471531549727445</v>
+      </c>
+      <c r="AJ16">
+        <v>0.07528587401850831</v>
+      </c>
+      <c r="AK16">
+        <v>0.1391469268316123</v>
+      </c>
+      <c r="AL16">
+        <v>0.05466994035141699</v>
+      </c>
+      <c r="AM16">
+        <v>0.03647007981672121</v>
+      </c>
+      <c r="AN16">
+        <v>-0.1570450350908631</v>
+      </c>
+      <c r="AO16">
+        <v>34</v>
+      </c>
+      <c r="AP16">
+        <v>0.2272487224146378</v>
+      </c>
+      <c r="AQ16">
+        <v>49</v>
+      </c>
+      <c r="AR16">
+        <v>-0.1004274048543446</v>
+      </c>
+      <c r="AS16">
+        <v>0.1807099056444164</v>
+      </c>
+      <c r="AT16">
+        <v>0.02472485581962494</v>
+      </c>
+      <c r="AU16">
+        <v>0.5</v>
+      </c>
+      <c r="AV16">
+        <v>2.5</v>
+      </c>
+      <c r="AW16">
+        <v>1.5</v>
+      </c>
+      <c r="AX16">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="AY16">
+        <v>1.888888888888889</v>
+      </c>
+      <c r="AZ16">
+        <v>1.474314574314574</v>
+      </c>
+      <c r="BA16">
+        <v>1.113825823814846</v>
+      </c>
+      <c r="BB16">
+        <v>1.340009551222002</v>
+      </c>
+      <c r="BC16">
+        <v>1.200216571268362</v>
+      </c>
+      <c r="BD16">
+        <v>14</v>
+      </c>
+      <c r="BE16">
+        <v>134</v>
+      </c>
+      <c r="BF16">
+        <v>57.03157894736842</v>
+      </c>
+      <c r="BG16">
+        <v>28.20655117319153</v>
+      </c>
+      <c r="BH16">
+        <v>0.2097182650488891</v>
+      </c>
+      <c r="BI16">
+        <v>0.2580305520030095</v>
+      </c>
+      <c r="BJ16">
+        <v>0.9281656472538458</v>
+      </c>
+      <c r="BO16">
+        <v>20</v>
+      </c>
+      <c r="BQ16">
+        <v>2</v>
+      </c>
+      <c r="BT16">
+        <v>-0.04148910706274139</v>
+      </c>
+      <c r="BU16">
+        <v>0.4074794558737634</v>
+      </c>
+      <c r="BV16">
+        <v>0.1771987631258644</v>
+      </c>
+      <c r="BW16">
+        <v>0.1878831046829639</v>
+      </c>
+      <c r="BX16">
+        <v>2</v>
+      </c>
+      <c r="BY16">
+        <v>6</v>
+      </c>
+      <c r="BZ16">
+        <v>3.2</v>
+      </c>
+      <c r="CA16">
+        <v>1.6</v>
+      </c>
+      <c r="CB16">
+        <v>1.011973769028006</v>
+      </c>
+      <c r="CC16">
+        <v>20</v>
+      </c>
+      <c r="CD16">
+        <v>7.091274255466111</v>
+      </c>
+      <c r="CE16">
+        <v>2</v>
+      </c>
+      <c r="CF16">
+        <v>1.033581962774105</v>
+      </c>
+      <c r="CG16">
+        <v>5.666931786501914</v>
+      </c>
+      <c r="CH16">
+        <v>2.172809118577924</v>
+      </c>
+      <c r="CI16">
+        <v>0.01487228851005191</v>
+      </c>
+      <c r="CJ16">
+        <v>1.119691293082867</v>
+      </c>
+      <c r="CK16">
+        <v>0.5462034419259508</v>
+      </c>
+      <c r="CL16">
+        <v>2.367976695533428</v>
+      </c>
+      <c r="CM16">
+        <v>6.626471615578453</v>
+      </c>
+      <c r="CN16">
+        <v>3.945247188275381</v>
+      </c>
+      <c r="CO16">
+        <v>1.467709771885096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:93">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0.04</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>44</v>
+      </c>
+      <c r="H17">
+        <v>33.75</v>
+      </c>
+      <c r="I17">
+        <v>7.885905147793753</v>
+      </c>
+      <c r="J17">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="K17">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>0.8</v>
+      </c>
+      <c r="M17">
+        <v>24</v>
+      </c>
+      <c r="N17">
+        <v>0.5</v>
+      </c>
+      <c r="O17">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="P17">
+        <v>0.6323803179217423</v>
+      </c>
+      <c r="Q17">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="R17">
+        <v>0.04330127018922197</v>
+      </c>
+      <c r="S17">
+        <v>0.006627802022503002</v>
+      </c>
+      <c r="T17">
+        <v>0.2</v>
+      </c>
+      <c r="U17">
+        <v>24</v>
+      </c>
+      <c r="V17">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="W17">
+        <v>20</v>
+      </c>
+      <c r="X17">
+        <v>0.2583333333333333</v>
+      </c>
+      <c r="Y17">
+        <v>0.5</v>
+      </c>
+      <c r="Z17">
+        <v>0.3676196820782578</v>
+      </c>
+      <c r="AA17">
+        <v>0.04330127018922193</v>
+      </c>
+      <c r="AB17">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="AC17">
+        <v>0.006627802022502852</v>
+      </c>
+      <c r="AD17">
+        <v>-0.4081361378004133</v>
+      </c>
+      <c r="AE17">
+        <v>17</v>
+      </c>
+      <c r="AF17">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AG17">
+        <v>43</v>
+      </c>
+      <c r="AH17">
+        <v>-0.3063781012548336</v>
+      </c>
+      <c r="AI17">
+        <v>0.4349362598706871</v>
+      </c>
+      <c r="AJ17">
+        <v>0.08101590169493966</v>
+      </c>
+      <c r="AK17">
+        <v>0.08248869464684962</v>
+      </c>
+      <c r="AL17">
+        <v>0.05681211629770209</v>
+      </c>
+      <c r="AM17">
+        <v>0.0359794578609088</v>
+      </c>
+      <c r="AN17">
+        <v>-0.177803830834516</v>
+      </c>
+      <c r="AO17">
+        <v>17</v>
+      </c>
+      <c r="AP17">
+        <v>0.1903134330811412</v>
+      </c>
+      <c r="AQ17">
+        <v>11</v>
+      </c>
+      <c r="AR17">
+        <v>-0.1166314941205862</v>
+      </c>
+      <c r="AS17">
+        <v>0.166697216531432</v>
+      </c>
+      <c r="AT17">
+        <v>0.02472620526531903</v>
+      </c>
+      <c r="AU17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AV17">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AW17">
+        <v>0.8750000000000001</v>
+      </c>
+      <c r="AX17">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="AY17">
+        <v>1.384615384615385</v>
+      </c>
+      <c r="AZ17">
+        <v>1.247252747252747</v>
+      </c>
+      <c r="BA17">
+        <v>1.091981766871473</v>
+      </c>
+      <c r="BB17">
+        <v>1.291381793027391</v>
+      </c>
+      <c r="BC17">
+        <v>1.168588758806209</v>
+      </c>
+      <c r="BD17">
+        <v>16</v>
+      </c>
+      <c r="BE17">
+        <v>214</v>
+      </c>
+      <c r="BF17">
+        <v>53.53125</v>
+      </c>
+      <c r="BG17">
+        <v>31.08454637657593</v>
+      </c>
+      <c r="BH17">
+        <v>0.2013710743278555</v>
+      </c>
+      <c r="BI17">
+        <v>0.2500966182215391</v>
+      </c>
+      <c r="BJ17">
+        <v>0.9170040432046712</v>
+      </c>
+      <c r="BO17">
+        <v>21</v>
+      </c>
+      <c r="BQ17">
+        <v>2</v>
+      </c>
+      <c r="BT17">
+        <v>-0.2549465340972825</v>
+      </c>
+      <c r="BU17">
+        <v>0.3406838836462244</v>
+      </c>
+      <c r="BV17">
+        <v>0.01458464567232755</v>
+      </c>
+      <c r="BW17">
+        <v>0.2144511885127579</v>
+      </c>
+      <c r="BX17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="BY17">
+        <v>3</v>
+      </c>
+      <c r="BZ17">
+        <v>2.416666666666667</v>
+      </c>
+      <c r="CA17">
+        <v>1.010362971081845</v>
+      </c>
+      <c r="CB17">
+        <v>1.008763812869988</v>
+      </c>
+      <c r="CC17">
+        <v>21</v>
+      </c>
+      <c r="CD17">
+        <v>5.562239648177484</v>
+      </c>
+      <c r="CE17">
+        <v>2</v>
+      </c>
+      <c r="CF17">
+        <v>1.032412805464735</v>
+      </c>
+      <c r="CG17">
+        <v>5.187737322271631</v>
+      </c>
+      <c r="CH17">
+        <v>2.129374551911811</v>
+      </c>
+      <c r="CI17">
+        <v>0.01570391855713203</v>
+      </c>
+      <c r="CJ17">
+        <v>0.2251379640029207</v>
+      </c>
+      <c r="CK17">
+        <v>0.22591656951587</v>
+      </c>
+      <c r="CL17">
+        <v>3.780282571937773</v>
+      </c>
+      <c r="CM17">
+        <v>4.488519028444889</v>
+      </c>
+      <c r="CN17">
+        <v>4.093467134990231</v>
+      </c>
+      <c r="CO17">
+        <v>0.2676656524549147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:93">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>0.02</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>31.5</v>
+      </c>
+      <c r="I18">
+        <v>6.5</v>
+      </c>
+      <c r="J18">
+        <v>0.5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>21</v>
+      </c>
+      <c r="N18">
+        <v>0.5166666666666666</v>
+      </c>
+      <c r="O18">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="P18">
+        <v>0.6235172672672671</v>
+      </c>
+      <c r="Q18">
+        <v>0.01666666666666666</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>9.384384384375499E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="U18">
+        <v>21</v>
+      </c>
+      <c r="V18">
+        <v>0.5</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="X18">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="Y18">
+        <v>0.4833333333333333</v>
+      </c>
+      <c r="Z18">
+        <v>0.3764827327327329</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0.01666666666666666</v>
+      </c>
+      <c r="AC18">
+        <v>9.384384384392153E-05</v>
+      </c>
+      <c r="AD18">
+        <v>-0.3542353460759307</v>
+      </c>
+      <c r="AE18">
+        <v>5</v>
+      </c>
+      <c r="AF18">
+        <v>0.4060966165298095</v>
+      </c>
+      <c r="AG18">
+        <v>6</v>
+      </c>
+      <c r="AH18">
+        <v>-0.2882287841490765</v>
+      </c>
+      <c r="AI18">
+        <v>0.4000759098246799</v>
+      </c>
+      <c r="AJ18">
+        <v>0.07302140904733938</v>
+      </c>
+      <c r="AK18">
+        <v>0.0660065619268542</v>
+      </c>
+      <c r="AL18">
+        <v>0.00602070670512958</v>
+      </c>
+      <c r="AM18">
+        <v>0.01681116439772568</v>
+      </c>
+      <c r="AN18">
+        <v>-0.1136992468335917</v>
+      </c>
+      <c r="AO18">
+        <v>4</v>
+      </c>
+      <c r="AP18">
+        <v>0.159776821656358</v>
+      </c>
+      <c r="AQ18">
+        <v>30</v>
+      </c>
+      <c r="AR18">
+        <v>-0.09744860631947573</v>
+      </c>
+      <c r="AS18">
+        <v>0.1592000111831431</v>
+      </c>
+      <c r="AT18">
+        <v>0.02611642516530071</v>
+      </c>
+      <c r="AU18">
+        <v>2</v>
+      </c>
+      <c r="AV18">
+        <v>3</v>
+      </c>
+      <c r="AW18">
+        <v>2.5</v>
+      </c>
+      <c r="AX18">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="AY18">
+        <v>1.25</v>
+      </c>
+      <c r="AZ18">
+        <v>1.160714285714286</v>
+      </c>
+      <c r="BA18">
+        <v>1.144239030737886</v>
+      </c>
+      <c r="BB18">
+        <v>1.202765154837883</v>
+      </c>
+      <c r="BC18">
+        <v>1.173502092787885</v>
+      </c>
+      <c r="BD18">
+        <v>14</v>
+      </c>
+      <c r="BE18">
+        <v>141</v>
+      </c>
+      <c r="BF18">
+        <v>56.37755102040816</v>
+      </c>
+      <c r="BG18">
+        <v>24.36144298284854</v>
+      </c>
+      <c r="BH18">
+        <v>0.2160035890482659</v>
+      </c>
+      <c r="BI18">
+        <v>0.2694489376773497</v>
+      </c>
+      <c r="BJ18">
+        <v>0.9174763675898735</v>
+      </c>
+      <c r="BO18">
+        <v>32</v>
+      </c>
+      <c r="BQ18">
         <v>9</v>
       </c>
-      <c r="V9">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="W9">
+      <c r="BT18">
+        <v>0.1236255215376016</v>
+      </c>
+      <c r="BU18">
+        <v>0.1622930511606521</v>
+      </c>
+      <c r="BV18">
+        <v>0.1429592863491269</v>
+      </c>
+      <c r="BW18">
+        <v>0.01933376481152524</v>
+      </c>
+      <c r="BX18">
+        <v>1</v>
+      </c>
+      <c r="BY18">
+        <v>1</v>
+      </c>
+      <c r="BZ18">
+        <v>1</v>
+      </c>
+      <c r="CA18">
         <v>0</v>
       </c>
-      <c r="X9">
-        <v>0.3066666666666666</v>
-      </c>
-      <c r="Y9">
-        <v>0.71</v>
-      </c>
-      <c r="Z9">
-        <v>0.3850892397362985</v>
-      </c>
-      <c r="AA9">
-        <v>0.04163331998932265</v>
-      </c>
-      <c r="AB9">
-        <v>0.08439325934114776</v>
-      </c>
-      <c r="AC9">
-        <v>0.02971521818240697</v>
-      </c>
-      <c r="AD9">
-        <v>-0.4008918628686369</v>
-      </c>
-      <c r="AE9">
-        <v>6</v>
-      </c>
-      <c r="AF9">
-        <v>2.944284778000219</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>-0.04426574484517522</v>
-      </c>
-      <c r="AI9">
-        <v>1.985448070141359</v>
-      </c>
-      <c r="AJ9">
-        <v>0.2427644154618504</v>
-      </c>
-      <c r="AK9">
-        <v>0.1831087098036524</v>
-      </c>
-      <c r="AL9">
-        <v>0.4917063961157726</v>
-      </c>
-      <c r="AM9">
-        <v>0.1075470458927156</v>
-      </c>
-      <c r="AN9">
-        <v>-1039.587839303065</v>
-      </c>
-      <c r="AO9">
-        <v>6</v>
-      </c>
-      <c r="AP9">
-        <v>19702.33860574303</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>-26.07739909196607</v>
-      </c>
-      <c r="AS9">
-        <v>13657.26380052756</v>
-      </c>
-      <c r="AT9">
-        <v>1469.484197244061</v>
-      </c>
-      <c r="AU9">
-        <v>1.307692307692308</v>
-      </c>
-      <c r="AV9">
+      <c r="CB18">
+        <v>1.033014758678427</v>
+      </c>
+      <c r="CC18">
+        <v>32</v>
+      </c>
+      <c r="CD18">
+        <v>17.22348480371524</v>
+      </c>
+      <c r="CE18">
+        <v>9</v>
+      </c>
+      <c r="CF18">
+        <v>1.046815582034254</v>
+      </c>
+      <c r="CG18">
+        <v>10.94271032048443</v>
+      </c>
+      <c r="CH18">
+        <v>3.482821544523285</v>
+      </c>
+      <c r="CI18">
+        <v>0.01380082335582711</v>
+      </c>
+      <c r="CJ18">
+        <v>6.280774483230813</v>
+      </c>
+      <c r="CK18">
+        <v>1.523209023450746</v>
+      </c>
+      <c r="CL18">
+        <v>4.041264863726955</v>
+      </c>
+      <c r="CM18">
+        <v>4.266448823356598</v>
+      </c>
+      <c r="CN18">
+        <v>4.153856843541776</v>
+      </c>
+      <c r="CO18">
+        <v>0.1125919798148214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:93">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>0.05</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>135</v>
+      </c>
+      <c r="H19">
+        <v>58.4</v>
+      </c>
+      <c r="I19">
+        <v>43.11194730002346</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.8</v>
+      </c>
+      <c r="M19">
+        <v>42</v>
+      </c>
+      <c r="N19">
+        <v>0.5133333333333333</v>
+      </c>
+      <c r="O19">
+        <v>0.7533333333333333</v>
+      </c>
+      <c r="P19">
+        <v>0.627762036752419</v>
+      </c>
+      <c r="Q19">
+        <v>0.01632993161855452</v>
+      </c>
+      <c r="R19">
+        <v>0.02666666666666671</v>
+      </c>
+      <c r="S19">
+        <v>0.002412199982970498</v>
+      </c>
+      <c r="T19">
+        <v>0.2</v>
+      </c>
+      <c r="U19">
+        <v>42</v>
+      </c>
+      <c r="V19">
+        <v>0.5</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0.2466666666666666</v>
+      </c>
+      <c r="Y19">
+        <v>0.4866666666666667</v>
+      </c>
+      <c r="Z19">
+        <v>0.372237963247581</v>
+      </c>
+      <c r="AA19">
+        <v>0.02666666666666666</v>
+      </c>
+      <c r="AB19">
+        <v>0.01632993161855452</v>
+      </c>
+      <c r="AC19">
+        <v>0.00241219998297042</v>
+      </c>
+      <c r="AD19">
+        <v>-0.5555555555555558</v>
+      </c>
+      <c r="AE19">
+        <v>30</v>
+      </c>
+      <c r="AF19">
+        <v>0.6363961030678921</v>
+      </c>
+      <c r="AG19">
+        <v>60</v>
+      </c>
+      <c r="AH19">
+        <v>-0.441245295337087</v>
+      </c>
+      <c r="AI19">
+        <v>0.4570050945817156</v>
+      </c>
+      <c r="AJ19">
+        <v>0.05577042603588217</v>
+      </c>
+      <c r="AK19">
+        <v>0.1403660352881864</v>
+      </c>
+      <c r="AL19">
+        <v>0.1002700170249524</v>
+      </c>
+      <c r="AM19">
+        <v>0.03588058633170528</v>
+      </c>
+      <c r="AN19">
+        <v>-0.1999733691879295</v>
+      </c>
+      <c r="AO19">
+        <v>93</v>
+      </c>
+      <c r="AP19">
+        <v>0.2333022640525842</v>
+      </c>
+      <c r="AQ19">
+        <v>57</v>
+      </c>
+      <c r="AR19">
+        <v>-0.1276740443486818</v>
+      </c>
+      <c r="AS19">
+        <v>0.1724583269211318</v>
+      </c>
+      <c r="AT19">
+        <v>0.02016024888584736</v>
+      </c>
+      <c r="AU19">
+        <v>0.5</v>
+      </c>
+      <c r="AV19">
+        <v>2</v>
+      </c>
+      <c r="AW19">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="AX19">
+        <v>1.214285714285714</v>
+      </c>
+      <c r="AY19">
+        <v>1.5</v>
+      </c>
+      <c r="AZ19">
+        <v>1.304595404595405</v>
+      </c>
+      <c r="BA19">
+        <v>1.054560201542688</v>
+      </c>
+      <c r="BB19">
+        <v>1.227334690422021</v>
+      </c>
+      <c r="BC19">
+        <v>1.128711746004997</v>
+      </c>
+      <c r="BD19">
+        <v>13</v>
+      </c>
+      <c r="BE19">
+        <v>159</v>
+      </c>
+      <c r="BF19">
+        <v>52.77894736842105</v>
+      </c>
+      <c r="BG19">
+        <v>30.25859736804469</v>
+      </c>
+      <c r="BH19">
+        <v>0.2389335082304458</v>
+      </c>
+      <c r="BI19">
+        <v>0.2797142595104078</v>
+      </c>
+      <c r="BJ19">
+        <v>0.9377378484855904</v>
+      </c>
+      <c r="BO19">
+        <v>61</v>
+      </c>
+      <c r="BQ19">
+        <v>17</v>
+      </c>
+      <c r="BT19">
+        <v>-0.3289443626179819</v>
+      </c>
+      <c r="BU19">
+        <v>0.1499250698007044</v>
+      </c>
+      <c r="BV19">
+        <v>-0.0361214861792051</v>
+      </c>
+      <c r="BW19">
+        <v>0.1737851979187836</v>
+      </c>
+      <c r="BX19">
+        <v>2</v>
+      </c>
+      <c r="BY19">
         <v>3</v>
       </c>
-      <c r="AW9">
-        <v>2.001072261072261</v>
-      </c>
-      <c r="AX9">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="AY9">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="AZ9">
-        <v>1.539167499167499</v>
-      </c>
-      <c r="BA9">
-        <v>1.281978626079284</v>
-      </c>
-      <c r="BB9">
-        <v>2.733469842317392</v>
-      </c>
-      <c r="BC9">
-        <v>2.03645582377694</v>
-      </c>
-      <c r="BO9">
+      <c r="BZ19">
+        <v>2.3</v>
+      </c>
+      <c r="CA19">
+        <v>0.4</v>
+      </c>
+      <c r="CB19">
+        <v>1.004753678113377</v>
+      </c>
+      <c r="CC19">
+        <v>61</v>
+      </c>
+      <c r="CD19">
+        <v>11.7311532667588</v>
+      </c>
+      <c r="CE19">
         <v>17</v>
       </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
-        <v>0.3340371005242398</v>
-      </c>
-      <c r="BU9">
-        <v>0.8506856794478567</v>
-      </c>
-      <c r="BV9">
-        <v>0.6279593629657511</v>
-      </c>
-      <c r="BW9">
-        <v>0.1537943243367617</v>
-      </c>
-      <c r="BX9">
-        <v>2</v>
-      </c>
-      <c r="BY9">
-        <v>13</v>
-      </c>
-      <c r="BZ9">
-        <v>7.9</v>
-      </c>
-      <c r="CA9">
-        <v>2.981610303175115</v>
-      </c>
-      <c r="CB9">
-        <v>1.001308729228491</v>
-      </c>
-      <c r="CC9">
-        <v>17</v>
-      </c>
-      <c r="CD9">
-        <v>12.5262186227228</v>
-      </c>
-      <c r="CE9">
-        <v>0</v>
-      </c>
-      <c r="CF9">
-        <v>1.012417436469751</v>
-      </c>
-      <c r="CG9">
-        <v>8.446895235537671</v>
-      </c>
-      <c r="CH9">
-        <v>1.168424646519746</v>
-      </c>
-      <c r="CI9">
-        <v>0.008683366945376041</v>
-      </c>
-      <c r="CJ9">
-        <v>2.746212453050284</v>
-      </c>
-      <c r="CK9">
-        <v>0.1128369053170773</v>
-      </c>
-      <c r="CL9">
-        <v>1.238833251869997</v>
-      </c>
-      <c r="CM9">
-        <v>2.122208985498237</v>
-      </c>
-      <c r="CN9">
-        <v>1.644905404805177</v>
-      </c>
-      <c r="CO9">
-        <v>0.273226859642874</v>
+      <c r="CF19">
+        <v>1.025036756323525</v>
+      </c>
+      <c r="CG19">
+        <v>5.933972556665728</v>
+      </c>
+      <c r="CH19">
+        <v>1.877827565697081</v>
+      </c>
+      <c r="CI19">
+        <v>0.0119688549157687</v>
+      </c>
+      <c r="CJ19">
+        <v>3.0339574227616</v>
+      </c>
+      <c r="CK19">
+        <v>0.3949185344624847</v>
+      </c>
+      <c r="CL19">
+        <v>2.187646589563133</v>
+      </c>
+      <c r="CM19">
+        <v>5.144468301133883</v>
+      </c>
+      <c r="CN19">
+        <v>3.457216408817489</v>
+      </c>
+      <c r="CO19">
+        <v>1.0839440116035</v>
       </c>
     </row>
   </sheetData>
